--- a/AC_data_list.xlsx
+++ b/AC_data_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylab_dataPC\Desktop\Yuriy\AC_2p_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ys2605\Desktop\stuff\AC_2p_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -317,9 +317,6 @@
     <t>nice</t>
   </si>
   <si>
-    <t>seazure early on?</t>
-  </si>
-  <si>
     <t>A1_ammn1_11_21_18</t>
   </si>
   <si>
@@ -954,6 +951,9 @@
   </si>
   <si>
     <t>im_data_path</t>
+  </si>
+  <si>
+    <t>seazure early on?, there are two onset pulses for some reason</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1110,6 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1392,12 +1390,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12390" ySplit="495" topLeftCell="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="12390" ySplit="495" topLeftCell="D48" activePane="bottomRight"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="W1" sqref="W1:W1048576"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1403,8 @@
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14" style="18" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="4" customWidth="1"/>
@@ -1427,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -1435,53 +1433,53 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>1</v>
@@ -1500,14 +1498,14 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>182</v>
+      <c r="D2" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1527,22 +1525,22 @@
       <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R2" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1551,14 +1549,14 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>182</v>
+      <c r="D3" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1578,22 +1576,22 @@
       <c r="K3" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R3" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1602,14 +1600,14 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>182</v>
+      <c r="D4" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1629,22 +1627,22 @@
       <c r="K4" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R4" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1653,14 +1651,14 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>182</v>
+      <c r="D5" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1680,22 +1678,22 @@
       <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q5" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R5" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1710,14 +1708,14 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>182</v>
+      <c r="D7" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1737,22 +1735,22 @@
       <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R7" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1761,14 +1759,14 @@
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>182</v>
+      <c r="D8" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1788,22 +1786,22 @@
       <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q8" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R8" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1812,14 +1810,14 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>182</v>
+      <c r="D9" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -1839,22 +1837,22 @@
       <c r="K9" s="4">
         <v>1</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R9" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1863,14 +1861,14 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>182</v>
+      <c r="D10" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -1890,22 +1888,22 @@
       <c r="K10" s="4">
         <v>1</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="Q10" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R10" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1920,14 +1918,14 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>183</v>
+      <c r="D12" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -1944,16 +1942,16 @@
       <c r="J12" s="4">
         <v>160</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R12" s="10"/>
+        <v>286</v>
+      </c>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1962,14 +1960,14 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>183</v>
+      <c r="D13" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -1989,14 +1987,14 @@
       <c r="K13" s="4">
         <v>1.19</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="7"/>
       <c r="P13" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R13" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2005,14 +2003,14 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>183</v>
+      <c r="D14" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -2032,16 +2030,16 @@
       <c r="K14" s="4">
         <v>1.19</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R14" s="8"/>
+        <v>286</v>
+      </c>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2050,14 +2048,14 @@
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>183</v>
+      <c r="D15" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -2074,16 +2072,16 @@
       <c r="J15" s="4">
         <v>160</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="19" t="s">
         <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R15" s="20"/>
+        <v>286</v>
+      </c>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2092,14 +2090,14 @@
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>183</v>
+      <c r="D16" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -2116,16 +2114,16 @@
       <c r="J16" s="4">
         <v>160</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R16" s="20"/>
+        <v>286</v>
+      </c>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2140,14 +2138,14 @@
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>183</v>
+      <c r="D18" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -2167,14 +2165,14 @@
       <c r="K18" s="4">
         <v>1.19</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="10"/>
       <c r="P18" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R18" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2183,14 +2181,14 @@
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>183</v>
+      <c r="D19" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -2210,16 +2208,16 @@
       <c r="K19" s="4">
         <v>1.19</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>26</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R19" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -2228,14 +2226,14 @@
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>183</v>
+      <c r="D20" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -2252,14 +2250,14 @@
       <c r="J20" s="4">
         <v>200</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="10"/>
       <c r="P20" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R20" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R20" s="10"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2268,14 +2266,14 @@
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>183</v>
+      <c r="D21" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -2292,23 +2290,23 @@
       <c r="J21" s="4">
         <v>200</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R21" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2318,14 +2316,14 @@
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>184</v>
+      <c r="D23" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -2342,19 +2340,19 @@
       <c r="J23" s="4">
         <v>160</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R23" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R23" s="10"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -2363,14 +2361,14 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>184</v>
+      <c r="D24" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2387,19 +2385,19 @@
       <c r="J24" s="4">
         <v>160</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R24" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2408,16 +2406,16 @@
       <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>184</v>
+      <c r="D25" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="25">
+        <v>186</v>
+      </c>
+      <c r="F25" s="24">
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -2429,14 +2427,14 @@
       <c r="J25" s="4">
         <v>160</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="10"/>
       <c r="P25" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R25" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2445,16 +2443,16 @@
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>184</v>
+      <c r="D26" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="25">
+        <v>186</v>
+      </c>
+      <c r="F26" s="24">
         <v>0</v>
       </c>
       <c r="H26" s="4">
@@ -2466,24 +2464,24 @@
       <c r="J26" s="4">
         <v>160</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="10"/>
       <c r="P26" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R26" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="4"/>
-      <c r="L27" s="11"/>
-      <c r="R27" s="11"/>
+      <c r="L27" s="10"/>
+      <c r="R27" s="10"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2492,14 +2490,14 @@
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>184</v>
+      <c r="D28" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -2519,17 +2517,17 @@
       <c r="K28" s="4">
         <v>1.19</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R28" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R28" s="10"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2538,14 +2536,14 @@
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>184</v>
+      <c r="D29" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -2565,17 +2563,17 @@
       <c r="K29" s="4">
         <v>1.19</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R29" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="R29" s="10"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -2584,14 +2582,14 @@
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>184</v>
+      <c r="D30" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -2608,16 +2606,16 @@
       <c r="K30" s="4">
         <v>1.19</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="11" t="s">
         <v>50</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R30" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2626,14 +2624,14 @@
       <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>184</v>
+      <c r="D31" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -2651,18 +2649,18 @@
         <v>1.19</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2672,14 +2670,14 @@
       <c r="B33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -2693,10 +2691,10 @@
       <c r="J33" s="4">
         <v>160</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2705,14 +2703,14 @@
       <c r="B34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -2726,10 +2724,10 @@
       <c r="J34" s="4">
         <v>160</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="11"/>
+      <c r="R34" s="10"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2738,14 +2736,14 @@
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>185</v>
+      <c r="D35" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -2759,10 +2757,10 @@
       <c r="J35" s="4">
         <v>160</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="11"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -2771,14 +2769,14 @@
       <c r="B36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>185</v>
+      <c r="D36" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -2792,17 +2790,17 @@
       <c r="J36" s="4">
         <v>160</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="R36" s="11"/>
+      <c r="R36" s="10"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2812,14 +2810,14 @@
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -2841,14 +2839,14 @@
       <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -2870,14 +2868,14 @@
       <c r="B40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>185</v>
+      <c r="D40" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -2899,14 +2897,14 @@
       <c r="B41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>185</v>
+      <c r="D41" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -2925,8 +2923,8 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2936,14 +2934,14 @@
       <c r="B43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2957,23 +2955,23 @@
       <c r="I43" s="4">
         <v>1</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <v>140</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N43" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P43" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q43" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2983,14 +2981,14 @@
       <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -3004,23 +3002,23 @@
       <c r="I44" s="4">
         <v>2</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="10">
         <v>140</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N44" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O44" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="P44" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P44" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q44" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3030,14 +3028,14 @@
       <c r="B45" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>185</v>
+      <c r="C45" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -3051,23 +3049,23 @@
       <c r="I45" s="4">
         <v>3</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <v>140</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P45" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q45" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3077,14 +3075,14 @@
       <c r="B46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>185</v>
+      <c r="C46" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -3098,33 +3096,33 @@
       <c r="I46" s="4">
         <v>4</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="10">
         <v>140</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N46" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O46" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P46" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q46" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="4"/>
-      <c r="J47" s="11"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -3133,14 +3131,14 @@
       <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="20" t="s">
+      <c r="C48" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -3154,23 +3152,23 @@
       <c r="I48" s="4">
         <v>5</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="10">
         <v>220</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N48" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O48" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="P48" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P48" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q48" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3180,14 +3178,14 @@
       <c r="B49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="20" t="s">
+      <c r="C49" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -3201,23 +3199,23 @@
       <c r="I49" s="4">
         <v>6</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="10">
         <v>220</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N49" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O49" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P49" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q49" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3227,14 +3225,14 @@
       <c r="B50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>185</v>
+      <c r="C50" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -3248,23 +3246,23 @@
       <c r="I50" s="4">
         <v>7</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="10">
         <v>220</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N50" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O50" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P50" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q50" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3274,14 +3272,14 @@
       <c r="B51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>185</v>
+      <c r="C51" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -3295,31 +3293,31 @@
       <c r="I51" s="4">
         <v>8</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="10">
         <v>220</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N51" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="O51" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="P51" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="Q51" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3329,14 +3327,14 @@
       <c r="B53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>183</v>
+      <c r="D53" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -3360,16 +3358,16 @@
         <v>13</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R53" s="2"/>
     </row>
@@ -3380,14 +3378,14 @@
       <c r="B54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>183</v>
+      <c r="D54" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -3404,23 +3402,23 @@
       <c r="J54" s="4">
         <v>199</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="10">
         <v>1</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R54" s="2"/>
     </row>
@@ -3431,14 +3429,14 @@
       <c r="B55" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>183</v>
+      <c r="D55" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -3455,23 +3453,23 @@
       <c r="J55" s="4">
         <v>199</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="10">
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R55" s="2"/>
     </row>
@@ -3482,14 +3480,14 @@
       <c r="B56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>183</v>
+      <c r="D56" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -3506,21 +3504,21 @@
       <c r="J56" s="4">
         <v>199</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <v>1</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R56" s="2"/>
     </row>
@@ -3528,8 +3526,8 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="23"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="4"/>
       <c r="L57" s="2"/>
       <c r="R57" s="2"/>
@@ -3541,14 +3539,14 @@
       <c r="B58" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="20" t="s">
-        <v>183</v>
+      <c r="D58" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -3565,23 +3563,23 @@
       <c r="J58" s="4">
         <v>160</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="10">
         <v>1</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>94</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R58" s="2"/>
     </row>
@@ -3592,14 +3590,14 @@
       <c r="B59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="20" t="s">
-        <v>183</v>
+      <c r="D59" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -3616,23 +3614,23 @@
       <c r="J59" s="4">
         <v>160</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="10">
         <v>1</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R59" s="2"/>
     </row>
@@ -3643,14 +3641,14 @@
       <c r="B60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>183</v>
+      <c r="D60" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -3667,20 +3665,20 @@
       <c r="J60" s="4">
         <v>160</v>
       </c>
-      <c r="K60" s="11">
-        <v>1</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>96</v>
+      <c r="K60" s="10">
+        <v>1</v>
+      </c>
+      <c r="L60" s="25" t="s">
+        <v>308</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R60" s="2"/>
     </row>
@@ -3691,14 +3689,14 @@
       <c r="B61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>183</v>
+      <c r="D61" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -3720,16 +3718,16 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R61" s="2"/>
     </row>
@@ -3737,8 +3735,8 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="22"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="21"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -3748,14 +3746,14 @@
       <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>182</v>
+      <c r="D63" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -3777,16 +3775,16 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N63" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P63" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P63" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q63" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R63" s="2"/>
     </row>
@@ -3797,14 +3795,14 @@
       <c r="B64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>182</v>
+      <c r="D64" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -3826,16 +3824,16 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N64" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P64" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P64" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q64" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R64" s="2"/>
     </row>
@@ -3846,14 +3844,14 @@
       <c r="B65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>182</v>
+      <c r="D65" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -3877,16 +3875,16 @@
         <v>89</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N65" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P65" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q65" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R65" s="2"/>
     </row>
@@ -3897,14 +3895,14 @@
       <c r="B66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>182</v>
+      <c r="D66" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -3926,16 +3924,16 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N66" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P66" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P66" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q66" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R66" s="2"/>
     </row>
@@ -3943,8 +3941,8 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="4"/>
       <c r="L67" s="2"/>
       <c r="R67" s="2"/>
@@ -3956,14 +3954,14 @@
       <c r="B68" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="23" t="s">
-        <v>182</v>
+      <c r="D68" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -3987,16 +3985,16 @@
         <v>90</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N68" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P68" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P68" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q68" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R68" s="3"/>
     </row>
@@ -4007,14 +4005,14 @@
       <c r="B69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="23" t="s">
-        <v>182</v>
+      <c r="D69" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -4038,16 +4036,16 @@
         <v>91</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N69" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P69" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P69" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q69" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R69" s="2"/>
     </row>
@@ -4058,14 +4056,14 @@
       <c r="B70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>182</v>
+      <c r="D70" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -4089,16 +4087,16 @@
         <v>92</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N70" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P70" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P70" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q70" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R70" s="3"/>
     </row>
@@ -4109,14 +4107,14 @@
       <c r="B71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="23" t="s">
-        <v>182</v>
+      <c r="D71" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -4140,16 +4138,16 @@
         <v>93</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N71" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P71" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="P71" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="Q71" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R71" s="2"/>
     </row>
@@ -4157,8 +4155,8 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="22"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -4168,14 +4166,14 @@
       <c r="B73" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>184</v>
+      <c r="D73" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -4193,13 +4191,13 @@
         <v>87</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R73" s="2"/>
     </row>
@@ -4210,14 +4208,14 @@
       <c r="B74" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>184</v>
+      <c r="D74" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -4235,13 +4233,13 @@
         <v>87</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R74" s="2"/>
     </row>
@@ -4252,14 +4250,14 @@
       <c r="B75" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>184</v>
+      <c r="D75" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
@@ -4275,13 +4273,13 @@
       </c>
       <c r="L75" s="2"/>
       <c r="N75" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R75" s="2"/>
     </row>
@@ -4292,14 +4290,14 @@
       <c r="B76" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>184</v>
+      <c r="D76" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -4315,13 +4313,13 @@
       </c>
       <c r="L76" s="2"/>
       <c r="N76" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R76" s="2"/>
     </row>
@@ -4329,8 +4327,8 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="23"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="4"/>
       <c r="L77" s="2"/>
       <c r="R77" s="2"/>
@@ -4342,14 +4340,14 @@
       <c r="B78" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="23" t="s">
-        <v>184</v>
+      <c r="D78" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -4370,13 +4368,13 @@
         <v>88</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R78" s="2"/>
     </row>
@@ -4387,14 +4385,14 @@
       <c r="B79" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="23" t="s">
-        <v>184</v>
+      <c r="D79" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -4415,13 +4413,13 @@
         <v>88</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R79" s="2"/>
     </row>
@@ -4432,14 +4430,14 @@
       <c r="B80" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>184</v>
+      <c r="D80" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -4457,13 +4455,13 @@
         <v>1.19</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -4473,14 +4471,14 @@
       <c r="B81" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>184</v>
+      <c r="D81" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
@@ -4498,21 +4496,21 @@
         <v>1.19</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="22"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -4520,16 +4518,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>182</v>
+        <v>103</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -4550,16 +4548,16 @@
         <v>1</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N83" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P83" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P83" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q83" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -4567,16 +4565,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>182</v>
+        <v>103</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -4597,16 +4595,16 @@
         <v>1</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N84" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P84" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P84" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q84" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -4614,16 +4612,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>182</v>
+        <v>103</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -4644,16 +4642,16 @@
         <v>1</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N85" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P85" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P85" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q85" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -4661,16 +4659,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>182</v>
+        <v>103</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -4691,24 +4689,24 @@
         <v>1</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N86" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P86" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P86" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q86" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="22"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -4716,16 +4714,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>182</v>
+        <v>103</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -4746,16 +4744,16 @@
         <v>1</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N88" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P88" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P88" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q88" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -4763,16 +4761,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>182</v>
+        <v>103</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -4793,16 +4791,16 @@
         <v>1</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N89" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P89" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P89" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q89" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -4810,16 +4808,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="24" t="s">
-        <v>182</v>
+      <c r="C90" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -4840,16 +4838,16 @@
         <v>1</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N90" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P90" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P90" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q90" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -4857,16 +4855,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="24" t="s">
-        <v>182</v>
+      <c r="C91" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -4887,24 +4885,24 @@
         <v>1</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N91" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P91" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="P91" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="Q91" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="22"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="21"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -4914,14 +4912,14 @@
       <c r="B93" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>182</v>
+      <c r="C93" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -4939,22 +4937,22 @@
         <v>180</v>
       </c>
       <c r="M93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S93" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q93" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S93" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T93" s="4">
         <v>1</v>
@@ -4967,14 +4965,14 @@
       <c r="B94" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>182</v>
+      <c r="C94" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -4992,22 +4990,22 @@
         <v>180</v>
       </c>
       <c r="M94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S94" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S94" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T94" s="4">
         <v>1</v>
@@ -5020,14 +5018,14 @@
       <c r="B95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>182</v>
+      <c r="C95" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -5045,26 +5043,26 @@
         <v>180</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N95" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O95" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="O95" s="4" t="s">
+      <c r="P95" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="P95" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="Q95" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R95" s="2"/>
       <c r="S95" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -5074,14 +5072,14 @@
       <c r="B96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>182</v>
+      <c r="C96" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -5099,26 +5097,26 @@
         <v>180</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N96" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O96" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="O96" s="4" t="s">
+      <c r="P96" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="P96" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="Q96" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R96" s="2"/>
       <c r="S96" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -5129,13 +5127,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>182</v>
+        <v>204</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -5150,19 +5148,19 @@
         <v>180</v>
       </c>
       <c r="N97" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O97" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="O97" s="4" t="s">
+      <c r="P97" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="P97" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="Q97" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S97" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -5178,14 +5176,14 @@
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D99" s="19" t="s">
+      <c r="C99" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -5202,27 +5200,27 @@
       <c r="J99" s="4">
         <v>160</v>
       </c>
-      <c r="L99" s="17" t="s">
-        <v>107</v>
+      <c r="L99" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="M99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="R99" s="16"/>
+      <c r="S99" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="O99" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="P99" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="R99" s="17"/>
-      <c r="S99" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T99" s="4">
         <v>1</v>
@@ -5235,14 +5233,14 @@
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" s="19" t="s">
+      <c r="C100" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -5260,22 +5258,22 @@
         <v>160</v>
       </c>
       <c r="M100" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S100" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="O100" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S100" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T100" s="4">
         <v>1</v>
@@ -5288,14 +5286,14 @@
       <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>185</v>
+      <c r="C101" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -5313,22 +5311,22 @@
         <v>160</v>
       </c>
       <c r="M101" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S101" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N101" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="O101" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="P101" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q101" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S101" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -5338,14 +5336,14 @@
       <c r="B102" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>185</v>
+      <c r="C102" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -5363,22 +5361,22 @@
         <v>160</v>
       </c>
       <c r="M102" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S102" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="P102" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S102" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -5389,13 +5387,13 @@
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>185</v>
+        <v>209</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
@@ -5410,19 +5408,19 @@
         <v>160</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O103" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="P103" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="P103" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="Q103" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S103" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -5438,14 +5436,14 @@
       <c r="B105" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>183</v>
+      <c r="C105" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" s="4">
         <v>0</v>
@@ -5463,23 +5461,23 @@
         <v>200</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N105" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O105" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O105" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="P105" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R105" s="2"/>
       <c r="S105" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -5489,14 +5487,14 @@
       <c r="B106" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>183</v>
+      <c r="C106" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
@@ -5514,23 +5512,23 @@
         <v>200</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N106" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O106" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O106" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="P106" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R106" s="2"/>
       <c r="S106" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -5547,14 +5545,14 @@
       <c r="B108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>183</v>
+      <c r="C108" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F108" s="4">
         <v>0</v>
@@ -5575,25 +5573,25 @@
         <v>1</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N108" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O108" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O108" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="P108" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R108" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S108" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -5603,14 +5601,14 @@
       <c r="B109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>183</v>
+      <c r="C109" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F109" s="4">
         <v>0</v>
@@ -5631,22 +5629,22 @@
         <v>1</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N109" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O109" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O109" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="P109" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S109" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -5656,14 +5654,14 @@
       <c r="B110" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>183</v>
+      <c r="C110" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F110" s="4">
         <v>0</v>
@@ -5684,22 +5682,22 @@
         <v>1</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N110" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O110" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O110" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="P110" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S110" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -5709,14 +5707,14 @@
       <c r="B111" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>183</v>
+      <c r="C111" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F111" s="4">
         <v>0</v>
@@ -5737,22 +5735,22 @@
         <v>1</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N111" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O111" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="O111" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="P111" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q111" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S111" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -5768,14 +5766,14 @@
       <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>184</v>
+      <c r="C113" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -5796,22 +5794,22 @@
         <v>1</v>
       </c>
       <c r="M113" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S113" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="P113" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S113" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T113" s="4">
         <v>1</v>
@@ -5824,14 +5822,14 @@
       <c r="B114" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>184</v>
+      <c r="C114" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -5852,22 +5850,22 @@
         <v>1</v>
       </c>
       <c r="M114" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S114" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N114" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O114" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="P114" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q114" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S114" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T114" s="4">
         <v>1</v>
@@ -5880,14 +5878,14 @@
       <c r="B115" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>184</v>
+      <c r="C115" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -5908,22 +5906,22 @@
         <v>1</v>
       </c>
       <c r="M115" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S115" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N115" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="P115" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q115" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S115" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -5933,14 +5931,14 @@
       <c r="B116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>184</v>
+      <c r="C116" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -5961,22 +5959,22 @@
         <v>1</v>
       </c>
       <c r="M116" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S116" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N116" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="O116" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="P116" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q116" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S116" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -5987,13 +5985,13 @@
         <v>5</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>184</v>
+        <v>150</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F117" s="4">
         <v>0</v>
@@ -6010,23 +6008,23 @@
       <c r="K117" s="4">
         <v>1</v>
       </c>
-      <c r="L117" s="17" t="s">
-        <v>113</v>
+      <c r="L117" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S117" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -6042,14 +6040,14 @@
       <c r="B119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C119" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D119" s="19" t="s">
+      <c r="C119" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -6070,19 +6068,19 @@
         <v>1</v>
       </c>
       <c r="M119" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P119" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S119" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N119" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P119" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q119" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S119" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -6092,14 +6090,14 @@
       <c r="B120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D120" s="19" t="s">
+      <c r="C120" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F120" s="4">
         <v>1</v>
@@ -6120,19 +6118,19 @@
         <v>1</v>
       </c>
       <c r="M120" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P120" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q120" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S120" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N120" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P120" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q120" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S120" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -6142,14 +6140,14 @@
       <c r="B121" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>185</v>
+      <c r="C121" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -6170,19 +6168,19 @@
         <v>1</v>
       </c>
       <c r="M121" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q121" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S121" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P121" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q121" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S121" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -6192,14 +6190,14 @@
       <c r="B122" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>185</v>
+      <c r="C122" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -6220,19 +6218,19 @@
         <v>1</v>
       </c>
       <c r="M122" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P122" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q122" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S122" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N122" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P122" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q122" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S122" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -6243,13 +6241,13 @@
         <v>5</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>185</v>
+        <v>145</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F123" s="4">
         <v>0</v>
@@ -6267,16 +6265,16 @@
         <v>1</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S123" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -6292,14 +6290,14 @@
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>183</v>
+      <c r="C125" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -6320,16 +6318,16 @@
         <v>1</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -6339,16 +6337,16 @@
       <c r="B126" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C126" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>183</v>
+      <c r="C126" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F126" s="25">
+        <v>185</v>
+      </c>
+      <c r="F126" s="24">
         <v>0</v>
       </c>
       <c r="G126" s="4">
@@ -6367,16 +6365,16 @@
         <v>1</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -6386,14 +6384,14 @@
       <c r="B127" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>183</v>
+      <c r="C127" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -6414,19 +6412,19 @@
         <v>1</v>
       </c>
       <c r="M127" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="P127" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S127" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P127" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q127" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S127" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -6436,14 +6434,14 @@
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C128" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>183</v>
+      <c r="C128" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -6464,16 +6462,16 @@
         <v>1</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -6484,13 +6482,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>183</v>
+        <v>143</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F129" s="4">
         <v>0</v>
@@ -6507,20 +6505,20 @@
       <c r="K129" s="4">
         <v>1</v>
       </c>
-      <c r="L129" s="17" t="s">
-        <v>117</v>
+      <c r="L129" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S129" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -6536,14 +6534,14 @@
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>184</v>
+      <c r="C131" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -6564,22 +6562,22 @@
         <v>1</v>
       </c>
       <c r="M131" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P131" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q131" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S131" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N131" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O131" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P131" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q131" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S131" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T131" s="4">
         <v>1</v>
@@ -6592,14 +6590,14 @@
       <c r="B132" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>184</v>
+      <c r="C132" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F132" s="4">
         <v>1</v>
@@ -6620,22 +6618,22 @@
         <v>1</v>
       </c>
       <c r="M132" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P132" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S132" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N132" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O132" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P132" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q132" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S132" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T132" s="4">
         <v>1</v>
@@ -6648,16 +6646,16 @@
       <c r="B133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D133" s="19" t="s">
-        <v>184</v>
+      <c r="C133" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F133" s="19">
+        <v>186</v>
+      </c>
+      <c r="F133" s="18">
         <v>1</v>
       </c>
       <c r="G133" s="4">
@@ -6676,22 +6674,22 @@
         <v>1</v>
       </c>
       <c r="M133" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P133" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S133" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N133" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O133" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P133" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q133" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S133" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -6701,16 +6699,16 @@
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>184</v>
+      <c r="C134" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F134" s="25">
+        <v>186</v>
+      </c>
+      <c r="F134" s="24">
         <v>0</v>
       </c>
       <c r="G134" s="4">
@@ -6729,22 +6727,22 @@
         <v>1</v>
       </c>
       <c r="M134" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P134" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q134" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S134" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N134" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O134" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P134" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q134" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S134" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -6755,13 +6753,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>184</v>
+        <v>138</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F135" s="4">
         <v>0</v>
@@ -6779,19 +6777,19 @@
         <v>1</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S135" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -6807,14 +6805,14 @@
       <c r="B137" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>182</v>
+      <c r="C137" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -6835,22 +6833,22 @@
         <v>1</v>
       </c>
       <c r="M137" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="P137" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q137" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S137" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N137" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O137" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P137" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q137" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S137" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -6860,14 +6858,14 @@
       <c r="B138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>182</v>
+      <c r="C138" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -6888,19 +6886,19 @@
         <v>1</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
@@ -6910,14 +6908,14 @@
       <c r="B139" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>182</v>
+      <c r="C139" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -6938,22 +6936,22 @@
         <v>1</v>
       </c>
       <c r="M139" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O139" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="P139" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q139" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S139" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N139" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O139" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P139" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q139" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S139" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
@@ -6963,16 +6961,16 @@
       <c r="B140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>182</v>
+      <c r="C140" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F140" s="25">
+        <v>186</v>
+      </c>
+      <c r="F140" s="24">
         <v>0</v>
       </c>
       <c r="G140" s="4">
@@ -6991,22 +6989,22 @@
         <v>1</v>
       </c>
       <c r="M140" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S140" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N140" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O140" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P140" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q140" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S140" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -7017,13 +7015,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>182</v>
+        <v>122</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F141" s="4">
         <v>0</v>
@@ -7041,19 +7039,19 @@
         <v>1</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S141" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -7069,14 +7067,14 @@
       <c r="B143" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>184</v>
+      <c r="C143" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -7097,22 +7095,22 @@
         <v>1</v>
       </c>
       <c r="M143" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O143" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="P143" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S143" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N143" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P143" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q143" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S143" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -7122,14 +7120,14 @@
       <c r="B144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>184</v>
+      <c r="C144" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F144" s="4">
         <v>1</v>
@@ -7150,22 +7148,22 @@
         <v>1</v>
       </c>
       <c r="M144" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O144" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="P144" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S144" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P144" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q144" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S144" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -7175,14 +7173,14 @@
       <c r="B145" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>184</v>
+      <c r="C145" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -7203,22 +7201,22 @@
         <v>1</v>
       </c>
       <c r="M145" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O145" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="P145" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S145" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N145" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O145" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P145" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q145" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S145" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -7228,14 +7226,14 @@
       <c r="B146" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>184</v>
+      <c r="C146" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F146" s="4">
         <v>1</v>
@@ -7256,22 +7254,22 @@
         <v>1</v>
       </c>
       <c r="M146" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O146" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="P146" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S146" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N146" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O146" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P146" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q146" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S146" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -7282,13 +7280,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>184</v>
+        <v>125</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F147" s="4">
         <v>0</v>
@@ -7305,23 +7303,23 @@
       <c r="K147" s="4">
         <v>1</v>
       </c>
-      <c r="L147" s="17" t="s">
-        <v>156</v>
+      <c r="L147" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S147" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -7337,14 +7335,14 @@
       <c r="B149" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D149" s="19" t="s">
-        <v>183</v>
+      <c r="C149" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -7365,22 +7363,22 @@
         <v>1</v>
       </c>
       <c r="M149" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O149" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P149" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q149" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S149" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N149" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O149" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P149" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q149" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S149" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -7390,14 +7388,14 @@
       <c r="B150" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C150" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>183</v>
+      <c r="C150" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F150" s="4">
         <v>1</v>
@@ -7418,22 +7416,22 @@
         <v>1</v>
       </c>
       <c r="M150" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O150" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S150" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N150" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O150" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P150" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q150" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S150" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -7443,16 +7441,16 @@
       <c r="B151" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D151" s="19" t="s">
-        <v>183</v>
+      <c r="C151" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F151" s="25">
+        <v>186</v>
+      </c>
+      <c r="F151" s="24">
         <v>0</v>
       </c>
       <c r="G151" s="4">
@@ -7470,23 +7468,23 @@
       <c r="K151" s="4">
         <v>1</v>
       </c>
-      <c r="L151" s="17" t="s">
-        <v>138</v>
+      <c r="L151" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O151" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P151" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="P151" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="Q151" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S151" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
@@ -7496,16 +7494,16 @@
       <c r="B152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>183</v>
+      <c r="C152" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F152" s="25">
+        <v>186</v>
+      </c>
+      <c r="F152" s="24">
         <v>0</v>
       </c>
       <c r="G152" s="4">
@@ -7524,22 +7522,22 @@
         <v>1</v>
       </c>
       <c r="M152" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O152" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P152" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S152" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N152" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O152" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P152" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q152" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S152" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
@@ -7550,13 +7548,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>183</v>
+        <v>134</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F153" s="4">
         <v>0</v>
@@ -7574,19 +7572,19 @@
         <v>1</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O153" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P153" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="P153" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="Q153" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S153" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -7602,14 +7600,14 @@
       <c r="B155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D155" s="19" t="s">
+      <c r="C155" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F155" s="4">
         <v>1</v>
@@ -7630,22 +7628,22 @@
         <v>1</v>
       </c>
       <c r="M155" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N155" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O155" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P155" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q155" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S155" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N155" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O155" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P155" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q155" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S155" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -7655,14 +7653,14 @@
       <c r="B156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D156" s="19" t="s">
+      <c r="C156" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F156" s="4">
         <v>1</v>
@@ -7683,22 +7681,22 @@
         <v>1</v>
       </c>
       <c r="M156" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O156" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P156" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S156" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N156" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O156" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P156" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q156" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S156" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -7708,14 +7706,14 @@
       <c r="B157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D157" s="19" t="s">
-        <v>185</v>
+      <c r="C157" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -7736,22 +7734,22 @@
         <v>1</v>
       </c>
       <c r="M157" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N157" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="O157" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P157" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q157" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S157" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N157" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O157" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P157" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q157" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S157" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -7761,14 +7759,14 @@
       <c r="B158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C158" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>185</v>
+      <c r="C158" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F158" s="4">
         <v>1</v>
@@ -7789,19 +7787,19 @@
         <v>1</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q158" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -7812,13 +7810,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>185</v>
+        <v>133</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
@@ -7836,19 +7834,19 @@
         <v>1</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q159" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S159" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -7864,14 +7862,14 @@
       <c r="B161" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D161" s="19" t="s">
-        <v>182</v>
+      <c r="C161" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F161" s="4">
         <v>0</v>
@@ -7889,10 +7887,10 @@
         <v>1</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S161" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -7902,14 +7900,14 @@
       <c r="B162" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D162" s="19" t="s">
-        <v>182</v>
+      <c r="C162" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F162" s="4">
         <v>0</v>
@@ -7927,10 +7925,10 @@
         <v>1</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S162" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -7940,14 +7938,14 @@
       <c r="B163" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D163" s="19" t="s">
-        <v>182</v>
+      <c r="C163" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D163" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F163" s="4">
         <v>0</v>
@@ -7962,10 +7960,10 @@
         <v>180</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S163" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -7982,14 +7980,14 @@
       <c r="B165" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C165" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D165" s="19" t="s">
-        <v>182</v>
+      <c r="C165" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -8010,22 +8008,22 @@
         <v>1</v>
       </c>
       <c r="M165" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O165" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P165" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q165" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S165" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N165" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O165" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="P165" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q165" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S165" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -8035,14 +8033,14 @@
       <c r="B166" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D166" s="19" t="s">
-        <v>182</v>
+      <c r="C166" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
@@ -8063,22 +8061,22 @@
         <v>1</v>
       </c>
       <c r="M166" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O166" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P166" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q166" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S166" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N166" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O166" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="P166" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q166" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S166" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -8088,14 +8086,14 @@
       <c r="B167" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D167" s="19" t="s">
-        <v>182</v>
+      <c r="C167" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -8116,22 +8114,22 @@
         <v>1</v>
       </c>
       <c r="M167" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O167" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P167" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q167" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S167" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N167" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O167" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="P167" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q167" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S167" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -8141,14 +8139,14 @@
       <c r="B168" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C168" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D168" s="19" t="s">
-        <v>182</v>
+      <c r="C168" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F168" s="4">
         <v>1</v>
@@ -8169,22 +8167,22 @@
         <v>1</v>
       </c>
       <c r="M168" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N168" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O168" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P168" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q168" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S168" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N168" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O168" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="P168" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q168" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S168" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
@@ -8195,13 +8193,13 @@
         <v>9</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D169" s="19" t="s">
-        <v>182</v>
+        <v>157</v>
+      </c>
+      <c r="D169" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F169" s="4">
         <v>0</v>
@@ -8218,20 +8216,20 @@
       <c r="K169" s="4">
         <v>1</v>
       </c>
-      <c r="L169" s="17" t="s">
-        <v>159</v>
+      <c r="L169" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="N169" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O169" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="O169" s="4" t="s">
+      <c r="P169" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="P169" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="Q169" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
@@ -8247,14 +8245,14 @@
       <c r="B171" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C171" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>184</v>
+      <c r="C171" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -8275,22 +8273,22 @@
         <v>1</v>
       </c>
       <c r="M171" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N171" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O171" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P171" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q171" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S171" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N171" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O171" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P171" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q171" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S171" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
@@ -8300,14 +8298,14 @@
       <c r="B172" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C172" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D172" s="19" t="s">
-        <v>184</v>
+      <c r="C172" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F172" s="4">
         <v>1</v>
@@ -8328,22 +8326,22 @@
         <v>1</v>
       </c>
       <c r="M172" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N172" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O172" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P172" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q172" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S172" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N172" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O172" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P172" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q172" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S172" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
@@ -8353,14 +8351,14 @@
       <c r="B173" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C173" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D173" s="19" t="s">
-        <v>184</v>
+      <c r="C173" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -8381,25 +8379,25 @@
         <v>1</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q173" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R173" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S173" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
@@ -8409,14 +8407,14 @@
       <c r="B174" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C174" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D174" s="19" t="s">
-        <v>184</v>
+      <c r="C174" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F174" s="4">
         <v>1</v>
@@ -8437,22 +8435,22 @@
         <v>1</v>
       </c>
       <c r="M174" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O174" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P174" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q174" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S174" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N174" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O174" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P174" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q174" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S174" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
@@ -8463,13 +8461,13 @@
         <v>9</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D175" s="19" t="s">
-        <v>184</v>
+        <v>223</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F175" s="4">
         <v>0</v>
@@ -8487,19 +8485,19 @@
         <v>1</v>
       </c>
       <c r="N175" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S175" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
@@ -8515,14 +8513,14 @@
       <c r="B177" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C177" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D177" s="19" t="s">
-        <v>183</v>
+      <c r="C177" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -8543,22 +8541,22 @@
         <v>1.19</v>
       </c>
       <c r="M177" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N177" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O177" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P177" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q177" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S177" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N177" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O177" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P177" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q177" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S177" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
@@ -8568,14 +8566,14 @@
       <c r="B178" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C178" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>183</v>
+      <c r="C178" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F178" s="4">
         <v>1</v>
@@ -8596,22 +8594,22 @@
         <v>1.19</v>
       </c>
       <c r="M178" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N178" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O178" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P178" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q178" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S178" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N178" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O178" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P178" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q178" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S178" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
@@ -8621,14 +8619,14 @@
       <c r="B179" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C179" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D179" s="19" t="s">
-        <v>183</v>
+      <c r="C179" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -8649,22 +8647,22 @@
         <v>1.19</v>
       </c>
       <c r="M179" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N179" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O179" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P179" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q179" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S179" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N179" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O179" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P179" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q179" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S179" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
@@ -8674,14 +8672,14 @@
       <c r="B180" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C180" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D180" s="19" t="s">
-        <v>183</v>
+      <c r="C180" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F180" s="4">
         <v>1</v>
@@ -8702,22 +8700,22 @@
         <v>1.19</v>
       </c>
       <c r="M180" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N180" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O180" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P180" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q180" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S180" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N180" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O180" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P180" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q180" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S180" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
@@ -8728,13 +8726,13 @@
         <v>9</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D181" s="19" t="s">
-        <v>183</v>
+        <v>226</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F181" s="4">
         <v>0</v>
@@ -8752,19 +8750,19 @@
         <v>1.19</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O181" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="P181" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="P181" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="Q181" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S181" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
@@ -8780,14 +8778,14 @@
       <c r="B183" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="D183" s="19" t="s">
+      <c r="C183" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F183" s="4">
         <v>1</v>
@@ -8808,22 +8806,22 @@
         <v>1</v>
       </c>
       <c r="M183" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N183" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O183" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="P183" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q183" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S183" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N183" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O183" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P183" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q183" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S183" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
@@ -8833,14 +8831,14 @@
       <c r="B184" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C184" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D184" s="19" t="s">
+      <c r="C184" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
@@ -8861,22 +8859,22 @@
         <v>1</v>
       </c>
       <c r="M184" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N184" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O184" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="P184" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q184" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S184" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N184" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O184" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P184" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q184" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S184" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
@@ -8886,14 +8884,14 @@
       <c r="B185" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C185" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D185" s="19" t="s">
-        <v>185</v>
+      <c r="C185" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -8914,22 +8912,22 @@
         <v>1</v>
       </c>
       <c r="M185" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N185" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O185" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="P185" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q185" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S185" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N185" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O185" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P185" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q185" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S185" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
@@ -8939,14 +8937,14 @@
       <c r="B186" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C186" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D186" s="19" t="s">
-        <v>185</v>
+      <c r="C186" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F186" s="4">
         <v>1</v>
@@ -8967,22 +8965,22 @@
         <v>1</v>
       </c>
       <c r="M186" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N186" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O186" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="P186" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S186" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N186" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O186" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P186" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q186" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S186" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
@@ -8993,13 +8991,13 @@
         <v>9</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D187" s="19" t="s">
-        <v>185</v>
+        <v>233</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F187" s="4">
         <v>0</v>
@@ -9017,19 +9015,19 @@
         <v>1</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q187" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S187" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
@@ -9045,14 +9043,14 @@
       <c r="B189" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C189" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D189" s="19" t="s">
-        <v>182</v>
+      <c r="C189" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -9073,22 +9071,22 @@
         <v>1</v>
       </c>
       <c r="M189" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O189" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="P189" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q189" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S189" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N189" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O189" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P189" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q189" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S189" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
@@ -9098,14 +9096,14 @@
       <c r="B190" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C190" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D190" s="19" t="s">
-        <v>182</v>
+      <c r="C190" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F190" s="4">
         <v>1</v>
@@ -9126,22 +9124,22 @@
         <v>1</v>
       </c>
       <c r="M190" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N190" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="P190" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q190" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S190" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N190" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O190" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P190" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q190" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S190" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
@@ -9151,14 +9149,14 @@
       <c r="B191" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C191" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D191" s="19" t="s">
-        <v>182</v>
+      <c r="C191" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -9179,22 +9177,22 @@
         <v>1</v>
       </c>
       <c r="M191" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N191" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O191" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="P191" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q191" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S191" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N191" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O191" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P191" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q191" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S191" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
@@ -9204,16 +9202,16 @@
       <c r="B192" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C192" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D192" s="19" t="s">
-        <v>182</v>
+      <c r="C192" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F192" s="25">
+        <v>186</v>
+      </c>
+      <c r="F192" s="24">
         <v>0</v>
       </c>
       <c r="G192" s="4">
@@ -9232,22 +9230,22 @@
         <v>1</v>
       </c>
       <c r="M192" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N192" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="P192" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S192" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N192" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O192" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P192" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q192" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S192" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
@@ -9258,13 +9256,13 @@
         <v>10</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D193" s="19" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F193" s="4">
         <v>0</v>
@@ -9282,19 +9280,19 @@
         <v>1</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S193" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
@@ -9310,14 +9308,14 @@
       <c r="B195" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C195" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D195" s="19" t="s">
-        <v>183</v>
+      <c r="C195" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -9338,22 +9336,22 @@
         <v>1</v>
       </c>
       <c r="M195" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O195" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="P195" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S195" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N195" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O195" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="P195" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q195" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S195" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
@@ -9363,14 +9361,14 @@
       <c r="B196" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D196" s="19" t="s">
-        <v>183</v>
+      <c r="C196" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F196" s="4">
         <v>1</v>
@@ -9391,22 +9389,22 @@
         <v>1</v>
       </c>
       <c r="M196" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N196" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O196" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="P196" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q196" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S196" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N196" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O196" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="P196" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q196" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S196" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -9416,14 +9414,14 @@
       <c r="B197" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D197" s="19" t="s">
-        <v>183</v>
+      <c r="C197" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -9444,22 +9442,22 @@
         <v>1</v>
       </c>
       <c r="M197" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N197" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O197" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S197" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N197" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O197" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="P197" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q197" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S197" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
@@ -9469,14 +9467,14 @@
       <c r="B198" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C198" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D198" s="19" t="s">
-        <v>183</v>
+      <c r="C198" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D198" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F198" s="4">
         <v>1</v>
@@ -9497,22 +9495,22 @@
         <v>1</v>
       </c>
       <c r="M198" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O198" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="P198" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q198" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S198" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N198" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O198" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="P198" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q198" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S198" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
@@ -9523,13 +9521,13 @@
         <v>10</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D199" s="19" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="D199" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F199" s="4">
         <v>0</v>
@@ -9547,19 +9545,19 @@
         <v>1</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S199" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
@@ -9575,14 +9573,14 @@
       <c r="B201" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C201" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D201" s="24" t="s">
-        <v>184</v>
+      <c r="C201" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -9606,19 +9604,19 @@
         <v>19</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N201" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O201" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="O201" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="P201" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q201" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -9628,14 +9626,14 @@
       <c r="B202" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D202" s="24" t="s">
-        <v>184</v>
+      <c r="C202" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F202" s="4">
         <v>1</v>
@@ -9659,19 +9657,19 @@
         <v>19</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N202" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O202" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="O202" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="P202" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q202" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -9681,14 +9679,14 @@
       <c r="B203" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C203" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D203" s="24" t="s">
-        <v>184</v>
+      <c r="C203" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -9709,19 +9707,19 @@
         <v>1.19</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N203" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O203" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="O203" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="P203" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q203" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -9731,14 +9729,14 @@
       <c r="B204" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C204" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>184</v>
+      <c r="C204" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F204" s="4">
         <v>1</v>
@@ -9759,19 +9757,19 @@
         <v>1.19</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N204" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O204" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="O204" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="P204" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q204" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -9782,13 +9780,13 @@
         <v>10</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D205" s="24" t="s">
-        <v>184</v>
+        <v>164</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F205" s="4">
         <v>0</v>
@@ -9806,16 +9804,16 @@
         <v>1.19</v>
       </c>
       <c r="N205" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O205" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="O205" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="P205" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q205" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -9831,14 +9829,14 @@
       <c r="B207" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C207" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D207" s="19" t="s">
+      <c r="C207" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D207" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
@@ -9856,22 +9854,22 @@
         <v>200</v>
       </c>
       <c r="M207" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N207" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O207" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P207" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q207" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S207" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O207" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P207" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q207" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S207" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T207" s="4">
         <v>1</v>
@@ -9884,14 +9882,14 @@
       <c r="B208" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C208" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D208" s="19" t="s">
+      <c r="C208" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F208" s="4">
         <v>1</v>
@@ -9909,22 +9907,22 @@
         <v>200</v>
       </c>
       <c r="M208" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N208" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O208" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P208" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q208" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S208" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N208" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O208" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P208" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q208" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S208" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="T208" s="4">
         <v>1</v>
@@ -9937,14 +9935,14 @@
       <c r="B209" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C209" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D209" s="19" t="s">
-        <v>185</v>
+      <c r="C209" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F209" s="4">
         <v>1</v>
@@ -9962,22 +9960,22 @@
         <v>200</v>
       </c>
       <c r="M209" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N209" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O209" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P209" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q209" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S209" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N209" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O209" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P209" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q209" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S209" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
@@ -9987,14 +9985,14 @@
       <c r="B210" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C210" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D210" s="19" t="s">
-        <v>185</v>
+      <c r="C210" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F210" s="4">
         <v>1</v>
@@ -10012,22 +10010,22 @@
         <v>200</v>
       </c>
       <c r="M210" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N210" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O210" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P210" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q210" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S210" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="N210" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O210" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P210" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q210" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S210" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
@@ -10038,13 +10036,13 @@
         <v>10</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D211" s="19" t="s">
-        <v>185</v>
+        <v>169</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F211" s="4">
         <v>0</v>
@@ -10059,19 +10057,19 @@
         <v>200</v>
       </c>
       <c r="N211" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O211" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P211" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q211" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S211" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/AC_data_list.xlsx
+++ b/AC_data_list.xlsx
@@ -1390,12 +1390,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12390" ySplit="495" topLeftCell="D48" activePane="bottomRight"/>
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14925" ySplit="495" topLeftCell="J1" activePane="bottomLeft"/>
+      <selection activeCell="G52" sqref="G52"/>
       <selection pane="topRight" activeCell="W1" sqref="W1:W1048576"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AC_data_list.xlsx
+++ b/AC_data_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="318">
   <si>
     <t>experiment</t>
   </si>
@@ -731,9 +731,6 @@
     <t>DF_asynch1_5_25_20</t>
   </si>
   <si>
-    <t>Drive4:\data\AC\AC_data_OA_3_16_20</t>
-  </si>
-  <si>
     <t>Drive5:\data\AC\tcam\</t>
   </si>
   <si>
@@ -881,15 +878,6 @@
     <t>A1_ammn1_11_21_20_ave</t>
   </si>
   <si>
-    <t>mapping_data_path</t>
-  </si>
-  <si>
-    <t>Drive5:\data\AC\mapping\</t>
-  </si>
-  <si>
-    <t>Drive4:\data\Auditory\2018\</t>
-  </si>
-  <si>
     <t>AC_mapping1_10_17_18_ave_im</t>
   </si>
   <si>
@@ -917,9 +905,6 @@
     <t>A1_ammn1_10_2_18_ave</t>
   </si>
   <si>
-    <t>A2_ammn-001_10_2_18_ave</t>
-  </si>
-  <si>
     <t>AAF_ammn1_10_2_18_ave</t>
   </si>
   <si>
@@ -950,10 +935,52 @@
     <t>im_comment</t>
   </si>
   <si>
-    <t>im_data_path</t>
-  </si>
-  <si>
     <t>seazure early on?, there are two onset pulses for some reason</t>
+  </si>
+  <si>
+    <t>FOV_num</t>
+  </si>
+  <si>
+    <t>AC_mapping2_9_28_18_ave_im</t>
+  </si>
+  <si>
+    <t>A2_ammn1_10_2_18_ave</t>
+  </si>
+  <si>
+    <t>mapping_freqs_fname</t>
+  </si>
+  <si>
+    <t>AC_mapping2_9_28_18_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping2_10_14_18_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_10_17_18_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_11_20_18_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_5_14_20a_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_5_15_20_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_5_17_20_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_5_21_20_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_5_25_20_spatial_ave</t>
+  </si>
+  <si>
+    <t>AC_mapping1_5_31_20_spatial_ave</t>
+  </si>
+  <si>
+    <t>AAF_surface1_10_2_18</t>
   </si>
 </sst>
 </file>
@@ -1390,12 +1417,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14925" ySplit="495" topLeftCell="J1" activePane="bottomLeft"/>
-      <selection activeCell="G52" sqref="G52"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:W1048576"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="14925" ySplit="495" topLeftCell="N1" activePane="bottomRight"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,17 +1431,17 @@
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="52.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="38.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="14" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="52.42578125" style="4" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" style="4" customWidth="1"/>
-    <col min="15" max="17" width="24.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="37.28515625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="24.85546875" style="4" customWidth="1"/>
     <col min="18" max="18" width="72.140625" style="4" customWidth="1"/>
     <col min="19" max="19" width="37.28515625" style="4" customWidth="1"/>
     <col min="20" max="20" width="12" style="4" customWidth="1"/>
@@ -1434,52 +1461,52 @@
         <v>0</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>246</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>1</v>
@@ -1514,31 +1541,34 @@
         <v>1</v>
       </c>
       <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
       <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
         <v>170</v>
       </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>234</v>
+      <c r="N2" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R2" s="7"/>
     </row>
@@ -1565,31 +1595,34 @@
         <v>1</v>
       </c>
       <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
         <v>5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>170</v>
       </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>234</v>
+      <c r="N3" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R3" s="8"/>
     </row>
@@ -1616,31 +1649,34 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
         <v>5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>170</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>234</v>
+      <c r="N4" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R4" s="8"/>
     </row>
@@ -1667,31 +1703,34 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>170</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>234</v>
+      <c r="N5" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R5" s="7"/>
     </row>
@@ -1700,6 +1739,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1718,37 +1758,40 @@
         <v>185</v>
       </c>
       <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
       <c r="H7" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <v>5</v>
       </c>
       <c r="J7" s="4">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
         <v>230</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>234</v>
+      <c r="N7" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R7" s="7"/>
     </row>
@@ -1769,37 +1812,40 @@
         <v>185</v>
       </c>
       <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
       <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>6</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>230</v>
       </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>234</v>
+      <c r="N8" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R8" s="7"/>
     </row>
@@ -1820,37 +1866,40 @@
         <v>186</v>
       </c>
       <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
       <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>7</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>230</v>
       </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>234</v>
+      <c r="N9" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R9" s="7"/>
     </row>
@@ -1871,37 +1920,40 @@
         <v>186</v>
       </c>
       <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
       <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>8</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>230</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>234</v>
+      <c r="N10" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R10" s="7"/>
     </row>
@@ -1910,6 +1962,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1928,28 +1981,34 @@
         <v>185</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
       <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>7</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>9</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>160</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>296</v>
+      <c r="N12" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R12" s="9"/>
     </row>
@@ -1970,29 +2029,35 @@
         <v>185</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>7</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>10</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>160</v>
       </c>
-      <c r="K13" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="P13" s="4" t="s">
-        <v>296</v>
+      <c r="L13" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R13" s="7"/>
     </row>
@@ -2013,31 +2078,37 @@
         <v>185</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <v>7</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>11</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>160</v>
       </c>
-      <c r="K14" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>296</v>
+      <c r="N14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R14" s="7"/>
     </row>
@@ -2058,28 +2129,34 @@
         <v>186</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
       <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <v>7</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>12</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>160</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>296</v>
+      <c r="N15" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R15" s="19"/>
     </row>
@@ -2100,28 +2177,34 @@
         <v>186</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>7</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>13</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>160</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="M16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>296</v>
+      <c r="N16" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R16" s="19"/>
     </row>
@@ -2130,6 +2213,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2148,29 +2232,35 @@
         <v>185</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>7</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>14</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>200</v>
       </c>
-      <c r="K18" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="P18" s="4" t="s">
-        <v>296</v>
+      <c r="L18" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R18" s="10"/>
     </row>
@@ -2191,31 +2281,37 @@
         <v>185</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>7</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>15</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>200</v>
       </c>
-      <c r="K19" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>296</v>
+      <c r="N19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R19" s="10"/>
     </row>
@@ -2236,26 +2332,32 @@
         <v>186</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
       </c>
       <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
         <v>7</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>200</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="P20" s="4" t="s">
-        <v>296</v>
+      <c r="M20" s="10"/>
+      <c r="N20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R20" s="10"/>
     </row>
@@ -2276,28 +2378,34 @@
         <v>186</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
       </c>
       <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>7</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>17</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>200</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="4" t="s">
-        <v>296</v>
+      <c r="N21" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="R21" s="11"/>
     </row>
@@ -2308,6 +2416,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="21"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2326,31 +2435,40 @@
         <v>185</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4">
         <v>1</v>
       </c>
       <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
         <v>8</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>18</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>160</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>234</v>
+      <c r="N23" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R23" s="10"/>
     </row>
@@ -2371,31 +2489,40 @@
         <v>185</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
       </c>
       <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
         <v>8</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>19</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>160</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>234</v>
+      <c r="N24" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R24" s="10"/>
     </row>
@@ -2415,24 +2542,36 @@
       <c r="E25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="24">
         <v>0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>8</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>20</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>160</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="P25" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R25" s="10"/>
     </row>
@@ -2452,24 +2591,36 @@
       <c r="E26" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="24">
         <v>0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>8</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>21</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>160</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="P26" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R26" s="10"/>
     </row>
@@ -2480,7 +2631,8 @@
       <c r="C27" s="10"/>
       <c r="D27" s="22"/>
       <c r="E27" s="4"/>
-      <c r="L27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="M27" s="10"/>
       <c r="R27" s="10"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2500,32 +2652,38 @@
         <v>185</v>
       </c>
       <c r="F28" s="4">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
       <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
         <v>8</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>22</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>200</v>
       </c>
-      <c r="K28" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="4" t="s">
-        <v>234</v>
+      <c r="L28" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R28" s="10"/>
     </row>
@@ -2546,32 +2704,38 @@
         <v>185</v>
       </c>
       <c r="F29" s="4">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
       <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
         <v>8</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>23</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>200</v>
       </c>
-      <c r="K29" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="4" t="s">
-        <v>234</v>
+      <c r="L29" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R29" s="10"/>
     </row>
@@ -2592,28 +2756,37 @@
         <v>186</v>
       </c>
       <c r="F30" s="4">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4">
         <v>0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>8</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>24</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>200</v>
       </c>
-      <c r="K30" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="N30" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="P30" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R30" s="11"/>
     </row>
@@ -2634,25 +2807,34 @@
         <v>186</v>
       </c>
       <c r="F31" s="4">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4">
         <v>0</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="4">
         <v>8</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>25</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>200</v>
       </c>
-      <c r="K31" s="4">
-        <v>1.19</v>
+      <c r="L31" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2662,6 +2844,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="21"/>
       <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2680,18 +2863,21 @@
         <v>185</v>
       </c>
       <c r="F33" s="4">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4">
         <v>0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="I33" s="4">
         <v>20</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>26</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>160</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="M33" s="10" t="s">
         <v>59</v>
       </c>
       <c r="R33" s="10"/>
@@ -2713,18 +2899,21 @@
         <v>185</v>
       </c>
       <c r="F34" s="4">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4">
         <v>0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>20</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>27</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>160</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="M34" s="10" t="s">
         <v>59</v>
       </c>
       <c r="R34" s="10"/>
@@ -2746,18 +2935,21 @@
         <v>186</v>
       </c>
       <c r="F35" s="4">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>20</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>28</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>160</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="M35" s="10" t="s">
         <v>60</v>
       </c>
       <c r="R35" s="10"/>
@@ -2779,18 +2971,21 @@
         <v>186</v>
       </c>
       <c r="F36" s="4">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4">
         <v>0</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>20</v>
       </c>
-      <c r="I36" s="4">
+      <c r="J36" s="4">
         <v>29</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>160</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="M36" s="10" t="s">
         <v>60</v>
       </c>
       <c r="R36" s="10"/>
@@ -2802,6 +2997,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="22"/>
       <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -2820,15 +3016,18 @@
         <v>185</v>
       </c>
       <c r="F38" s="4">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4">
         <v>0</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>20</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>30</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>200</v>
       </c>
     </row>
@@ -2849,15 +3048,18 @@
         <v>185</v>
       </c>
       <c r="F39" s="4">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>20</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>31</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>200</v>
       </c>
     </row>
@@ -2878,15 +3080,18 @@
         <v>186</v>
       </c>
       <c r="F40" s="4">
+        <v>8</v>
+      </c>
+      <c r="G40" s="4">
         <v>0</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>20</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>32</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>200</v>
       </c>
     </row>
@@ -2907,15 +3112,18 @@
         <v>186</v>
       </c>
       <c r="F41" s="4">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4">
         <v>0</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>20</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>33</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>200</v>
       </c>
     </row>
@@ -2926,6 +3134,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="21"/>
       <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2950,28 +3159,28 @@
         <v>1</v>
       </c>
       <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
         <v>3</v>
       </c>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
-      <c r="J43" s="10">
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="10">
         <v>140</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N43" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -2997,28 +3206,28 @@
         <v>1</v>
       </c>
       <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
         <v>3</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>2</v>
       </c>
-      <c r="J44" s="10">
+      <c r="K44" s="10">
         <v>140</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N44" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3044,28 +3253,28 @@
         <v>1</v>
       </c>
       <c r="H45" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4">
         <v>3</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="4">
+        <v>3</v>
+      </c>
+      <c r="K45" s="10">
         <v>140</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N45" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3091,28 +3300,28 @@
         <v>1</v>
       </c>
       <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
         <v>3</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>4</v>
       </c>
-      <c r="J46" s="10">
+      <c r="K46" s="10">
         <v>140</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N46" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3122,7 +3331,8 @@
       <c r="C47" s="10"/>
       <c r="D47" s="22"/>
       <c r="E47" s="4"/>
-      <c r="J47" s="10"/>
+      <c r="F47" s="4"/>
+      <c r="K47" s="10"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -3141,34 +3351,34 @@
         <v>185</v>
       </c>
       <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
       <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
         <v>3</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>5</v>
       </c>
-      <c r="J48" s="10">
+      <c r="K48" s="10">
         <v>220</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N48" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3188,34 +3398,34 @@
         <v>185</v>
       </c>
       <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4">
         <v>0</v>
       </c>
-      <c r="G49" s="4">
-        <v>1</v>
-      </c>
       <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
         <v>3</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>6</v>
       </c>
-      <c r="J49" s="10">
+      <c r="K49" s="10">
         <v>220</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N49" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3235,34 +3445,34 @@
         <v>186</v>
       </c>
       <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
         <v>0</v>
       </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
       <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="4">
         <v>3</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>7</v>
       </c>
-      <c r="J50" s="10">
+      <c r="K50" s="10">
         <v>220</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N50" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3282,34 +3492,34 @@
         <v>186</v>
       </c>
       <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4">
         <v>0</v>
       </c>
-      <c r="G51" s="4">
-        <v>1</v>
-      </c>
       <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
         <v>3</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>8</v>
       </c>
-      <c r="J51" s="10">
+      <c r="K51" s="10">
         <v>220</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N51" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3319,6 +3529,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="21"/>
       <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -3349,22 +3560,22 @@
         <v>1</v>
       </c>
       <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
         <v>199</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <v>1.19</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N53" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>286</v>
@@ -3397,25 +3608,25 @@
         <v>1</v>
       </c>
       <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
         <v>2</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K54" s="4">
         <v>199</v>
       </c>
-      <c r="K54" s="10">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="10">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q54" s="4" t="s">
         <v>286</v>
@@ -3448,25 +3659,25 @@
         <v>1</v>
       </c>
       <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4">
         <v>3</v>
       </c>
-      <c r="J55" s="4">
+      <c r="K55" s="4">
         <v>199</v>
       </c>
-      <c r="K55" s="10">
-        <v>1</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="10">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N55" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q55" s="4" t="s">
         <v>286</v>
@@ -3499,23 +3710,23 @@
         <v>1</v>
       </c>
       <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4">
         <v>4</v>
       </c>
-      <c r="J56" s="4">
+      <c r="K56" s="4">
         <v>199</v>
       </c>
-      <c r="K56" s="10">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="L56" s="10">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>286</v>
@@ -3529,7 +3740,8 @@
       <c r="C57" s="10"/>
       <c r="D57" s="22"/>
       <c r="E57" s="4"/>
-      <c r="L57" s="2"/>
+      <c r="F57" s="4"/>
+      <c r="M57" s="2"/>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3549,34 +3761,34 @@
         <v>185</v>
       </c>
       <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
         <v>0</v>
       </c>
-      <c r="G58" s="4">
-        <v>1</v>
-      </c>
       <c r="H58" s="4">
         <v>1</v>
       </c>
       <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4">
         <v>5</v>
       </c>
-      <c r="J58" s="4">
+      <c r="K58" s="4">
         <v>160</v>
       </c>
-      <c r="K58" s="10">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="10">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N58" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q58" s="4" t="s">
         <v>286</v>
@@ -3600,34 +3812,34 @@
         <v>185</v>
       </c>
       <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4">
         <v>0</v>
       </c>
-      <c r="G59" s="4">
-        <v>1</v>
-      </c>
       <c r="H59" s="4">
         <v>1</v>
       </c>
       <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
         <v>6</v>
       </c>
-      <c r="J59" s="4">
+      <c r="K59" s="4">
         <v>160</v>
       </c>
-      <c r="K59" s="10">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="10">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N59" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q59" s="4" t="s">
         <v>286</v>
@@ -3651,31 +3863,34 @@
         <v>186</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="4">
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60" s="4">
         <v>7</v>
       </c>
-      <c r="J60" s="4">
+      <c r="K60" s="4">
         <v>160</v>
       </c>
-      <c r="K60" s="10">
-        <v>1</v>
-      </c>
-      <c r="L60" s="25" t="s">
-        <v>308</v>
+      <c r="L60" s="10">
+        <v>1</v>
+      </c>
+      <c r="M60" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q60" s="4" t="s">
         <v>286</v>
@@ -3699,32 +3914,32 @@
         <v>186</v>
       </c>
       <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
         <v>0</v>
       </c>
-      <c r="G61" s="4">
-        <v>1</v>
-      </c>
       <c r="H61" s="4">
         <v>1</v>
       </c>
       <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
         <v>8</v>
       </c>
-      <c r="J61" s="4">
+      <c r="K61" s="4">
         <v>160</v>
       </c>
-      <c r="K61" s="4">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>286</v>
@@ -3738,6 +3953,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="21"/>
       <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -3756,35 +3972,35 @@
         <v>185</v>
       </c>
       <c r="F63" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
       </c>
       <c r="H63" s="4">
+        <v>1</v>
+      </c>
+      <c r="I63" s="4">
         <v>2</v>
       </c>
-      <c r="I63" s="4">
+      <c r="J63" s="4">
         <v>9</v>
       </c>
-      <c r="J63" s="4">
+      <c r="K63" s="4">
         <v>180</v>
       </c>
-      <c r="K63" s="4">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="L63" s="4">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R63" s="2"/>
     </row>
@@ -3805,35 +4021,35 @@
         <v>185</v>
       </c>
       <c r="F64" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
       </c>
       <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4">
         <v>2</v>
       </c>
-      <c r="I64" s="4">
+      <c r="J64" s="4">
         <v>10</v>
       </c>
-      <c r="J64" s="4">
+      <c r="K64" s="4">
         <v>180</v>
       </c>
-      <c r="K64" s="4">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R64" s="2"/>
     </row>
@@ -3854,37 +4070,37 @@
         <v>186</v>
       </c>
       <c r="F65" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" s="4">
         <v>1</v>
       </c>
       <c r="H65" s="4">
+        <v>1</v>
+      </c>
+      <c r="I65" s="4">
         <v>2</v>
       </c>
-      <c r="I65" s="4">
+      <c r="J65" s="4">
         <v>11</v>
       </c>
-      <c r="J65" s="4">
+      <c r="K65" s="4">
         <v>180</v>
       </c>
-      <c r="K65" s="4">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N65" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R65" s="2"/>
     </row>
@@ -3905,35 +4121,35 @@
         <v>186</v>
       </c>
       <c r="F66" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
       </c>
       <c r="H66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4">
         <v>2</v>
       </c>
-      <c r="I66" s="4">
+      <c r="J66" s="4">
         <v>12</v>
       </c>
-      <c r="J66" s="4">
+      <c r="K66" s="4">
         <v>180</v>
       </c>
-      <c r="K66" s="4">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="4" t="s">
-        <v>234</v>
-      </c>
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R66" s="2"/>
     </row>
@@ -3944,7 +4160,8 @@
       <c r="C67" s="10"/>
       <c r="D67" s="22"/>
       <c r="E67" s="4"/>
-      <c r="L67" s="2"/>
+      <c r="F67" s="4"/>
+      <c r="M67" s="2"/>
       <c r="R67" s="2"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -3964,37 +4181,37 @@
         <v>185</v>
       </c>
       <c r="F68" s="4">
+        <v>4</v>
+      </c>
+      <c r="G68" s="4">
         <v>0</v>
       </c>
-      <c r="G68" s="4">
-        <v>1</v>
-      </c>
       <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
         <v>2</v>
       </c>
-      <c r="I68" s="4">
+      <c r="J68" s="4">
         <v>13</v>
       </c>
-      <c r="J68" s="4">
+      <c r="K68" s="4">
         <v>220</v>
       </c>
-      <c r="K68" s="4">
-        <v>1</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="M68" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N68" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R68" s="3"/>
     </row>
@@ -4015,37 +4232,37 @@
         <v>185</v>
       </c>
       <c r="F69" s="4">
+        <v>4</v>
+      </c>
+      <c r="G69" s="4">
         <v>0</v>
       </c>
-      <c r="G69" s="4">
-        <v>1</v>
-      </c>
       <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4">
         <v>2</v>
       </c>
-      <c r="I69" s="4">
+      <c r="J69" s="4">
         <v>14</v>
       </c>
-      <c r="J69" s="4">
+      <c r="K69" s="4">
         <v>220</v>
       </c>
-      <c r="K69" s="4">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M69" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N69" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R69" s="2"/>
     </row>
@@ -4066,37 +4283,37 @@
         <v>186</v>
       </c>
       <c r="F70" s="4">
+        <v>4</v>
+      </c>
+      <c r="G70" s="4">
         <v>0</v>
       </c>
-      <c r="G70" s="4">
-        <v>1</v>
-      </c>
       <c r="H70" s="4">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4">
         <v>2</v>
       </c>
-      <c r="I70" s="4">
+      <c r="J70" s="4">
         <v>15</v>
       </c>
-      <c r="J70" s="4">
+      <c r="K70" s="4">
         <v>220</v>
       </c>
-      <c r="K70" s="4">
-        <v>1</v>
-      </c>
-      <c r="L70" s="3" t="s">
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M70" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N70" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R70" s="3"/>
     </row>
@@ -4117,37 +4334,37 @@
         <v>186</v>
       </c>
       <c r="F71" s="4">
+        <v>4</v>
+      </c>
+      <c r="G71" s="4">
         <v>0</v>
       </c>
-      <c r="G71" s="4">
-        <v>1</v>
-      </c>
       <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4">
         <v>2</v>
       </c>
-      <c r="I71" s="4">
+      <c r="J71" s="4">
         <v>16</v>
       </c>
-      <c r="J71" s="4">
+      <c r="K71" s="4">
         <v>220</v>
       </c>
-      <c r="K71" s="4">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M71" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N71" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R71" s="2"/>
     </row>
@@ -4158,6 +4375,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="21"/>
       <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -4176,28 +4394,31 @@
         <v>185</v>
       </c>
       <c r="F73" s="4">
+        <v>5</v>
+      </c>
+      <c r="G73" s="4">
         <v>0</v>
       </c>
-      <c r="H73" s="4">
+      <c r="I73" s="4">
         <v>3</v>
       </c>
-      <c r="I73" s="4">
+      <c r="J73" s="4">
         <v>17</v>
       </c>
-      <c r="J73" s="4">
+      <c r="K73" s="4">
         <v>220</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>87</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R73" s="2"/>
     </row>
@@ -4218,28 +4439,31 @@
         <v>185</v>
       </c>
       <c r="F74" s="4">
+        <v>5</v>
+      </c>
+      <c r="G74" s="4">
         <v>0</v>
       </c>
-      <c r="H74" s="4">
+      <c r="I74" s="4">
         <v>3</v>
       </c>
-      <c r="I74" s="4">
+      <c r="J74" s="4">
         <v>18</v>
       </c>
-      <c r="J74" s="4">
+      <c r="K74" s="4">
         <v>220</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>87</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R74" s="2"/>
     </row>
@@ -4260,26 +4484,29 @@
         <v>186</v>
       </c>
       <c r="F75" s="4">
+        <v>5</v>
+      </c>
+      <c r="G75" s="4">
         <v>0</v>
       </c>
-      <c r="H75" s="4">
+      <c r="I75" s="4">
         <v>3</v>
       </c>
-      <c r="I75" s="4">
+      <c r="J75" s="4">
         <v>19</v>
       </c>
-      <c r="J75" s="4">
+      <c r="K75" s="4">
         <v>220</v>
       </c>
-      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
       <c r="N75" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P75" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R75" s="2"/>
     </row>
@@ -4300,26 +4527,29 @@
         <v>186</v>
       </c>
       <c r="F76" s="4">
+        <v>5</v>
+      </c>
+      <c r="G76" s="4">
         <v>0</v>
       </c>
-      <c r="H76" s="4">
+      <c r="I76" s="4">
         <v>3</v>
       </c>
-      <c r="I76" s="4">
+      <c r="J76" s="4">
         <v>20</v>
       </c>
-      <c r="J76" s="4">
+      <c r="K76" s="4">
         <v>220</v>
       </c>
-      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
       <c r="N76" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P76" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R76" s="2"/>
     </row>
@@ -4330,7 +4560,8 @@
       <c r="C77" s="10"/>
       <c r="D77" s="22"/>
       <c r="E77" s="4"/>
-      <c r="L77" s="2"/>
+      <c r="F77" s="4"/>
+      <c r="M77" s="2"/>
       <c r="R77" s="2"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4350,31 +4581,34 @@
         <v>185</v>
       </c>
       <c r="F78" s="4">
+        <v>6</v>
+      </c>
+      <c r="G78" s="4">
         <v>0</v>
       </c>
-      <c r="H78" s="4">
+      <c r="I78" s="4">
         <v>3</v>
       </c>
-      <c r="I78" s="4">
+      <c r="J78" s="4">
         <v>21</v>
       </c>
-      <c r="J78" s="4">
+      <c r="K78" s="4">
         <v>260</v>
       </c>
-      <c r="K78" s="4">
+      <c r="L78" s="4">
         <v>1.19</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R78" s="2"/>
     </row>
@@ -4395,31 +4629,34 @@
         <v>185</v>
       </c>
       <c r="F79" s="4">
+        <v>6</v>
+      </c>
+      <c r="G79" s="4">
         <v>0</v>
       </c>
-      <c r="H79" s="4">
+      <c r="I79" s="4">
         <v>3</v>
       </c>
-      <c r="I79" s="4">
+      <c r="J79" s="4">
         <v>22</v>
       </c>
-      <c r="J79" s="4">
+      <c r="K79" s="4">
         <v>260</v>
       </c>
-      <c r="K79" s="4">
+      <c r="L79" s="4">
         <v>1.19</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>88</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R79" s="2"/>
     </row>
@@ -4440,28 +4677,31 @@
         <v>186</v>
       </c>
       <c r="F80" s="4">
+        <v>6</v>
+      </c>
+      <c r="G80" s="4">
         <v>0</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I80" s="4">
         <v>3</v>
       </c>
-      <c r="I80" s="4">
+      <c r="J80" s="4">
         <v>23</v>
       </c>
-      <c r="J80" s="4">
+      <c r="K80" s="4">
         <v>260</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="4">
         <v>1.19</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -4481,28 +4721,31 @@
         <v>186</v>
       </c>
       <c r="F81" s="4">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4">
         <v>0</v>
       </c>
-      <c r="H81" s="4">
+      <c r="I81" s="4">
         <v>3</v>
       </c>
-      <c r="I81" s="4">
+      <c r="J81" s="4">
         <v>24</v>
       </c>
-      <c r="J81" s="4">
+      <c r="K81" s="4">
         <v>260</v>
       </c>
-      <c r="K81" s="4">
+      <c r="L81" s="4">
         <v>1.19</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P81" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -4512,6 +4755,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="21"/>
       <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -4536,28 +4780,28 @@
         <v>1</v>
       </c>
       <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
         <v>2</v>
       </c>
-      <c r="I83" s="4">
-        <v>1</v>
-      </c>
       <c r="J83" s="4">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
         <v>140</v>
       </c>
-      <c r="K83" s="4">
-        <v>1</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>234</v>
+      <c r="L83" s="4">
+        <v>1</v>
       </c>
       <c r="N83" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q83" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P83" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -4583,28 +4827,28 @@
         <v>1</v>
       </c>
       <c r="H84" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" s="4">
         <v>2</v>
       </c>
       <c r="J84" s="4">
+        <v>2</v>
+      </c>
+      <c r="K84" s="4">
         <v>140</v>
       </c>
-      <c r="K84" s="4">
-        <v>1</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>234</v>
+      <c r="L84" s="4">
+        <v>1</v>
       </c>
       <c r="N84" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q84" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P84" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q84" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -4630,28 +4874,28 @@
         <v>1</v>
       </c>
       <c r="H85" s="4">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4">
         <v>2</v>
       </c>
-      <c r="I85" s="4">
+      <c r="J85" s="4">
         <v>3</v>
       </c>
-      <c r="J85" s="4">
+      <c r="K85" s="4">
         <v>140</v>
       </c>
-      <c r="K85" s="4">
-        <v>1</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>234</v>
+      <c r="L85" s="4">
+        <v>1</v>
       </c>
       <c r="N85" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q85" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P85" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q85" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -4677,28 +4921,28 @@
         <v>1</v>
       </c>
       <c r="H86" s="4">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4">
         <v>2</v>
       </c>
-      <c r="I86" s="4">
+      <c r="J86" s="4">
         <v>4</v>
       </c>
-      <c r="J86" s="4">
+      <c r="K86" s="4">
         <v>140</v>
       </c>
-      <c r="K86" s="4">
-        <v>1</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>234</v>
+      <c r="L86" s="4">
+        <v>1</v>
       </c>
       <c r="N86" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q86" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P86" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q86" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -4708,6 +4952,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="21"/>
       <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -4726,34 +4971,34 @@
         <v>185</v>
       </c>
       <c r="F88" s="4">
+        <v>2</v>
+      </c>
+      <c r="G88" s="4">
         <v>0</v>
       </c>
-      <c r="G88" s="4">
-        <v>1</v>
-      </c>
       <c r="H88" s="4">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4">
         <v>2</v>
       </c>
-      <c r="I88" s="4">
+      <c r="J88" s="4">
         <v>5</v>
       </c>
-      <c r="J88" s="4">
+      <c r="K88" s="4">
         <v>210</v>
       </c>
-      <c r="K88" s="4">
-        <v>1</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>234</v>
+      <c r="L88" s="4">
+        <v>1</v>
       </c>
       <c r="N88" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q88" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P88" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -4773,34 +5018,34 @@
         <v>185</v>
       </c>
       <c r="F89" s="4">
+        <v>2</v>
+      </c>
+      <c r="G89" s="4">
         <v>0</v>
       </c>
-      <c r="G89" s="4">
-        <v>1</v>
-      </c>
       <c r="H89" s="4">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4">
         <v>2</v>
       </c>
-      <c r="I89" s="4">
+      <c r="J89" s="4">
         <v>6</v>
       </c>
-      <c r="J89" s="4">
+      <c r="K89" s="4">
         <v>210</v>
       </c>
-      <c r="K89" s="4">
-        <v>1</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>234</v>
+      <c r="L89" s="4">
+        <v>1</v>
       </c>
       <c r="N89" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q89" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -4820,34 +5065,34 @@
         <v>186</v>
       </c>
       <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" s="4">
         <v>0</v>
       </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
       <c r="H90" s="4">
+        <v>1</v>
+      </c>
+      <c r="I90" s="4">
         <v>2</v>
       </c>
-      <c r="I90" s="4">
+      <c r="J90" s="4">
         <v>7</v>
       </c>
-      <c r="J90" s="4">
+      <c r="K90" s="4">
         <v>210</v>
       </c>
-      <c r="K90" s="4">
-        <v>1</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>234</v>
+      <c r="L90" s="4">
+        <v>1</v>
       </c>
       <c r="N90" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q90" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P90" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -4867,34 +5112,34 @@
         <v>186</v>
       </c>
       <c r="F91" s="4">
+        <v>2</v>
+      </c>
+      <c r="G91" s="4">
         <v>0</v>
       </c>
-      <c r="G91" s="4">
-        <v>1</v>
-      </c>
       <c r="H91" s="4">
+        <v>1</v>
+      </c>
+      <c r="I91" s="4">
         <v>2</v>
       </c>
-      <c r="I91" s="4">
+      <c r="J91" s="4">
         <v>8</v>
       </c>
-      <c r="J91" s="4">
+      <c r="K91" s="4">
         <v>210</v>
       </c>
-      <c r="K91" s="4">
-        <v>1</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>234</v>
+      <c r="L91" s="4">
+        <v>1</v>
       </c>
       <c r="N91" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q91" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="P91" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q91" s="4" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -4904,6 +5149,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="21"/>
       <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -4922,37 +5168,37 @@
         <v>185</v>
       </c>
       <c r="F93" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G93" s="4">
         <v>1</v>
       </c>
       <c r="H93" s="4">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4">
         <v>14</v>
       </c>
-      <c r="I93" s="4">
-        <v>1</v>
-      </c>
       <c r="J93" s="4">
+        <v>1</v>
+      </c>
+      <c r="K93" s="4">
         <v>180</v>
       </c>
-      <c r="M93" s="4" t="s">
+      <c r="N93" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="S93" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N93" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="P93" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q93" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S93" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T93" s="4">
         <v>1</v>
@@ -4975,37 +5221,37 @@
         <v>185</v>
       </c>
       <c r="F94" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="4">
         <v>1</v>
       </c>
       <c r="H94" s="4">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4">
         <v>14</v>
       </c>
-      <c r="I94" s="4">
+      <c r="J94" s="4">
         <v>2</v>
       </c>
-      <c r="J94" s="4">
+      <c r="K94" s="4">
         <v>180</v>
       </c>
-      <c r="M94" s="4" t="s">
+      <c r="N94" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="S94" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="P94" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q94" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S94" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T94" s="4">
         <v>1</v>
@@ -5028,41 +5274,41 @@
         <v>186</v>
       </c>
       <c r="F95" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" s="4">
         <v>1</v>
       </c>
       <c r="H95" s="4">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4">
         <v>14</v>
       </c>
-      <c r="I95" s="4">
+      <c r="J95" s="4">
         <v>3</v>
       </c>
-      <c r="J95" s="4">
+      <c r="K95" s="4">
         <v>180</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="M95" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M95" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N95" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P95" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="O95" s="4" t="s">
+      <c r="Q95" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="R95" s="2"/>
       <c r="S95" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -5082,41 +5328,41 @@
         <v>186</v>
       </c>
       <c r="F96" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" s="4">
         <v>1</v>
       </c>
       <c r="H96" s="4">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4">
         <v>14</v>
       </c>
-      <c r="I96" s="4">
+      <c r="J96" s="4">
         <v>4</v>
       </c>
-      <c r="J96" s="4">
+      <c r="K96" s="4">
         <v>180</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="M96" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N96" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P96" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="O96" s="4" t="s">
+      <c r="Q96" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="P96" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q96" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="R96" s="2"/>
       <c r="S96" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -5136,31 +5382,34 @@
         <v>187</v>
       </c>
       <c r="F97" s="4">
+        <v>3</v>
+      </c>
+      <c r="G97" s="4">
         <v>0</v>
       </c>
-      <c r="H97" s="4">
+      <c r="I97" s="4">
         <v>21</v>
       </c>
-      <c r="I97" s="4">
+      <c r="J97" s="4">
         <v>5</v>
       </c>
-      <c r="J97" s="4">
+      <c r="K97" s="4">
         <v>180</v>
       </c>
       <c r="N97" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P97" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="O97" s="4" t="s">
+      <c r="Q97" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="P97" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q97" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="S97" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -5168,6 +5417,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -5186,41 +5436,41 @@
         <v>185</v>
       </c>
       <c r="F99" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G99" s="4">
         <v>1</v>
       </c>
       <c r="H99" s="4">
+        <v>1</v>
+      </c>
+      <c r="I99" s="4">
         <v>21</v>
       </c>
-      <c r="I99" s="4">
+      <c r="J99" s="4">
         <v>6</v>
       </c>
-      <c r="J99" s="4">
+      <c r="K99" s="4">
         <v>160</v>
       </c>
-      <c r="L99" s="16" t="s">
+      <c r="M99" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="M99" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N99" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O99" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q99" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="P99" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q99" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="R99" s="16"/>
       <c r="S99" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T99" s="4">
         <v>1</v>
@@ -5243,37 +5493,37 @@
         <v>185</v>
       </c>
       <c r="F100" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="4">
         <v>1</v>
       </c>
       <c r="H100" s="4">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4">
         <v>21</v>
       </c>
-      <c r="I100" s="4">
+      <c r="J100" s="4">
         <v>7</v>
       </c>
-      <c r="J100" s="4">
+      <c r="K100" s="4">
         <v>160</v>
       </c>
-      <c r="M100" s="4" t="s">
+      <c r="N100" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="S100" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O100" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="P100" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q100" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S100" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T100" s="4">
         <v>1</v>
@@ -5296,37 +5546,37 @@
         <v>186</v>
       </c>
       <c r="F101" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" s="4">
         <v>1</v>
       </c>
       <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
         <v>21</v>
       </c>
-      <c r="I101" s="4">
+      <c r="J101" s="4">
         <v>8</v>
       </c>
-      <c r="J101" s="4">
+      <c r="K101" s="4">
         <v>160</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="N101" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="S101" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N101" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O101" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="P101" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q101" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S101" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -5346,37 +5596,37 @@
         <v>186</v>
       </c>
       <c r="F102" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G102" s="4">
         <v>1</v>
       </c>
       <c r="H102" s="4">
+        <v>1</v>
+      </c>
+      <c r="I102" s="4">
         <v>21</v>
       </c>
-      <c r="I102" s="4">
+      <c r="J102" s="4">
         <v>9</v>
       </c>
-      <c r="J102" s="4">
+      <c r="K102" s="4">
         <v>160</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="N102" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="S102" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="P102" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S102" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -5396,31 +5646,34 @@
         <v>187</v>
       </c>
       <c r="F103" s="4">
+        <v>4</v>
+      </c>
+      <c r="G103" s="4">
         <v>0</v>
       </c>
-      <c r="H103" s="4">
+      <c r="I103" s="4">
         <v>21</v>
       </c>
-      <c r="I103" s="4">
+      <c r="J103" s="4">
         <v>10</v>
       </c>
-      <c r="J103" s="4">
+      <c r="K103" s="4">
         <v>160</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O103" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q103" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="P103" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q103" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="S103" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -5428,6 +5681,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -5446,38 +5700,41 @@
         <v>185</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="4">
         <v>0</v>
       </c>
       <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
         <v>2</v>
       </c>
-      <c r="I105" s="4">
-        <v>1</v>
-      </c>
       <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="K105" s="4">
         <v>200</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N105" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P105" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O105" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P105" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="Q105" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="R105" s="2"/>
       <c r="S105" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -5497,38 +5754,41 @@
         <v>185</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="4">
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" s="4">
         <v>2</v>
       </c>
       <c r="J106" s="4">
+        <v>2</v>
+      </c>
+      <c r="K106" s="4">
         <v>200</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>107</v>
       </c>
       <c r="N106" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P106" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O106" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P106" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="Q106" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="R106" s="2"/>
       <c r="S106" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -5536,6 +5796,7 @@
         <v>106</v>
       </c>
       <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
       <c r="R107" s="2"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -5555,43 +5816,46 @@
         <v>185</v>
       </c>
       <c r="F108" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G108" s="4">
         <v>0</v>
       </c>
       <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
         <v>2</v>
       </c>
-      <c r="I108" s="4">
+      <c r="J108" s="4">
         <v>3</v>
       </c>
-      <c r="J108" s="4">
+      <c r="K108" s="4">
         <v>200</v>
       </c>
-      <c r="K108" s="4">
-        <v>1</v>
-      </c>
-      <c r="L108" s="2" t="s">
+      <c r="L108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="2" t="s">
         <v>109</v>
       </c>
       <c r="N108" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P108" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O108" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P108" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="Q108" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="R108" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S108" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -5611,40 +5875,43 @@
         <v>185</v>
       </c>
       <c r="F109" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
       </c>
       <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
         <v>2</v>
       </c>
-      <c r="I109" s="4">
+      <c r="J109" s="4">
         <v>4</v>
       </c>
-      <c r="J109" s="4">
+      <c r="K109" s="4">
         <v>200</v>
       </c>
-      <c r="K109" s="4">
-        <v>1</v>
-      </c>
-      <c r="L109" s="2" t="s">
+      <c r="L109" s="4">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2" t="s">
         <v>111</v>
       </c>
       <c r="N109" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P109" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O109" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P109" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="Q109" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="S109" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -5664,40 +5931,43 @@
         <v>186</v>
       </c>
       <c r="F110" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G110" s="4">
         <v>0</v>
       </c>
       <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
         <v>2</v>
       </c>
-      <c r="I110" s="4">
+      <c r="J110" s="4">
         <v>5</v>
       </c>
-      <c r="J110" s="4">
+      <c r="K110" s="4">
         <v>200</v>
       </c>
-      <c r="K110" s="4">
-        <v>1</v>
-      </c>
-      <c r="L110" s="2" t="s">
+      <c r="L110" s="4">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>109</v>
       </c>
       <c r="N110" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P110" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O110" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P110" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="Q110" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="S110" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -5717,40 +5987,43 @@
         <v>186</v>
       </c>
       <c r="F111" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G111" s="4">
         <v>0</v>
       </c>
       <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
         <v>2</v>
       </c>
-      <c r="I111" s="4">
+      <c r="J111" s="4">
         <v>6</v>
       </c>
-      <c r="J111" s="4">
+      <c r="K111" s="4">
         <v>200</v>
       </c>
-      <c r="K111" s="4">
-        <v>1</v>
-      </c>
-      <c r="L111" s="3" t="s">
+      <c r="L111" s="4">
+        <v>1</v>
+      </c>
+      <c r="M111" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N111" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P111" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O111" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P111" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="Q111" s="4" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="S111" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -5758,6 +6031,7 @@
         <v>111</v>
       </c>
       <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -5776,40 +6050,40 @@
         <v>185</v>
       </c>
       <c r="F113" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G113" s="4">
         <v>1</v>
       </c>
       <c r="H113" s="4">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4">
         <v>5</v>
       </c>
-      <c r="I113" s="4">
+      <c r="J113" s="4">
         <v>7</v>
       </c>
-      <c r="J113" s="4">
+      <c r="K113" s="4">
         <v>180</v>
       </c>
-      <c r="K113" s="4">
-        <v>1</v>
-      </c>
-      <c r="M113" s="4" t="s">
+      <c r="L113" s="4">
+        <v>1</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="S113" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P113" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S113" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T113" s="4">
         <v>1</v>
@@ -5832,40 +6106,40 @@
         <v>185</v>
       </c>
       <c r="F114" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114" s="4">
         <v>1</v>
       </c>
       <c r="H114" s="4">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4">
         <v>5</v>
       </c>
-      <c r="I114" s="4">
+      <c r="J114" s="4">
         <v>8</v>
       </c>
-      <c r="J114" s="4">
+      <c r="K114" s="4">
         <v>180</v>
       </c>
-      <c r="K114" s="4">
-        <v>1</v>
-      </c>
-      <c r="M114" s="4" t="s">
+      <c r="L114" s="4">
+        <v>1</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="S114" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N114" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O114" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P114" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q114" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S114" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T114" s="4">
         <v>1</v>
@@ -5888,40 +6162,40 @@
         <v>186</v>
       </c>
       <c r="F115" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G115" s="4">
         <v>1</v>
       </c>
       <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4">
         <v>5</v>
       </c>
-      <c r="I115" s="4">
+      <c r="J115" s="4">
         <v>9</v>
       </c>
-      <c r="J115" s="4">
+      <c r="K115" s="4">
         <v>180</v>
       </c>
-      <c r="K115" s="4">
-        <v>1</v>
-      </c>
-      <c r="M115" s="4" t="s">
+      <c r="L115" s="4">
+        <v>1</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="S115" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N115" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P115" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q115" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S115" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -5941,40 +6215,40 @@
         <v>186</v>
       </c>
       <c r="F116" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G116" s="4">
         <v>1</v>
       </c>
       <c r="H116" s="4">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4">
         <v>5</v>
       </c>
-      <c r="I116" s="4">
+      <c r="J116" s="4">
         <v>10</v>
       </c>
-      <c r="J116" s="4">
+      <c r="K116" s="4">
         <v>180</v>
       </c>
-      <c r="K116" s="4">
-        <v>1</v>
-      </c>
-      <c r="M116" s="4" t="s">
+      <c r="L116" s="4">
+        <v>1</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="S116" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N116" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O116" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P116" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q116" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S116" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -5994,37 +6268,40 @@
         <v>187</v>
       </c>
       <c r="F117" s="4">
+        <v>3</v>
+      </c>
+      <c r="G117" s="4">
         <v>0</v>
       </c>
-      <c r="H117" s="4">
+      <c r="I117" s="4">
         <v>8</v>
       </c>
-      <c r="I117" s="4">
+      <c r="J117" s="4">
         <v>11</v>
       </c>
-      <c r="J117" s="4">
+      <c r="K117" s="4">
         <v>180</v>
       </c>
-      <c r="K117" s="4">
-        <v>1</v>
-      </c>
-      <c r="L117" s="16" t="s">
+      <c r="L117" s="4">
+        <v>1</v>
+      </c>
+      <c r="M117" s="16" t="s">
         <v>112</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="S117" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -6032,6 +6309,7 @@
         <v>117</v>
       </c>
       <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -6050,37 +6328,37 @@
         <v>185</v>
       </c>
       <c r="F119" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G119" s="4">
         <v>1</v>
       </c>
       <c r="H119" s="4">
+        <v>1</v>
+      </c>
+      <c r="I119" s="4">
         <v>8</v>
       </c>
-      <c r="I119" s="4">
+      <c r="J119" s="4">
         <v>12</v>
       </c>
-      <c r="J119" s="4">
+      <c r="K119" s="4">
         <v>180</v>
       </c>
-      <c r="K119" s="4">
-        <v>1</v>
-      </c>
-      <c r="M119" s="4" t="s">
+      <c r="L119" s="4">
+        <v>1</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="S119" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N119" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P119" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q119" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S119" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -6100,37 +6378,37 @@
         <v>185</v>
       </c>
       <c r="F120" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G120" s="4">
         <v>1</v>
       </c>
       <c r="H120" s="4">
+        <v>1</v>
+      </c>
+      <c r="I120" s="4">
         <v>8</v>
       </c>
-      <c r="I120" s="4">
+      <c r="J120" s="4">
         <v>13</v>
       </c>
-      <c r="J120" s="4">
+      <c r="K120" s="4">
         <v>180</v>
       </c>
-      <c r="K120" s="4">
-        <v>1</v>
-      </c>
-      <c r="M120" s="4" t="s">
+      <c r="L120" s="4">
+        <v>1</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q120" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="S120" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N120" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P120" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q120" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S120" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -6150,37 +6428,37 @@
         <v>186</v>
       </c>
       <c r="F121" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G121" s="4">
         <v>1</v>
       </c>
       <c r="H121" s="4">
+        <v>1</v>
+      </c>
+      <c r="I121" s="4">
         <v>8</v>
       </c>
-      <c r="I121" s="4">
+      <c r="J121" s="4">
         <v>14</v>
       </c>
-      <c r="J121" s="4">
+      <c r="K121" s="4">
         <v>180</v>
       </c>
-      <c r="K121" s="4">
-        <v>1</v>
-      </c>
-      <c r="M121" s="4" t="s">
+      <c r="L121" s="4">
+        <v>1</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q121" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="S121" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P121" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q121" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S121" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -6200,37 +6478,37 @@
         <v>186</v>
       </c>
       <c r="F122" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G122" s="4">
         <v>1</v>
       </c>
       <c r="H122" s="4">
+        <v>1</v>
+      </c>
+      <c r="I122" s="4">
         <v>8</v>
       </c>
-      <c r="I122" s="4">
+      <c r="J122" s="4">
         <v>15</v>
       </c>
-      <c r="J122" s="4">
+      <c r="K122" s="4">
         <v>180</v>
       </c>
-      <c r="K122" s="4">
-        <v>1</v>
-      </c>
-      <c r="M122" s="4" t="s">
+      <c r="L122" s="4">
+        <v>1</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q122" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="S122" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N122" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P122" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q122" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S122" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -6250,31 +6528,34 @@
         <v>187</v>
       </c>
       <c r="F123" s="4">
+        <v>4</v>
+      </c>
+      <c r="G123" s="4">
         <v>0</v>
       </c>
-      <c r="H123" s="4">
+      <c r="I123" s="4">
         <v>8</v>
       </c>
-      <c r="I123" s="4">
+      <c r="J123" s="4">
         <v>16</v>
       </c>
-      <c r="J123" s="4">
+      <c r="K123" s="4">
         <v>180</v>
       </c>
-      <c r="K123" s="4">
+      <c r="L123" s="4">
         <v>1</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P123" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="Q123" s="4" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="S123" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -6282,6 +6563,7 @@
         <v>123</v>
       </c>
       <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -6306,28 +6588,28 @@
         <v>1</v>
       </c>
       <c r="H125" s="4">
+        <v>1</v>
+      </c>
+      <c r="I125" s="4">
         <v>3</v>
       </c>
-      <c r="I125" s="4">
-        <v>1</v>
-      </c>
       <c r="J125" s="4">
+        <v>1</v>
+      </c>
+      <c r="K125" s="4">
         <v>200</v>
       </c>
-      <c r="K125" s="4">
-        <v>1</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>234</v>
+      <c r="L125" s="4">
+        <v>1</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P125" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="Q125" s="4" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -6346,35 +6628,35 @@
       <c r="E126" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F126" s="24">
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="24">
         <v>0</v>
       </c>
-      <c r="G126" s="4">
-        <v>1</v>
-      </c>
       <c r="H126" s="4">
+        <v>1</v>
+      </c>
+      <c r="I126" s="4">
         <v>3</v>
       </c>
-      <c r="I126" s="4">
+      <c r="J126" s="4">
         <v>2</v>
       </c>
-      <c r="J126" s="4">
+      <c r="K126" s="4">
         <v>200</v>
       </c>
-      <c r="K126" s="4">
-        <v>1</v>
-      </c>
-      <c r="M126" s="4" t="s">
-        <v>234</v>
+      <c r="L126" s="4">
+        <v>1</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P126" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="O126" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="Q126" s="4" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -6400,31 +6682,31 @@
         <v>1</v>
       </c>
       <c r="H127" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I127" s="4">
         <v>3</v>
       </c>
       <c r="J127" s="4">
+        <v>3</v>
+      </c>
+      <c r="K127" s="4">
         <v>200</v>
       </c>
-      <c r="K127" s="4">
-        <v>1</v>
-      </c>
-      <c r="M127" s="4" t="s">
+      <c r="L127" s="4">
+        <v>1</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="S127" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P127" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q127" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S127" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -6450,28 +6732,28 @@
         <v>1</v>
       </c>
       <c r="H128" s="4">
+        <v>1</v>
+      </c>
+      <c r="I128" s="4">
         <v>3</v>
       </c>
-      <c r="I128" s="4">
+      <c r="J128" s="4">
         <v>4</v>
       </c>
-      <c r="J128" s="4">
+      <c r="K128" s="4">
         <v>200</v>
       </c>
-      <c r="K128" s="4">
-        <v>1</v>
-      </c>
-      <c r="M128" s="4" t="s">
-        <v>234</v>
+      <c r="L128" s="4">
+        <v>1</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P128" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="Q128" s="4" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -6491,34 +6773,37 @@
         <v>187</v>
       </c>
       <c r="F129" s="4">
+        <v>1</v>
+      </c>
+      <c r="G129" s="4">
         <v>0</v>
       </c>
-      <c r="H129" s="4">
+      <c r="I129" s="4">
         <v>3</v>
       </c>
-      <c r="I129" s="4">
+      <c r="J129" s="4">
         <v>5</v>
       </c>
-      <c r="J129" s="4">
+      <c r="K129" s="4">
         <v>200</v>
       </c>
-      <c r="K129" s="4">
-        <v>1</v>
-      </c>
-      <c r="L129" s="16" t="s">
+      <c r="L129" s="4">
+        <v>1</v>
+      </c>
+      <c r="M129" s="16" t="s">
         <v>116</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P129" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="S129" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -6526,6 +6811,7 @@
         <v>129</v>
       </c>
       <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -6544,40 +6830,40 @@
         <v>185</v>
       </c>
       <c r="F131" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" s="4">
         <v>1</v>
       </c>
       <c r="H131" s="4">
+        <v>1</v>
+      </c>
+      <c r="I131" s="4">
         <v>4</v>
       </c>
-      <c r="I131" s="4">
+      <c r="J131" s="4">
         <v>6</v>
       </c>
-      <c r="J131" s="4">
+      <c r="K131" s="4">
         <v>180</v>
       </c>
-      <c r="K131" s="4">
-        <v>1</v>
-      </c>
-      <c r="M131" s="4" t="s">
+      <c r="L131" s="4">
+        <v>1</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="P131" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q131" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="S131" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N131" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O131" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="P131" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q131" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S131" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T131" s="4">
         <v>1</v>
@@ -6600,40 +6886,40 @@
         <v>185</v>
       </c>
       <c r="F132" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="4">
         <v>1</v>
       </c>
       <c r="H132" s="4">
+        <v>1</v>
+      </c>
+      <c r="I132" s="4">
         <v>4</v>
       </c>
-      <c r="I132" s="4">
+      <c r="J132" s="4">
         <v>7</v>
       </c>
-      <c r="J132" s="4">
+      <c r="K132" s="4">
         <v>180</v>
       </c>
-      <c r="K132" s="4">
-        <v>1</v>
-      </c>
-      <c r="M132" s="4" t="s">
+      <c r="L132" s="4">
+        <v>1</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="P132" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="S132" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N132" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O132" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="P132" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q132" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S132" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T132" s="4">
         <v>1</v>
@@ -6655,41 +6941,41 @@
       <c r="E133" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F133" s="18">
-        <v>1</v>
-      </c>
-      <c r="G133" s="4">
+      <c r="F133" s="4">
+        <v>2</v>
+      </c>
+      <c r="G133" s="18">
         <v>1</v>
       </c>
       <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4">
         <v>4</v>
       </c>
-      <c r="I133" s="4">
+      <c r="J133" s="4">
         <v>8</v>
       </c>
-      <c r="J133" s="4">
+      <c r="K133" s="4">
         <v>180</v>
       </c>
-      <c r="K133" s="4">
-        <v>1</v>
-      </c>
-      <c r="M133" s="4" t="s">
+      <c r="L133" s="4">
+        <v>1</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="P133" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="S133" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N133" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O133" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="P133" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q133" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S133" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -6708,41 +6994,41 @@
       <c r="E134" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F134" s="24">
+      <c r="F134" s="4">
+        <v>2</v>
+      </c>
+      <c r="G134" s="24">
         <v>0</v>
       </c>
-      <c r="G134" s="4">
-        <v>1</v>
-      </c>
       <c r="H134" s="4">
+        <v>1</v>
+      </c>
+      <c r="I134" s="4">
         <v>4</v>
       </c>
-      <c r="I134" s="4">
+      <c r="J134" s="4">
         <v>9</v>
       </c>
-      <c r="J134" s="4">
+      <c r="K134" s="4">
         <v>180</v>
       </c>
-      <c r="K134" s="4">
-        <v>1</v>
-      </c>
-      <c r="M134" s="4" t="s">
+      <c r="L134" s="4">
+        <v>1</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="P134" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q134" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="S134" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N134" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O134" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="P134" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q134" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S134" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -6762,34 +7048,37 @@
         <v>187</v>
       </c>
       <c r="F135" s="4">
+        <v>2</v>
+      </c>
+      <c r="G135" s="4">
         <v>0</v>
       </c>
-      <c r="H135" s="4">
+      <c r="I135" s="4">
         <v>4</v>
       </c>
-      <c r="I135" s="4">
+      <c r="J135" s="4">
         <v>10</v>
       </c>
-      <c r="J135" s="4">
+      <c r="K135" s="4">
         <v>180</v>
       </c>
-      <c r="K135" s="4">
+      <c r="L135" s="4">
         <v>1</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="S135" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -6797,6 +7086,7 @@
         <v>135</v>
       </c>
       <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -6821,34 +7111,34 @@
         <v>1</v>
       </c>
       <c r="H137" s="4">
+        <v>1</v>
+      </c>
+      <c r="I137" s="4">
         <v>5</v>
       </c>
-      <c r="I137" s="4">
+      <c r="J137" s="4">
         <v>11</v>
       </c>
-      <c r="J137" s="4">
+      <c r="K137" s="4">
         <v>180</v>
       </c>
-      <c r="K137" s="4">
-        <v>1</v>
-      </c>
-      <c r="M137" s="4" t="s">
+      <c r="L137" s="4">
+        <v>1</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P137" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q137" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S137" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N137" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O137" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P137" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q137" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S137" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -6874,31 +7164,31 @@
         <v>1</v>
       </c>
       <c r="H138" s="4">
+        <v>1</v>
+      </c>
+      <c r="I138" s="4">
         <v>5</v>
       </c>
-      <c r="I138" s="4">
+      <c r="J138" s="4">
         <v>12</v>
       </c>
-      <c r="J138" s="4">
+      <c r="K138" s="4">
         <v>180</v>
       </c>
-      <c r="K138" s="4">
-        <v>1</v>
-      </c>
-      <c r="M138" s="4" t="s">
-        <v>234</v>
+      <c r="L138" s="4">
+        <v>1</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
@@ -6924,34 +7214,34 @@
         <v>1</v>
       </c>
       <c r="H139" s="4">
+        <v>1</v>
+      </c>
+      <c r="I139" s="4">
         <v>5</v>
       </c>
-      <c r="I139" s="4">
+      <c r="J139" s="4">
         <v>13</v>
       </c>
-      <c r="J139" s="4">
+      <c r="K139" s="4">
         <v>180</v>
       </c>
-      <c r="K139" s="4">
-        <v>1</v>
-      </c>
-      <c r="M139" s="4" t="s">
+      <c r="L139" s="4">
+        <v>1</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O139" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P139" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q139" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S139" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N139" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O139" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P139" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q139" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S139" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
@@ -6970,41 +7260,41 @@
       <c r="E140" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F140" s="24">
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="24">
         <v>0</v>
       </c>
-      <c r="G140" s="4">
-        <v>1</v>
-      </c>
       <c r="H140" s="4">
+        <v>1</v>
+      </c>
+      <c r="I140" s="4">
         <v>5</v>
       </c>
-      <c r="I140" s="4">
+      <c r="J140" s="4">
         <v>14</v>
       </c>
-      <c r="J140" s="4">
+      <c r="K140" s="4">
         <v>180</v>
       </c>
-      <c r="K140" s="4">
-        <v>1</v>
-      </c>
-      <c r="M140" s="4" t="s">
+      <c r="L140" s="4">
+        <v>1</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S140" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N140" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O140" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P140" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q140" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S140" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -7024,34 +7314,37 @@
         <v>187</v>
       </c>
       <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4">
         <v>0</v>
       </c>
-      <c r="H141" s="4">
+      <c r="I141" s="4">
         <v>5</v>
       </c>
-      <c r="I141" s="4">
+      <c r="J141" s="4">
         <v>15</v>
       </c>
-      <c r="J141" s="4">
+      <c r="K141" s="4">
         <v>180</v>
       </c>
-      <c r="K141" s="4">
+      <c r="L141" s="4">
         <v>1</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="Q141" s="4" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="S141" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -7059,6 +7352,7 @@
         <v>141</v>
       </c>
       <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -7077,40 +7371,40 @@
         <v>185</v>
       </c>
       <c r="F143" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" s="4">
         <v>1</v>
       </c>
       <c r="H143" s="4">
+        <v>1</v>
+      </c>
+      <c r="I143" s="4">
         <v>6</v>
       </c>
-      <c r="I143" s="4">
+      <c r="J143" s="4">
         <v>16</v>
       </c>
-      <c r="J143" s="4">
+      <c r="K143" s="4">
         <v>200</v>
       </c>
-      <c r="K143" s="4">
-        <v>1</v>
-      </c>
-      <c r="M143" s="4" t="s">
+      <c r="L143" s="4">
+        <v>1</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O143" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P143" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q143" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="S143" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N143" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P143" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q143" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S143" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -7130,40 +7424,40 @@
         <v>185</v>
       </c>
       <c r="F144" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144" s="4">
         <v>1</v>
       </c>
       <c r="H144" s="4">
+        <v>1</v>
+      </c>
+      <c r="I144" s="4">
         <v>6</v>
       </c>
-      <c r="I144" s="4">
+      <c r="J144" s="4">
         <v>17</v>
       </c>
-      <c r="J144" s="4">
+      <c r="K144" s="4">
         <v>200</v>
       </c>
-      <c r="K144" s="4">
-        <v>1</v>
-      </c>
-      <c r="M144" s="4" t="s">
+      <c r="L144" s="4">
+        <v>1</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O144" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P144" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q144" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="S144" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P144" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q144" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S144" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -7183,40 +7477,40 @@
         <v>186</v>
       </c>
       <c r="F145" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G145" s="4">
         <v>1</v>
       </c>
       <c r="H145" s="4">
+        <v>1</v>
+      </c>
+      <c r="I145" s="4">
         <v>6</v>
       </c>
-      <c r="I145" s="4">
+      <c r="J145" s="4">
         <v>18</v>
       </c>
-      <c r="J145" s="4">
+      <c r="K145" s="4">
         <v>200</v>
       </c>
-      <c r="K145" s="4">
-        <v>1</v>
-      </c>
-      <c r="M145" s="4" t="s">
+      <c r="L145" s="4">
+        <v>1</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O145" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P145" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="S145" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N145" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O145" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P145" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q145" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S145" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -7236,40 +7530,40 @@
         <v>186</v>
       </c>
       <c r="F146" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146" s="4">
         <v>1</v>
       </c>
       <c r="H146" s="4">
+        <v>1</v>
+      </c>
+      <c r="I146" s="4">
         <v>6</v>
       </c>
-      <c r="I146" s="4">
+      <c r="J146" s="4">
         <v>19</v>
       </c>
-      <c r="J146" s="4">
+      <c r="K146" s="4">
         <v>200</v>
       </c>
-      <c r="K146" s="4">
-        <v>1</v>
-      </c>
-      <c r="M146" s="4" t="s">
+      <c r="L146" s="4">
+        <v>1</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O146" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P146" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q146" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="S146" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N146" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O146" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P146" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q146" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S146" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -7289,37 +7583,40 @@
         <v>187</v>
       </c>
       <c r="F147" s="4">
+        <v>2</v>
+      </c>
+      <c r="G147" s="4">
         <v>0</v>
       </c>
-      <c r="H147" s="4">
+      <c r="I147" s="4">
         <v>6</v>
       </c>
-      <c r="I147" s="4">
+      <c r="J147" s="4">
         <v>20</v>
       </c>
-      <c r="J147" s="4">
+      <c r="K147" s="4">
         <v>200</v>
       </c>
-      <c r="K147" s="4">
-        <v>1</v>
-      </c>
-      <c r="L147" s="16" t="s">
+      <c r="L147" s="4">
+        <v>1</v>
+      </c>
+      <c r="M147" s="16" t="s">
         <v>155</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q147" s="4" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="S147" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
@@ -7327,6 +7624,7 @@
         <v>147</v>
       </c>
       <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -7345,40 +7643,40 @@
         <v>185</v>
       </c>
       <c r="F149" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G149" s="4">
         <v>1</v>
       </c>
       <c r="H149" s="4">
+        <v>1</v>
+      </c>
+      <c r="I149" s="4">
         <v>3</v>
       </c>
-      <c r="I149" s="4">
-        <v>1</v>
-      </c>
       <c r="J149" s="4">
+        <v>1</v>
+      </c>
+      <c r="K149" s="4">
         <v>180</v>
       </c>
-      <c r="K149" s="4">
-        <v>1</v>
-      </c>
-      <c r="M149" s="4" t="s">
+      <c r="L149" s="4">
+        <v>1</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O149" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P149" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q149" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="S149" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N149" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O149" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="P149" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q149" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S149" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -7398,40 +7696,40 @@
         <v>185</v>
       </c>
       <c r="F150" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G150" s="4">
         <v>1</v>
       </c>
       <c r="H150" s="4">
+        <v>1</v>
+      </c>
+      <c r="I150" s="4">
         <v>3</v>
       </c>
-      <c r="I150" s="4">
+      <c r="J150" s="4">
         <v>2</v>
       </c>
-      <c r="J150" s="4">
+      <c r="K150" s="4">
         <v>180</v>
       </c>
-      <c r="K150" s="4">
-        <v>1</v>
-      </c>
-      <c r="M150" s="4" t="s">
+      <c r="L150" s="4">
+        <v>1</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O150" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q150" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="S150" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N150" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O150" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="P150" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q150" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S150" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -7450,41 +7748,44 @@
       <c r="E151" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F151" s="24">
+      <c r="F151" s="4">
+        <v>3</v>
+      </c>
+      <c r="G151" s="24">
         <v>0</v>
       </c>
-      <c r="G151" s="4">
+      <c r="H151" s="4">
         <v>0</v>
-      </c>
-      <c r="H151" s="4">
-        <v>3</v>
       </c>
       <c r="I151" s="4">
         <v>3</v>
       </c>
       <c r="J151" s="4">
+        <v>3</v>
+      </c>
+      <c r="K151" s="4">
         <v>180</v>
       </c>
-      <c r="K151" s="4">
-        <v>1</v>
-      </c>
-      <c r="L151" s="16" t="s">
+      <c r="L151" s="4">
+        <v>1</v>
+      </c>
+      <c r="M151" s="16" t="s">
         <v>137</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O151" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P151" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q151" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P151" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q151" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="S151" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
@@ -7503,41 +7804,41 @@
       <c r="E152" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F152" s="24">
+      <c r="F152" s="4">
+        <v>3</v>
+      </c>
+      <c r="G152" s="24">
         <v>0</v>
       </c>
-      <c r="G152" s="4">
-        <v>1</v>
-      </c>
       <c r="H152" s="4">
+        <v>1</v>
+      </c>
+      <c r="I152" s="4">
         <v>3</v>
       </c>
-      <c r="I152" s="4">
+      <c r="J152" s="4">
         <v>4</v>
       </c>
-      <c r="J152" s="4">
+      <c r="K152" s="4">
         <v>180</v>
       </c>
-      <c r="K152" s="4">
-        <v>1</v>
-      </c>
-      <c r="M152" s="4" t="s">
+      <c r="L152" s="4">
+        <v>1</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O152" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P152" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q152" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="S152" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N152" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O152" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="P152" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q152" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S152" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
@@ -7557,34 +7858,37 @@
         <v>187</v>
       </c>
       <c r="F153" s="4">
+        <v>3</v>
+      </c>
+      <c r="G153" s="4">
         <v>0</v>
       </c>
-      <c r="H153" s="4">
+      <c r="I153" s="4">
         <v>3</v>
       </c>
-      <c r="I153" s="4">
+      <c r="J153" s="4">
         <v>5</v>
       </c>
-      <c r="J153" s="4">
+      <c r="K153" s="4">
         <v>180</v>
       </c>
-      <c r="K153" s="4">
+      <c r="L153" s="4">
         <v>1</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O153" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P153" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q153" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P153" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q153" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="S153" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -7592,6 +7896,7 @@
         <v>153</v>
       </c>
       <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -7610,40 +7915,40 @@
         <v>185</v>
       </c>
       <c r="F155" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G155" s="4">
         <v>1</v>
       </c>
       <c r="H155" s="4">
+        <v>1</v>
+      </c>
+      <c r="I155" s="4">
         <v>4</v>
       </c>
-      <c r="I155" s="4">
+      <c r="J155" s="4">
         <v>6</v>
       </c>
-      <c r="J155" s="4">
+      <c r="K155" s="4">
         <v>200</v>
       </c>
-      <c r="K155" s="4">
-        <v>1</v>
-      </c>
-      <c r="M155" s="4" t="s">
+      <c r="L155" s="4">
+        <v>1</v>
+      </c>
+      <c r="N155" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O155" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P155" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q155" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="S155" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N155" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O155" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P155" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q155" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S155" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -7663,40 +7968,40 @@
         <v>185</v>
       </c>
       <c r="F156" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G156" s="4">
         <v>1</v>
       </c>
       <c r="H156" s="4">
+        <v>1</v>
+      </c>
+      <c r="I156" s="4">
         <v>4</v>
       </c>
-      <c r="I156" s="4">
+      <c r="J156" s="4">
         <v>7</v>
       </c>
-      <c r="J156" s="4">
+      <c r="K156" s="4">
         <v>200</v>
       </c>
-      <c r="K156" s="4">
-        <v>1</v>
-      </c>
-      <c r="M156" s="4" t="s">
+      <c r="L156" s="4">
+        <v>1</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O156" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P156" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="S156" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N156" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O156" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P156" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q156" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S156" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -7716,40 +8021,40 @@
         <v>186</v>
       </c>
       <c r="F157" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G157" s="4">
         <v>1</v>
       </c>
       <c r="H157" s="4">
+        <v>1</v>
+      </c>
+      <c r="I157" s="4">
         <v>4</v>
       </c>
-      <c r="I157" s="4">
+      <c r="J157" s="4">
         <v>8</v>
       </c>
-      <c r="J157" s="4">
+      <c r="K157" s="4">
         <v>200</v>
       </c>
-      <c r="K157" s="4">
-        <v>1</v>
-      </c>
-      <c r="M157" s="4" t="s">
+      <c r="L157" s="4">
+        <v>1</v>
+      </c>
+      <c r="N157" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="O157" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P157" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q157" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="S157" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N157" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O157" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P157" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q157" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S157" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -7769,37 +8074,37 @@
         <v>186</v>
       </c>
       <c r="F158" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G158" s="4">
         <v>1</v>
       </c>
       <c r="H158" s="4">
+        <v>1</v>
+      </c>
+      <c r="I158" s="4">
         <v>4</v>
       </c>
-      <c r="I158" s="4">
+      <c r="J158" s="4">
         <v>9</v>
       </c>
-      <c r="J158" s="4">
+      <c r="K158" s="4">
         <v>200</v>
       </c>
-      <c r="K158" s="4">
-        <v>1</v>
-      </c>
-      <c r="M158" s="4" t="s">
-        <v>234</v>
+      <c r="L158" s="4">
+        <v>1</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q158" s="4" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
@@ -7819,34 +8124,37 @@
         <v>187</v>
       </c>
       <c r="F159" s="4">
+        <v>4</v>
+      </c>
+      <c r="G159" s="4">
         <v>0</v>
       </c>
-      <c r="H159" s="4">
+      <c r="I159" s="4">
         <v>4</v>
       </c>
-      <c r="I159" s="4">
+      <c r="J159" s="4">
         <v>10</v>
       </c>
-      <c r="J159" s="4">
+      <c r="K159" s="4">
         <v>200</v>
       </c>
-      <c r="K159" s="4">
+      <c r="L159" s="4">
         <v>1</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q159" s="4" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="S159" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -7854,6 +8162,7 @@
         <v>159</v>
       </c>
       <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
@@ -7872,25 +8181,28 @@
         <v>185</v>
       </c>
       <c r="F161" s="4">
+        <v>1</v>
+      </c>
+      <c r="G161" s="4">
         <v>0</v>
       </c>
-      <c r="H161" s="4">
+      <c r="I161" s="4">
         <v>2</v>
       </c>
-      <c r="I161" s="4">
-        <v>1</v>
-      </c>
       <c r="J161" s="4">
+        <v>1</v>
+      </c>
+      <c r="K161" s="4">
         <v>180</v>
       </c>
-      <c r="K161" s="4">
-        <v>1</v>
-      </c>
-      <c r="L161" s="2" t="s">
+      <c r="L161" s="4">
+        <v>1</v>
+      </c>
+      <c r="M161" s="2" t="s">
         <v>156</v>
       </c>
       <c r="S161" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
@@ -7910,25 +8222,28 @@
         <v>185</v>
       </c>
       <c r="F162" s="4">
+        <v>1</v>
+      </c>
+      <c r="G162" s="4">
         <v>0</v>
-      </c>
-      <c r="H162" s="4">
-        <v>2</v>
       </c>
       <c r="I162" s="4">
         <v>2</v>
       </c>
       <c r="J162" s="4">
+        <v>2</v>
+      </c>
+      <c r="K162" s="4">
         <v>180</v>
       </c>
-      <c r="K162" s="4">
-        <v>1</v>
-      </c>
-      <c r="L162" s="2" t="s">
+      <c r="L162" s="4">
+        <v>1</v>
+      </c>
+      <c r="M162" s="2" t="s">
         <v>156</v>
       </c>
       <c r="S162" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -7948,22 +8263,25 @@
         <v>186</v>
       </c>
       <c r="F163" s="4">
+        <v>1</v>
+      </c>
+      <c r="G163" s="4">
         <v>0</v>
       </c>
-      <c r="H163" s="4">
+      <c r="I163" s="4">
         <v>2</v>
       </c>
-      <c r="I163" s="4">
+      <c r="J163" s="4">
         <v>3</v>
       </c>
-      <c r="J163" s="4">
+      <c r="K163" s="4">
         <v>180</v>
       </c>
-      <c r="L163" s="4" t="s">
+      <c r="M163" s="4" t="s">
         <v>159</v>
       </c>
       <c r="S163" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
@@ -7971,7 +8289,8 @@
         <v>163</v>
       </c>
       <c r="E164" s="4"/>
-      <c r="L164" s="2"/>
+      <c r="F164" s="4"/>
+      <c r="M164" s="2"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -7990,40 +8309,40 @@
         <v>185</v>
       </c>
       <c r="F165" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G165" s="4">
         <v>1</v>
       </c>
       <c r="H165" s="4">
+        <v>1</v>
+      </c>
+      <c r="I165" s="4">
         <v>8</v>
       </c>
-      <c r="I165" s="4">
+      <c r="J165" s="4">
         <v>19</v>
       </c>
-      <c r="J165" s="4">
+      <c r="K165" s="4">
         <v>200</v>
       </c>
-      <c r="K165" s="4">
-        <v>1</v>
-      </c>
-      <c r="M165" s="4" t="s">
+      <c r="L165" s="4">
+        <v>1</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O165" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P165" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q165" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="S165" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N165" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O165" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P165" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q165" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S165" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -8043,40 +8362,40 @@
         <v>185</v>
       </c>
       <c r="F166" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G166" s="4">
         <v>1</v>
       </c>
       <c r="H166" s="4">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4">
         <v>8</v>
       </c>
-      <c r="I166" s="4">
+      <c r="J166" s="4">
         <v>20</v>
       </c>
-      <c r="J166" s="4">
+      <c r="K166" s="4">
         <v>200</v>
       </c>
-      <c r="K166" s="4">
-        <v>1</v>
-      </c>
-      <c r="M166" s="4" t="s">
+      <c r="L166" s="4">
+        <v>1</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O166" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P166" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q166" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="S166" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N166" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O166" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P166" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q166" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S166" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
@@ -8096,40 +8415,40 @@
         <v>186</v>
       </c>
       <c r="F167" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G167" s="4">
         <v>1</v>
       </c>
       <c r="H167" s="4">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4">
         <v>8</v>
       </c>
-      <c r="I167" s="4">
+      <c r="J167" s="4">
         <v>21</v>
       </c>
-      <c r="J167" s="4">
+      <c r="K167" s="4">
         <v>200</v>
       </c>
-      <c r="K167" s="4">
-        <v>1</v>
-      </c>
-      <c r="M167" s="4" t="s">
+      <c r="L167" s="4">
+        <v>1</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O167" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P167" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q167" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="S167" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N167" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O167" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P167" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q167" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S167" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -8149,40 +8468,40 @@
         <v>186</v>
       </c>
       <c r="F168" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="4">
         <v>1</v>
       </c>
       <c r="H168" s="4">
+        <v>1</v>
+      </c>
+      <c r="I168" s="4">
         <v>8</v>
       </c>
-      <c r="I168" s="4">
+      <c r="J168" s="4">
         <v>22</v>
       </c>
-      <c r="J168" s="4">
+      <c r="K168" s="4">
         <v>200</v>
       </c>
-      <c r="K168" s="4">
-        <v>1</v>
-      </c>
-      <c r="M168" s="4" t="s">
+      <c r="L168" s="4">
+        <v>1</v>
+      </c>
+      <c r="N168" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O168" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P168" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q168" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="S168" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N168" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O168" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P168" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q168" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S168" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
@@ -8202,34 +8521,37 @@
         <v>187</v>
       </c>
       <c r="F169" s="4">
+        <v>2</v>
+      </c>
+      <c r="G169" s="4">
         <v>0</v>
       </c>
-      <c r="H169" s="4">
+      <c r="I169" s="4">
         <v>8</v>
       </c>
-      <c r="I169" s="4">
+      <c r="J169" s="4">
         <v>23</v>
       </c>
-      <c r="J169" s="4">
+      <c r="K169" s="4">
         <v>200</v>
       </c>
-      <c r="K169" s="4">
-        <v>1</v>
-      </c>
-      <c r="L169" s="16" t="s">
+      <c r="L169" s="4">
+        <v>1</v>
+      </c>
+      <c r="M169" s="16" t="s">
         <v>158</v>
       </c>
       <c r="N169" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O169" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P169" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="O169" s="4" t="s">
+      <c r="Q169" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="P169" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q169" s="4" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
@@ -8237,6 +8559,7 @@
         <v>169</v>
       </c>
       <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
@@ -8255,40 +8578,40 @@
         <v>185</v>
       </c>
       <c r="F171" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G171" s="4">
         <v>1</v>
       </c>
       <c r="H171" s="4">
+        <v>1</v>
+      </c>
+      <c r="I171" s="4">
         <v>4</v>
       </c>
-      <c r="I171" s="4">
+      <c r="J171" s="4">
         <v>9</v>
       </c>
-      <c r="J171" s="4">
+      <c r="K171" s="4">
         <v>180</v>
       </c>
-      <c r="K171" s="4">
-        <v>1</v>
-      </c>
-      <c r="M171" s="4" t="s">
-        <v>234</v>
+      <c r="L171" s="4">
+        <v>1</v>
       </c>
       <c r="N171" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="P171" s="4" t="s">
         <v>264</v>
       </c>
       <c r="Q171" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="S171" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
@@ -8308,40 +8631,40 @@
         <v>185</v>
       </c>
       <c r="F172" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G172" s="4">
         <v>1</v>
       </c>
       <c r="H172" s="4">
+        <v>1</v>
+      </c>
+      <c r="I172" s="4">
         <v>4</v>
       </c>
-      <c r="I172" s="4">
+      <c r="J172" s="4">
         <v>10</v>
       </c>
-      <c r="J172" s="4">
+      <c r="K172" s="4">
         <v>180</v>
       </c>
-      <c r="K172" s="4">
-        <v>1</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>234</v>
+      <c r="L172" s="4">
+        <v>1</v>
       </c>
       <c r="N172" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="P172" s="4" t="s">
         <v>264</v>
       </c>
       <c r="Q172" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="S172" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
@@ -8361,43 +8684,43 @@
         <v>186</v>
       </c>
       <c r="F173" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G173" s="4">
         <v>1</v>
       </c>
       <c r="H173" s="4">
+        <v>1</v>
+      </c>
+      <c r="I173" s="4">
         <v>4</v>
       </c>
-      <c r="I173" s="4">
+      <c r="J173" s="4">
         <v>11</v>
       </c>
-      <c r="J173" s="4">
+      <c r="K173" s="4">
         <v>180</v>
       </c>
-      <c r="K173" s="4">
-        <v>1</v>
-      </c>
-      <c r="M173" s="4" t="s">
-        <v>234</v>
+      <c r="L173" s="4">
+        <v>1</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="P173" s="4" t="s">
         <v>264</v>
       </c>
       <c r="Q173" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="R173" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S173" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
@@ -8417,40 +8740,40 @@
         <v>186</v>
       </c>
       <c r="F174" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G174" s="4">
         <v>1</v>
       </c>
       <c r="H174" s="4">
+        <v>1</v>
+      </c>
+      <c r="I174" s="4">
         <v>4</v>
       </c>
-      <c r="I174" s="4">
+      <c r="J174" s="4">
         <v>12</v>
       </c>
-      <c r="J174" s="4">
+      <c r="K174" s="4">
         <v>180</v>
       </c>
-      <c r="K174" s="4">
-        <v>1</v>
-      </c>
-      <c r="M174" s="4" t="s">
-        <v>234</v>
+      <c r="L174" s="4">
+        <v>1</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="P174" s="4" t="s">
         <v>264</v>
       </c>
       <c r="Q174" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="S174" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
@@ -8470,34 +8793,37 @@
         <v>187</v>
       </c>
       <c r="F175" s="4">
+        <v>3</v>
+      </c>
+      <c r="G175" s="4">
         <v>0</v>
       </c>
-      <c r="H175" s="4">
+      <c r="I175" s="4">
         <v>4</v>
       </c>
-      <c r="I175" s="4">
+      <c r="J175" s="4">
         <v>13</v>
       </c>
-      <c r="J175" s="4">
+      <c r="K175" s="4">
         <v>180</v>
       </c>
-      <c r="K175" s="4">
+      <c r="L175" s="4">
         <v>1</v>
       </c>
       <c r="N175" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="P175" s="4" t="s">
         <v>264</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="S175" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
@@ -8505,6 +8831,7 @@
         <v>175</v>
       </c>
       <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -8523,40 +8850,40 @@
         <v>185</v>
       </c>
       <c r="F177" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G177" s="4">
         <v>1</v>
       </c>
       <c r="H177" s="4">
+        <v>1</v>
+      </c>
+      <c r="I177" s="4">
         <v>7</v>
       </c>
-      <c r="I177" s="4">
+      <c r="J177" s="4">
         <v>14</v>
       </c>
-      <c r="J177" s="4">
+      <c r="K177" s="4">
         <v>180</v>
       </c>
-      <c r="K177" s="4">
+      <c r="L177" s="4">
         <v>1.19</v>
       </c>
-      <c r="M177" s="4" t="s">
+      <c r="N177" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O177" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P177" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q177" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="S177" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N177" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O177" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="P177" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q177" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S177" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
@@ -8576,40 +8903,40 @@
         <v>185</v>
       </c>
       <c r="F178" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G178" s="4">
         <v>1</v>
       </c>
       <c r="H178" s="4">
+        <v>1</v>
+      </c>
+      <c r="I178" s="4">
         <v>7</v>
       </c>
-      <c r="I178" s="4">
+      <c r="J178" s="4">
         <v>15</v>
       </c>
-      <c r="J178" s="4">
+      <c r="K178" s="4">
         <v>180</v>
       </c>
-      <c r="K178" s="4">
+      <c r="L178" s="4">
         <v>1.19</v>
       </c>
-      <c r="M178" s="4" t="s">
+      <c r="N178" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O178" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P178" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q178" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="S178" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N178" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O178" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="P178" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q178" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S178" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
@@ -8629,40 +8956,40 @@
         <v>186</v>
       </c>
       <c r="F179" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G179" s="4">
         <v>1</v>
       </c>
       <c r="H179" s="4">
+        <v>1</v>
+      </c>
+      <c r="I179" s="4">
         <v>7</v>
       </c>
-      <c r="I179" s="4">
+      <c r="J179" s="4">
         <v>16</v>
       </c>
-      <c r="J179" s="4">
+      <c r="K179" s="4">
         <v>180</v>
       </c>
-      <c r="K179" s="4">
+      <c r="L179" s="4">
         <v>1.19</v>
       </c>
-      <c r="M179" s="4" t="s">
+      <c r="N179" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O179" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P179" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q179" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="S179" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N179" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O179" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="P179" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q179" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S179" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
@@ -8682,40 +9009,40 @@
         <v>186</v>
       </c>
       <c r="F180" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G180" s="4">
         <v>1</v>
       </c>
       <c r="H180" s="4">
+        <v>1</v>
+      </c>
+      <c r="I180" s="4">
         <v>7</v>
       </c>
-      <c r="I180" s="4">
+      <c r="J180" s="4">
         <v>17</v>
       </c>
-      <c r="J180" s="4">
+      <c r="K180" s="4">
         <v>180</v>
       </c>
-      <c r="K180" s="4">
+      <c r="L180" s="4">
         <v>1.19</v>
       </c>
-      <c r="M180" s="4" t="s">
+      <c r="N180" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O180" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P180" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q180" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="S180" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N180" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O180" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="P180" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q180" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S180" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
@@ -8735,34 +9062,37 @@
         <v>187</v>
       </c>
       <c r="F181" s="4">
+        <v>4</v>
+      </c>
+      <c r="G181" s="4">
         <v>0</v>
       </c>
-      <c r="H181" s="4">
+      <c r="I181" s="4">
         <v>7</v>
       </c>
-      <c r="I181" s="4">
+      <c r="J181" s="4">
         <v>18</v>
       </c>
-      <c r="J181" s="4">
+      <c r="K181" s="4">
         <v>180</v>
       </c>
-      <c r="K181" s="4">
+      <c r="L181" s="4">
         <v>1.19</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O181" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P181" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q181" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="P181" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q181" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="S181" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
@@ -8770,6 +9100,7 @@
         <v>181</v>
       </c>
       <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -8788,40 +9119,40 @@
         <v>185</v>
       </c>
       <c r="F183" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G183" s="4">
         <v>1</v>
       </c>
       <c r="H183" s="4">
+        <v>1</v>
+      </c>
+      <c r="I183" s="4">
         <v>3</v>
       </c>
-      <c r="I183" s="4">
+      <c r="J183" s="4">
         <v>4</v>
       </c>
-      <c r="J183" s="4">
+      <c r="K183" s="4">
         <v>180</v>
       </c>
-      <c r="K183" s="4">
-        <v>1</v>
-      </c>
-      <c r="M183" s="4" t="s">
+      <c r="L183" s="4">
+        <v>1</v>
+      </c>
+      <c r="N183" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O183" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P183" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="S183" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N183" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O183" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P183" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q183" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S183" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
@@ -8841,40 +9172,40 @@
         <v>185</v>
       </c>
       <c r="F184" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G184" s="4">
         <v>1</v>
       </c>
       <c r="H184" s="4">
+        <v>1</v>
+      </c>
+      <c r="I184" s="4">
         <v>3</v>
       </c>
-      <c r="I184" s="4">
+      <c r="J184" s="4">
         <v>5</v>
       </c>
-      <c r="J184" s="4">
+      <c r="K184" s="4">
         <v>180</v>
       </c>
-      <c r="K184" s="4">
-        <v>1</v>
-      </c>
-      <c r="M184" s="4" t="s">
+      <c r="L184" s="4">
+        <v>1</v>
+      </c>
+      <c r="N184" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O184" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P184" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q184" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="S184" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N184" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O184" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P184" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q184" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S184" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
@@ -8894,40 +9225,40 @@
         <v>186</v>
       </c>
       <c r="F185" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G185" s="4">
         <v>1</v>
       </c>
       <c r="H185" s="4">
+        <v>1</v>
+      </c>
+      <c r="I185" s="4">
         <v>3</v>
       </c>
-      <c r="I185" s="4">
+      <c r="J185" s="4">
         <v>6</v>
       </c>
-      <c r="J185" s="4">
+      <c r="K185" s="4">
         <v>180</v>
       </c>
-      <c r="K185" s="4">
-        <v>1</v>
-      </c>
-      <c r="M185" s="4" t="s">
+      <c r="L185" s="4">
+        <v>1</v>
+      </c>
+      <c r="N185" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O185" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P185" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="S185" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N185" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O185" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P185" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q185" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S185" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
@@ -8947,40 +9278,40 @@
         <v>186</v>
       </c>
       <c r="F186" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G186" s="4">
         <v>1</v>
       </c>
       <c r="H186" s="4">
+        <v>1</v>
+      </c>
+      <c r="I186" s="4">
         <v>3</v>
       </c>
-      <c r="I186" s="4">
+      <c r="J186" s="4">
         <v>7</v>
       </c>
-      <c r="J186" s="4">
+      <c r="K186" s="4">
         <v>180</v>
       </c>
-      <c r="K186" s="4">
-        <v>1</v>
-      </c>
-      <c r="M186" s="4" t="s">
+      <c r="L186" s="4">
+        <v>1</v>
+      </c>
+      <c r="N186" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O186" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P186" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="S186" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N186" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O186" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="P186" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q186" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S186" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
@@ -9000,34 +9331,37 @@
         <v>187</v>
       </c>
       <c r="F187" s="4">
+        <v>5</v>
+      </c>
+      <c r="G187" s="4">
         <v>0</v>
       </c>
-      <c r="H187" s="4">
+      <c r="I187" s="4">
         <v>3</v>
       </c>
-      <c r="I187" s="4">
+      <c r="J187" s="4">
         <v>8</v>
       </c>
-      <c r="J187" s="4">
+      <c r="K187" s="4">
         <v>180</v>
       </c>
-      <c r="K187" s="4">
+      <c r="L187" s="4">
         <v>1</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q187" s="4" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="S187" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
@@ -9035,6 +9369,7 @@
         <v>187</v>
       </c>
       <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
@@ -9059,34 +9394,34 @@
         <v>1</v>
       </c>
       <c r="H189" s="4">
+        <v>1</v>
+      </c>
+      <c r="I189" s="4">
         <v>4</v>
       </c>
-      <c r="I189" s="4">
+      <c r="J189" s="4">
         <v>11</v>
       </c>
-      <c r="J189" s="4">
+      <c r="K189" s="4">
         <v>180</v>
       </c>
-      <c r="K189" s="4">
-        <v>1</v>
-      </c>
-      <c r="M189" s="4" t="s">
+      <c r="L189" s="4">
+        <v>1</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O189" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P189" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q189" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S189" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N189" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O189" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P189" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q189" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S189" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
@@ -9112,34 +9447,34 @@
         <v>1</v>
       </c>
       <c r="H190" s="4">
+        <v>1</v>
+      </c>
+      <c r="I190" s="4">
         <v>4</v>
       </c>
-      <c r="I190" s="4">
+      <c r="J190" s="4">
         <v>12</v>
       </c>
-      <c r="J190" s="4">
+      <c r="K190" s="4">
         <v>180</v>
       </c>
-      <c r="K190" s="4">
-        <v>1</v>
-      </c>
-      <c r="M190" s="4" t="s">
+      <c r="L190" s="4">
+        <v>1</v>
+      </c>
+      <c r="N190" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O190" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P190" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q190" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S190" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N190" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O190" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P190" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q190" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S190" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
@@ -9165,34 +9500,34 @@
         <v>1</v>
       </c>
       <c r="H191" s="4">
+        <v>1</v>
+      </c>
+      <c r="I191" s="4">
         <v>4</v>
       </c>
-      <c r="I191" s="4">
+      <c r="J191" s="4">
         <v>13</v>
       </c>
-      <c r="J191" s="4">
+      <c r="K191" s="4">
         <v>180</v>
       </c>
-      <c r="K191" s="4">
-        <v>1</v>
-      </c>
-      <c r="M191" s="4" t="s">
+      <c r="L191" s="4">
+        <v>1</v>
+      </c>
+      <c r="N191" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O191" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P191" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q191" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S191" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N191" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O191" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P191" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q191" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S191" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
@@ -9211,41 +9546,41 @@
       <c r="E192" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F192" s="24">
+      <c r="F192" s="4">
+        <v>1</v>
+      </c>
+      <c r="G192" s="24">
         <v>0</v>
       </c>
-      <c r="G192" s="4">
-        <v>1</v>
-      </c>
       <c r="H192" s="4">
+        <v>1</v>
+      </c>
+      <c r="I192" s="4">
         <v>4</v>
       </c>
-      <c r="I192" s="4">
+      <c r="J192" s="4">
         <v>14</v>
       </c>
-      <c r="J192" s="4">
+      <c r="K192" s="4">
         <v>180</v>
       </c>
-      <c r="K192" s="4">
-        <v>1</v>
-      </c>
-      <c r="M192" s="4" t="s">
+      <c r="L192" s="4">
+        <v>1</v>
+      </c>
+      <c r="N192" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O192" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P192" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q192" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S192" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N192" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O192" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P192" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q192" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S192" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
@@ -9265,34 +9600,37 @@
         <v>187</v>
       </c>
       <c r="F193" s="4">
+        <v>1</v>
+      </c>
+      <c r="G193" s="4">
         <v>0</v>
       </c>
-      <c r="H193" s="4">
+      <c r="I193" s="4">
         <v>4</v>
       </c>
-      <c r="I193" s="4">
+      <c r="J193" s="4">
         <v>15</v>
       </c>
-      <c r="J193" s="4">
+      <c r="K193" s="4">
         <v>180</v>
       </c>
-      <c r="K193" s="4">
+      <c r="L193" s="4">
         <v>1</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="S193" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
@@ -9300,6 +9638,7 @@
         <v>193</v>
       </c>
       <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
@@ -9318,40 +9657,40 @@
         <v>185</v>
       </c>
       <c r="F195" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G195" s="4">
         <v>1</v>
       </c>
       <c r="H195" s="4">
+        <v>1</v>
+      </c>
+      <c r="I195" s="4">
         <v>2</v>
       </c>
-      <c r="I195" s="4">
-        <v>1</v>
-      </c>
       <c r="J195" s="4">
+        <v>1</v>
+      </c>
+      <c r="K195" s="4">
         <v>200</v>
       </c>
-      <c r="K195" s="4">
-        <v>1</v>
-      </c>
-      <c r="M195" s="4" t="s">
+      <c r="L195" s="4">
+        <v>1</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O195" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P195" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q195" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="S195" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N195" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O195" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="P195" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q195" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S195" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
@@ -9371,40 +9710,40 @@
         <v>185</v>
       </c>
       <c r="F196" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196" s="4">
         <v>1</v>
       </c>
       <c r="H196" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" s="4">
         <v>2</v>
       </c>
       <c r="J196" s="4">
+        <v>2</v>
+      </c>
+      <c r="K196" s="4">
         <v>200</v>
       </c>
-      <c r="K196" s="4">
-        <v>1</v>
-      </c>
-      <c r="M196" s="4" t="s">
+      <c r="L196" s="4">
+        <v>1</v>
+      </c>
+      <c r="N196" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O196" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P196" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q196" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="S196" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N196" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O196" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="P196" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q196" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S196" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -9424,40 +9763,40 @@
         <v>186</v>
       </c>
       <c r="F197" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G197" s="4">
         <v>1</v>
       </c>
       <c r="H197" s="4">
+        <v>1</v>
+      </c>
+      <c r="I197" s="4">
         <v>2</v>
       </c>
-      <c r="I197" s="4">
+      <c r="J197" s="4">
         <v>3</v>
       </c>
-      <c r="J197" s="4">
+      <c r="K197" s="4">
         <v>200</v>
       </c>
-      <c r="K197" s="4">
-        <v>1</v>
-      </c>
-      <c r="M197" s="4" t="s">
+      <c r="L197" s="4">
+        <v>1</v>
+      </c>
+      <c r="N197" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O197" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P197" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q197" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="S197" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N197" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O197" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="P197" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q197" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S197" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
@@ -9477,40 +9816,40 @@
         <v>186</v>
       </c>
       <c r="F198" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G198" s="4">
         <v>1</v>
       </c>
       <c r="H198" s="4">
+        <v>1</v>
+      </c>
+      <c r="I198" s="4">
         <v>2</v>
       </c>
-      <c r="I198" s="4">
+      <c r="J198" s="4">
         <v>4</v>
       </c>
-      <c r="J198" s="4">
+      <c r="K198" s="4">
         <v>200</v>
       </c>
-      <c r="K198" s="4">
-        <v>1</v>
-      </c>
-      <c r="M198" s="4" t="s">
+      <c r="L198" s="4">
+        <v>1</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O198" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P198" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q198" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="S198" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N198" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O198" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="P198" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q198" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S198" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
@@ -9530,34 +9869,37 @@
         <v>187</v>
       </c>
       <c r="F199" s="4">
+        <v>2</v>
+      </c>
+      <c r="G199" s="4">
         <v>0</v>
       </c>
-      <c r="H199" s="4">
+      <c r="I199" s="4">
         <v>2</v>
       </c>
-      <c r="I199" s="4">
+      <c r="J199" s="4">
         <v>5</v>
       </c>
-      <c r="J199" s="4">
+      <c r="K199" s="4">
         <v>200</v>
       </c>
-      <c r="K199" s="4">
+      <c r="L199" s="4">
         <v>1</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="S199" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
@@ -9565,6 +9907,7 @@
         <v>199</v>
       </c>
       <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -9583,40 +9926,40 @@
         <v>185</v>
       </c>
       <c r="F201" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G201" s="4">
         <v>1</v>
       </c>
       <c r="H201" s="4">
+        <v>1</v>
+      </c>
+      <c r="I201" s="4">
         <v>6</v>
       </c>
-      <c r="I201" s="4">
+      <c r="J201" s="4">
         <v>16</v>
       </c>
-      <c r="J201" s="4">
+      <c r="K201" s="4">
         <v>200</v>
       </c>
-      <c r="K201" s="4">
+      <c r="L201" s="4">
         <v>1.19</v>
       </c>
-      <c r="L201" s="2" t="s">
+      <c r="M201" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M201" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N201" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O201" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P201" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="O201" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P201" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="Q201" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -9636,40 +9979,40 @@
         <v>185</v>
       </c>
       <c r="F202" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G202" s="4">
         <v>1</v>
       </c>
       <c r="H202" s="4">
+        <v>1</v>
+      </c>
+      <c r="I202" s="4">
         <v>6</v>
       </c>
-      <c r="I202" s="4">
+      <c r="J202" s="4">
         <v>17</v>
       </c>
-      <c r="J202" s="4">
+      <c r="K202" s="4">
         <v>200</v>
       </c>
-      <c r="K202" s="4">
+      <c r="L202" s="4">
         <v>1.19</v>
       </c>
-      <c r="L202" s="2" t="s">
+      <c r="M202" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M202" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N202" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O202" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P202" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="O202" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P202" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="Q202" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -9689,37 +10032,37 @@
         <v>186</v>
       </c>
       <c r="F203" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G203" s="4">
         <v>1</v>
       </c>
       <c r="H203" s="4">
+        <v>1</v>
+      </c>
+      <c r="I203" s="4">
         <v>6</v>
       </c>
-      <c r="I203" s="4">
+      <c r="J203" s="4">
         <v>18</v>
       </c>
-      <c r="J203" s="4">
+      <c r="K203" s="4">
         <v>200</v>
       </c>
-      <c r="K203" s="4">
+      <c r="L203" s="4">
         <v>1.19</v>
       </c>
-      <c r="M203" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N203" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O203" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P203" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="O203" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P203" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="Q203" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -9739,37 +10082,37 @@
         <v>186</v>
       </c>
       <c r="F204" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G204" s="4">
         <v>1</v>
       </c>
       <c r="H204" s="4">
+        <v>1</v>
+      </c>
+      <c r="I204" s="4">
         <v>6</v>
       </c>
-      <c r="I204" s="4">
+      <c r="J204" s="4">
         <v>19</v>
       </c>
-      <c r="J204" s="4">
+      <c r="K204" s="4">
         <v>200</v>
       </c>
-      <c r="K204" s="4">
+      <c r="L204" s="4">
         <v>1.19</v>
       </c>
-      <c r="M204" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N204" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O204" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P204" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="O204" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P204" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="Q204" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -9789,31 +10132,34 @@
         <v>187</v>
       </c>
       <c r="F205" s="4">
+        <v>3</v>
+      </c>
+      <c r="G205" s="4">
         <v>0</v>
       </c>
-      <c r="H205" s="4">
+      <c r="I205" s="4">
         <v>6</v>
       </c>
-      <c r="I205" s="4">
+      <c r="J205" s="4">
         <v>20</v>
       </c>
-      <c r="J205" s="4">
+      <c r="K205" s="4">
         <v>200</v>
       </c>
-      <c r="K205" s="4">
+      <c r="L205" s="4">
         <v>1.19</v>
       </c>
       <c r="N205" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O205" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P205" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="O205" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P205" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="Q205" s="4" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -9821,6 +10167,7 @@
         <v>205</v>
       </c>
       <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
@@ -9839,37 +10186,37 @@
         <v>185</v>
       </c>
       <c r="F207" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G207" s="4">
         <v>1</v>
       </c>
       <c r="H207" s="4">
+        <v>1</v>
+      </c>
+      <c r="I207" s="4">
         <v>3</v>
       </c>
-      <c r="I207" s="4">
+      <c r="J207" s="4">
         <v>6</v>
       </c>
-      <c r="J207" s="4">
+      <c r="K207" s="4">
         <v>200</v>
       </c>
-      <c r="M207" s="4" t="s">
+      <c r="N207" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O207" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P207" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q207" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S207" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O207" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P207" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q207" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S207" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T207" s="4">
         <v>1</v>
@@ -9892,37 +10239,37 @@
         <v>185</v>
       </c>
       <c r="F208" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G208" s="4">
         <v>1</v>
       </c>
       <c r="H208" s="4">
+        <v>1</v>
+      </c>
+      <c r="I208" s="4">
         <v>3</v>
       </c>
-      <c r="I208" s="4">
+      <c r="J208" s="4">
         <v>7</v>
       </c>
-      <c r="J208" s="4">
+      <c r="K208" s="4">
         <v>200</v>
       </c>
-      <c r="M208" s="4" t="s">
+      <c r="N208" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O208" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P208" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q208" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S208" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N208" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O208" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P208" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q208" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S208" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="T208" s="4">
         <v>1</v>
@@ -9945,37 +10292,37 @@
         <v>186</v>
       </c>
       <c r="F209" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G209" s="4">
         <v>1</v>
       </c>
       <c r="H209" s="4">
+        <v>1</v>
+      </c>
+      <c r="I209" s="4">
         <v>3</v>
       </c>
-      <c r="I209" s="4">
+      <c r="J209" s="4">
         <v>8</v>
       </c>
-      <c r="J209" s="4">
+      <c r="K209" s="4">
         <v>200</v>
       </c>
-      <c r="M209" s="4" t="s">
+      <c r="N209" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O209" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P209" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q209" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S209" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N209" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O209" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P209" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q209" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S209" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
@@ -9995,37 +10342,37 @@
         <v>186</v>
       </c>
       <c r="F210" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G210" s="4">
         <v>1</v>
       </c>
       <c r="H210" s="4">
+        <v>1</v>
+      </c>
+      <c r="I210" s="4">
         <v>3</v>
       </c>
-      <c r="I210" s="4">
+      <c r="J210" s="4">
         <v>9</v>
       </c>
-      <c r="J210" s="4">
+      <c r="K210" s="4">
         <v>200</v>
       </c>
-      <c r="M210" s="4" t="s">
+      <c r="N210" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O210" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P210" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q210" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S210" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="N210" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O210" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P210" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q210" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S210" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
@@ -10045,31 +10392,34 @@
         <v>187</v>
       </c>
       <c r="F211" s="4">
+        <v>4</v>
+      </c>
+      <c r="G211" s="4">
         <v>0</v>
       </c>
-      <c r="H211" s="4">
+      <c r="I211" s="4">
         <v>3</v>
       </c>
-      <c r="I211" s="4">
+      <c r="J211" s="4">
         <v>10</v>
       </c>
-      <c r="J211" s="4">
+      <c r="K211" s="4">
         <v>200</v>
       </c>
       <c r="N211" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O211" s="4" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="P211" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q211" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S211" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/AC_data_list.xlsx
+++ b/AC_data_list.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$211</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$212</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="328">
   <si>
     <t>experiment</t>
   </si>
@@ -581,9 +581,6 @@
     <t>AAF</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>ammn</t>
   </si>
   <si>
@@ -983,21 +980,6 @@
     <t>mo_co_check</t>
   </si>
   <si>
-    <t>A2_ammn1_3_27_21</t>
-  </si>
-  <si>
-    <t>A2_ammn2_3_27_21</t>
-  </si>
-  <si>
-    <t>A2_ammn3_abl1_3_27_21</t>
-  </si>
-  <si>
-    <t>A2_ammn3_abl2_3_27_21</t>
-  </si>
-  <si>
-    <t>3_27_21</t>
-  </si>
-  <si>
     <t>mpl</t>
   </si>
   <si>
@@ -1007,57 +989,15 @@
     <t>abl</t>
   </si>
   <si>
-    <t>A2ish, down close to Df.. Probably similar in other A2</t>
-  </si>
-  <si>
-    <t>DF_ammn1_5plt_2plx_10_14_19</t>
-  </si>
-  <si>
-    <t>DF_ammn2_5plt_2plx_10_14_19</t>
-  </si>
-  <si>
-    <t>10_14_19</t>
-  </si>
-  <si>
     <t>obj</t>
   </si>
   <si>
-    <t>25x</t>
-  </si>
-  <si>
     <t>20x</t>
   </si>
   <si>
-    <t>AC_ammn1_5plt_1plx_1_30_21</t>
-  </si>
-  <si>
-    <t>1_30_21</t>
-  </si>
-  <si>
-    <t>AC_ammn2_5plt_1plx_1_30_21</t>
-  </si>
-  <si>
-    <t>25x?</t>
-  </si>
-  <si>
-    <t>Injeted mice during craniotomy with ChroME</t>
-  </si>
-  <si>
     <t>num_cells</t>
   </si>
   <si>
-    <t>A1_ammn1_12_27_20</t>
-  </si>
-  <si>
-    <t>A1_ammn2_12_27_20</t>
-  </si>
-  <si>
-    <t>12_27_20</t>
-  </si>
-  <si>
-    <t>recordings only half length for some reason, old script maybe</t>
-  </si>
-  <si>
     <t>cam_um/pix</t>
   </si>
   <si>
@@ -1068,6 +1008,9 @@
   </si>
   <si>
     <t>align</t>
+  </si>
+  <si>
+    <t>UF</t>
   </si>
 </sst>
 </file>
@@ -1502,13 +1445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE226"/>
+  <dimension ref="A1:AE212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="12795" ySplit="495" topLeftCell="A193" activePane="bottomLeft"/>
+      <pane xSplit="12795" ySplit="495" topLeftCell="A160" activePane="bottomLeft"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="L210" sqref="L210"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33:D211"/>
       <selection pane="bottomRight" activeCell="S218" sqref="S218"/>
     </sheetView>
   </sheetViews>
@@ -1554,79 +1497,79 @@
         <v>0</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="P1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>1</v>
@@ -1652,7 +1595,7 @@
         <v>181</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1664,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4">
@@ -1692,19 +1635,19 @@
         <v>13</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W2" s="4">
         <v>12.852</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA2" s="7"/>
     </row>
@@ -1722,7 +1665,7 @@
         <v>181</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1734,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
@@ -1762,19 +1705,19 @@
         <v>14</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W3" s="4">
         <v>12.852</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA3" s="8"/>
     </row>
@@ -1792,7 +1735,7 @@
         <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1804,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
@@ -1832,19 +1775,19 @@
         <v>15</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W4" s="4">
         <v>12.852</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA4" s="8"/>
     </row>
@@ -1862,7 +1805,7 @@
         <v>181</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1874,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
@@ -1902,19 +1845,19 @@
         <v>16</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W5" s="4">
         <v>12.852</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA5" s="7"/>
     </row>
@@ -1943,7 +1886,7 @@
         <v>181</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1955,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
@@ -1983,19 +1926,19 @@
         <v>17</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W7" s="4">
         <v>12.852</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA7" s="7"/>
     </row>
@@ -2013,7 +1956,7 @@
         <v>181</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -2025,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4">
@@ -2053,19 +1996,19 @@
         <v>18</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W8" s="4">
         <v>12.852</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA8" s="7"/>
     </row>
@@ -2083,7 +2026,7 @@
         <v>181</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -2095,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
@@ -2123,19 +2066,19 @@
         <v>13</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W9" s="4">
         <v>12.852</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z9" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA9" s="7"/>
     </row>
@@ -2153,7 +2096,7 @@
         <v>181</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -2165,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
@@ -2193,19 +2136,19 @@
         <v>13</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W10" s="4">
         <v>12.852</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y10" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="AA10" s="7"/>
     </row>
@@ -2234,7 +2177,7 @@
         <v>182</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -2246,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4">
@@ -2274,16 +2217,16 @@
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W12" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W12" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA12" s="9"/>
     </row>
@@ -2301,7 +2244,7 @@
         <v>182</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -2313,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4">
@@ -2339,16 +2282,16 @@
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W13" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W13" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA13" s="7"/>
     </row>
@@ -2366,7 +2309,7 @@
         <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -2378,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
@@ -2406,16 +2349,16 @@
         <v>20</v>
       </c>
       <c r="V14" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W14" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z14" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W14" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA14" s="7"/>
     </row>
@@ -2433,7 +2376,7 @@
         <v>182</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -2445,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4">
@@ -2473,16 +2416,16 @@
         <v>21</v>
       </c>
       <c r="V15" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W15" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z15" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W15" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA15" s="19"/>
     </row>
@@ -2500,7 +2443,7 @@
         <v>182</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -2512,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4">
@@ -2540,16 +2483,16 @@
         <v>21</v>
       </c>
       <c r="V16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W16" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z16" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W16" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA16" s="19"/>
     </row>
@@ -2578,7 +2521,7 @@
         <v>182</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -2590,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4">
@@ -2616,16 +2559,16 @@
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W18" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z18" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W18" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA18" s="10"/>
     </row>
@@ -2643,7 +2586,7 @@
         <v>182</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -2655,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4">
@@ -2683,16 +2626,16 @@
         <v>26</v>
       </c>
       <c r="V19" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W19" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z19" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W19" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA19" s="10"/>
     </row>
@@ -2710,7 +2653,7 @@
         <v>182</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -2722,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4">
@@ -2748,16 +2691,16 @@
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W20" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z20" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W20" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA20" s="10"/>
     </row>
@@ -2775,7 +2718,7 @@
         <v>182</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -2787,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
@@ -2815,16 +2758,16 @@
         <v>27</v>
       </c>
       <c r="V21" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="W21" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z21" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="W21" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="AA21" s="11"/>
     </row>
@@ -2855,7 +2798,7 @@
         <v>183</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -2867,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4">
@@ -2895,19 +2838,19 @@
         <v>49</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W23" s="4">
         <v>12.852</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA23" s="10"/>
     </row>
@@ -2925,7 +2868,7 @@
         <v>183</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2937,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4">
@@ -2965,19 +2908,19 @@
         <v>49</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W24" s="4">
         <v>12.852</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA24" s="10"/>
     </row>
@@ -2995,7 +2938,7 @@
         <v>183</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="24">
         <v>0</v>
@@ -3007,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4">
@@ -3030,19 +2973,19 @@
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W25" s="4">
         <v>12.852</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA25" s="10"/>
     </row>
@@ -3060,7 +3003,7 @@
         <v>183</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="24">
         <v>0</v>
@@ -3072,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4">
@@ -3095,19 +3038,19 @@
       </c>
       <c r="U26" s="10"/>
       <c r="V26" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W26" s="4">
         <v>12.852</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA26" s="10"/>
     </row>
@@ -3140,7 +3083,7 @@
         <v>183</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -3152,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4">
@@ -3178,19 +3121,19 @@
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W28" s="4">
         <v>12.852</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA28" s="10"/>
     </row>
@@ -3208,7 +3151,7 @@
         <v>183</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -3220,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4">
@@ -3246,19 +3189,19 @@
       </c>
       <c r="U29" s="10"/>
       <c r="V29" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W29" s="4">
         <v>12.852</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA29" s="10"/>
     </row>
@@ -3276,7 +3219,7 @@
         <v>183</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -3288,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4">
@@ -3313,19 +3256,19 @@
         <v>50</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W30" s="4">
         <v>12.852</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y30" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA30" s="11"/>
     </row>
@@ -3343,7 +3286,7 @@
         <v>183</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -3355,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4">
@@ -3377,19 +3320,19 @@
         <v>637</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W31" s="4">
         <v>12.852</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -3416,10 +3359,10 @@
         <v>51</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -3431,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4">
@@ -3465,10 +3408,10 @@
         <v>52</v>
       </c>
       <c r="D34" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -3480,7 +3423,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4">
@@ -3514,10 +3457,10 @@
         <v>53</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -3529,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4">
@@ -3563,10 +3506,10 @@
         <v>54</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -3578,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4">
@@ -3625,10 +3568,10 @@
         <v>55</v>
       </c>
       <c r="D38" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -3640,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4">
@@ -3670,10 +3613,10 @@
         <v>56</v>
       </c>
       <c r="D39" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -3685,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4">
@@ -3715,10 +3658,10 @@
         <v>57</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -3730,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4">
@@ -3760,10 +3703,10 @@
         <v>58</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>184</v>
+        <v>327</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -3775,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4">
@@ -3815,14 +3758,14 @@
         <v>61</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F43" s="4">
         <v>1</v>
       </c>
@@ -3833,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4">
@@ -3858,19 +3801,19 @@
         <v>637</v>
       </c>
       <c r="V43" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W43" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y43" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W43" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X43" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y43" s="4" t="s">
+      <c r="Z43" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z43" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
@@ -3881,14 +3824,14 @@
         <v>61</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
@@ -3899,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4">
@@ -3924,19 +3867,19 @@
         <v>637</v>
       </c>
       <c r="V44" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W44" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y44" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W44" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X44" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y44" s="4" t="s">
+      <c r="Z44" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z44" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -3947,13 +3890,13 @@
         <v>61</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -3965,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4">
@@ -3990,19 +3933,19 @@
         <v>637</v>
       </c>
       <c r="V45" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W45" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y45" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W45" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X45" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Z45" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z45" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -4013,13 +3956,13 @@
         <v>61</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -4031,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4">
@@ -4056,19 +3999,19 @@
         <v>637</v>
       </c>
       <c r="V46" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W46" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y46" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W46" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X46" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y46" s="4" t="s">
+      <c r="Z46" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
@@ -4093,13 +4036,13 @@
         <v>61</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
@@ -4111,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4">
@@ -4136,19 +4079,19 @@
         <v>637</v>
       </c>
       <c r="V48" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W48" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y48" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W48" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X48" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y48" s="4" t="s">
+      <c r="Z48" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z48" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
@@ -4159,13 +4102,13 @@
         <v>61</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -4177,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4">
@@ -4202,19 +4145,19 @@
         <v>637</v>
       </c>
       <c r="V49" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W49" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y49" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W49" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X49" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y49" s="4" t="s">
+      <c r="Z49" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z49" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
@@ -4225,13 +4168,13 @@
         <v>61</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
@@ -4243,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4">
@@ -4268,19 +4211,19 @@
         <v>637</v>
       </c>
       <c r="V50" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W50" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y50" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W50" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X50" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y50" s="4" t="s">
+      <c r="Z50" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z50" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
@@ -4291,13 +4234,13 @@
         <v>61</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>184</v>
+        <v>194</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F51" s="4">
         <v>0</v>
@@ -4309,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4">
@@ -4334,19 +4277,19 @@
         <v>637</v>
       </c>
       <c r="V51" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="W51" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y51" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="W51" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X51" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y51" s="4" t="s">
+      <c r="Z51" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="Z51" s="4" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
@@ -4376,7 +4319,7 @@
         <v>182</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -4388,7 +4331,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4">
@@ -4416,16 +4359,16 @@
         <v>13</v>
       </c>
       <c r="V53" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W53" s="4">
         <v>12.852</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA53" s="2"/>
     </row>
@@ -4443,7 +4386,7 @@
         <v>182</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -4455,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4">
@@ -4486,16 +4429,16 @@
         <v>13</v>
       </c>
       <c r="V54" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W54" s="4">
         <v>12.852</v>
       </c>
       <c r="X54" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA54" s="2"/>
     </row>
@@ -4513,7 +4456,7 @@
         <v>182</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -4525,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4">
@@ -4556,16 +4499,16 @@
         <v>13</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W55" s="4">
         <v>12.852</v>
       </c>
       <c r="X55" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA55" s="2"/>
     </row>
@@ -4583,7 +4526,7 @@
         <v>182</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -4595,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4">
@@ -4624,16 +4567,16 @@
       <c r="T56" s="10"/>
       <c r="U56" s="2"/>
       <c r="V56" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W56" s="4">
         <v>12.852</v>
       </c>
       <c r="X56" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA56" s="2"/>
     </row>
@@ -4666,7 +4609,7 @@
         <v>182</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F58" s="4">
         <v>0</v>
@@ -4678,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4">
@@ -4709,16 +4652,16 @@
         <v>94</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W58" s="4">
         <v>12.852</v>
       </c>
       <c r="X58" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA58" s="2"/>
     </row>
@@ -4736,7 +4679,7 @@
         <v>182</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -4748,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4">
@@ -4779,16 +4722,16 @@
         <v>95</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W59" s="4">
         <v>12.852</v>
       </c>
       <c r="X59" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA59" s="2"/>
     </row>
@@ -4806,7 +4749,7 @@
         <v>182</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F60" s="4">
         <v>0</v>
@@ -4818,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4">
@@ -4846,19 +4789,19 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W60" s="4">
         <v>12.852</v>
       </c>
       <c r="X60" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA60" s="2"/>
     </row>
@@ -4876,7 +4819,7 @@
         <v>182</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F61" s="4">
         <v>0</v>
@@ -4888,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4">
@@ -4914,16 +4857,16 @@
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W61" s="4">
         <v>12.852</v>
       </c>
       <c r="X61" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z61" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA61" s="2"/>
     </row>
@@ -4954,7 +4897,7 @@
         <v>181</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -4966,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4">
@@ -4992,16 +4935,16 @@
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W63" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z63" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W63" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X63" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z63" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA63" s="2"/>
     </row>
@@ -5019,7 +4962,7 @@
         <v>181</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -5031,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4">
@@ -5057,16 +5000,16 @@
       </c>
       <c r="U64" s="2"/>
       <c r="V64" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W64" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X64" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z64" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W64" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X64" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z64" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA64" s="2"/>
     </row>
@@ -5084,7 +5027,7 @@
         <v>181</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -5096,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4">
@@ -5124,16 +5067,16 @@
         <v>89</v>
       </c>
       <c r="V65" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W65" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z65" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W65" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X65" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z65" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA65" s="2"/>
     </row>
@@ -5151,7 +5094,7 @@
         <v>181</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -5163,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4">
@@ -5189,16 +5132,16 @@
       </c>
       <c r="U66" s="2"/>
       <c r="V66" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W66" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z66" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W66" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X66" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z66" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA66" s="2"/>
     </row>
@@ -5231,7 +5174,7 @@
         <v>181</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -5243,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4">
@@ -5271,16 +5214,16 @@
         <v>90</v>
       </c>
       <c r="V68" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W68" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X68" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z68" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W68" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X68" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z68" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA68" s="3"/>
     </row>
@@ -5298,7 +5241,7 @@
         <v>181</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -5310,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4">
@@ -5338,16 +5281,16 @@
         <v>91</v>
       </c>
       <c r="V69" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W69" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X69" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z69" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W69" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X69" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z69" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA69" s="2"/>
     </row>
@@ -5365,7 +5308,7 @@
         <v>181</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" s="4">
         <v>0</v>
@@ -5377,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4">
@@ -5405,16 +5348,16 @@
         <v>92</v>
       </c>
       <c r="V70" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W70" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z70" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W70" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X70" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z70" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA70" s="3"/>
     </row>
@@ -5432,7 +5375,7 @@
         <v>181</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -5444,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4">
@@ -5472,16 +5415,16 @@
         <v>93</v>
       </c>
       <c r="V71" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="W71" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X71" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z71" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="W71" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X71" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="Z71" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AA71" s="2"/>
     </row>
@@ -5512,7 +5455,7 @@
         <v>183</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F73" s="4">
         <v>0</v>
@@ -5524,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4">
@@ -5549,16 +5492,16 @@
         <v>87</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W73" s="4">
         <v>12.852</v>
       </c>
       <c r="X73" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA73" s="2"/>
     </row>
@@ -5576,7 +5519,7 @@
         <v>183</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F74" s="4">
         <v>0</v>
@@ -5588,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4">
@@ -5613,16 +5556,16 @@
         <v>87</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W74" s="4">
         <v>12.852</v>
       </c>
       <c r="X74" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA74" s="2"/>
     </row>
@@ -5640,7 +5583,7 @@
         <v>183</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
@@ -5652,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4">
@@ -5675,16 +5618,16 @@
       </c>
       <c r="U75" s="2"/>
       <c r="V75" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W75" s="4">
         <v>12.852</v>
       </c>
       <c r="X75" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA75" s="2"/>
     </row>
@@ -5702,7 +5645,7 @@
         <v>183</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F76" s="4">
         <v>0</v>
@@ -5714,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4">
@@ -5737,16 +5680,16 @@
       </c>
       <c r="U76" s="2"/>
       <c r="V76" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W76" s="4">
         <v>12.852</v>
       </c>
       <c r="X76" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA76" s="2"/>
     </row>
@@ -5779,7 +5722,7 @@
         <v>183</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F78" s="4">
         <v>0</v>
@@ -5791,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4">
@@ -5816,16 +5759,16 @@
         <v>88</v>
       </c>
       <c r="V78" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W78" s="4">
         <v>12.852</v>
       </c>
       <c r="X78" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA78" s="2"/>
     </row>
@@ -5843,7 +5786,7 @@
         <v>183</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
@@ -5855,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4">
@@ -5880,16 +5823,16 @@
         <v>88</v>
       </c>
       <c r="V79" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W79" s="4">
         <v>12.852</v>
       </c>
       <c r="X79" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA79" s="2"/>
     </row>
@@ -5907,7 +5850,7 @@
         <v>183</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F80" s="4">
         <v>0</v>
@@ -5919,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4">
@@ -5941,16 +5884,16 @@
         <v>637</v>
       </c>
       <c r="V80" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W80" s="4">
         <v>12.852</v>
       </c>
       <c r="X80" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -5967,7 +5910,7 @@
         <v>183</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F81" s="4">
         <v>0</v>
@@ -5979,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4">
@@ -6001,16 +5944,16 @@
         <v>637</v>
       </c>
       <c r="V81" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W81" s="4">
         <v>12.852</v>
       </c>
       <c r="X81" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -6040,7 +5983,7 @@
         <v>181</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -6052,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4">
@@ -6077,16 +6020,16 @@
         <v>637</v>
       </c>
       <c r="V83" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W83" s="4">
         <v>12.852</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z83" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
@@ -6103,7 +6046,7 @@
         <v>181</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F84" s="4">
         <v>1</v>
@@ -6115,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4">
@@ -6140,16 +6083,16 @@
         <v>637</v>
       </c>
       <c r="V84" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W84" s="4">
         <v>12.852</v>
       </c>
       <c r="X84" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -6166,7 +6109,7 @@
         <v>181</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -6178,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4">
@@ -6203,16 +6146,16 @@
         <v>637</v>
       </c>
       <c r="V85" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W85" s="4">
         <v>12.852</v>
       </c>
       <c r="X85" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.25">
@@ -6229,7 +6172,7 @@
         <v>181</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F86" s="4">
         <v>1</v>
@@ -6241,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4">
@@ -6266,16 +6209,16 @@
         <v>637</v>
       </c>
       <c r="V86" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W86" s="4">
         <v>12.852</v>
       </c>
       <c r="X86" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.25">
@@ -6305,7 +6248,7 @@
         <v>181</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F88" s="4">
         <v>0</v>
@@ -6317,7 +6260,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4">
@@ -6342,16 +6285,16 @@
         <v>637</v>
       </c>
       <c r="V88" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W88" s="4">
         <v>12.852</v>
       </c>
       <c r="X88" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z88" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
@@ -6368,7 +6311,7 @@
         <v>181</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F89" s="4">
         <v>0</v>
@@ -6380,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4">
@@ -6405,16 +6348,16 @@
         <v>637</v>
       </c>
       <c r="V89" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W89" s="4">
         <v>12.852</v>
       </c>
       <c r="X89" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z89" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.25">
@@ -6431,7 +6374,7 @@
         <v>181</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
@@ -6443,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4">
@@ -6468,16 +6411,16 @@
         <v>637</v>
       </c>
       <c r="V90" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W90" s="4">
         <v>12.852</v>
       </c>
       <c r="X90" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
@@ -6494,7 +6437,7 @@
         <v>181</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -6506,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4">
@@ -6531,16 +6474,16 @@
         <v>637</v>
       </c>
       <c r="V91" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W91" s="4">
         <v>12.852</v>
       </c>
       <c r="X91" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -6564,13 +6507,13 @@
         <v>4</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
@@ -6582,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4">
@@ -6607,22 +6550,22 @@
         <v>637</v>
       </c>
       <c r="V93" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="W93" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X93" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y93" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="W93" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X93" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y93" s="4" t="s">
+      <c r="Z93" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="Z93" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="AB93" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC93" s="4">
         <v>1</v>
@@ -6636,13 +6579,13 @@
         <v>4</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F94" s="4">
         <v>1</v>
@@ -6654,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4">
@@ -6679,22 +6622,22 @@
         <v>637</v>
       </c>
       <c r="V94" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="W94" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y94" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="W94" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X94" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y94" s="4" t="s">
+      <c r="Z94" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="Z94" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="AB94" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC94" s="4">
         <v>1</v>
@@ -6708,13 +6651,13 @@
         <v>4</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
@@ -6726,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4">
@@ -6754,23 +6697,23 @@
         <v>104</v>
       </c>
       <c r="V95" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="W95" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X95" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y95" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="W95" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X95" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y95" s="4" t="s">
+      <c r="Z95" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="Z95" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="AA95" s="2"/>
       <c r="AB95" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -6781,13 +6724,13 @@
         <v>4</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F96" s="4">
         <v>1</v>
@@ -6799,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4">
@@ -6827,23 +6770,23 @@
         <v>105</v>
       </c>
       <c r="V96" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="W96" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X96" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y96" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="W96" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X96" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y96" s="4" t="s">
+      <c r="Z96" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="Z96" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="AA96" s="2"/>
       <c r="AB96" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
@@ -6854,13 +6797,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -6872,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4">
@@ -6894,22 +6837,22 @@
         <v>637</v>
       </c>
       <c r="V97" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="W97" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X97" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y97" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="W97" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X97" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y97" s="4" t="s">
+      <c r="Z97" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="Z97" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="AB97" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
@@ -6931,14 +6874,14 @@
         <v>4</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F99" s="4">
         <v>1</v>
       </c>
@@ -6949,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4">
@@ -6977,23 +6920,23 @@
         <v>106</v>
       </c>
       <c r="V99" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W99" s="4">
         <v>12.852</v>
       </c>
       <c r="X99" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y99" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z99" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="Z99" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="AA99" s="16"/>
       <c r="AB99" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC99" s="4">
         <v>1</v>
@@ -7007,14 +6950,14 @@
         <v>4</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D100" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F100" s="4">
         <v>1</v>
       </c>
@@ -7025,7 +6968,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4">
@@ -7050,22 +6993,22 @@
         <v>637</v>
       </c>
       <c r="V100" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W100" s="4">
         <v>12.852</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y100" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z100" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="Z100" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="AB100" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC100" s="4">
         <v>1</v>
@@ -7079,13 +7022,13 @@
         <v>4</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>184</v>
+        <v>206</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F101" s="4">
         <v>1</v>
@@ -7097,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4">
@@ -7122,22 +7065,22 @@
         <v>637</v>
       </c>
       <c r="V101" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W101" s="4">
         <v>12.852</v>
       </c>
       <c r="X101" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y101" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z101" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="Z101" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="AB101" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
@@ -7148,13 +7091,13 @@
         <v>4</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>184</v>
+        <v>207</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F102" s="4">
         <v>1</v>
@@ -7166,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4">
@@ -7191,22 +7134,22 @@
         <v>637</v>
       </c>
       <c r="V102" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W102" s="4">
         <v>12.852</v>
       </c>
       <c r="X102" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y102" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z102" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="Z102" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="AB102" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
@@ -7217,13 +7160,13 @@
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>184</v>
+        <v>208</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F103" s="4">
         <v>0</v>
@@ -7235,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4">
@@ -7257,22 +7200,22 @@
         <v>637</v>
       </c>
       <c r="V103" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W103" s="4">
         <v>12.852</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y103" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z103" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="Z103" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="AB103" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
@@ -7294,13 +7237,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F105" s="4">
         <v>0</v>
@@ -7312,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4">
@@ -7340,23 +7283,23 @@
         <v>107</v>
       </c>
       <c r="V105" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W105" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X105" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y105" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="W105" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X105" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y105" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="Z105" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA105" s="2"/>
       <c r="AB105" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
@@ -7367,13 +7310,13 @@
         <v>5</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
@@ -7385,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4">
@@ -7413,23 +7356,23 @@
         <v>107</v>
       </c>
       <c r="V106" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W106" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X106" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y106" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="W106" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X106" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y106" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="Z106" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA106" s="2"/>
       <c r="AB106" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
@@ -7452,13 +7395,13 @@
         <v>5</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F108" s="4">
         <v>0</v>
@@ -7470,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4">
@@ -7498,25 +7441,25 @@
         <v>109</v>
       </c>
       <c r="V108" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W108" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X108" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y108" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="W108" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X108" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y108" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="Z108" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA108" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AB108" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
@@ -7527,13 +7470,13 @@
         <v>5</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F109" s="4">
         <v>0</v>
@@ -7545,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4">
@@ -7573,22 +7516,22 @@
         <v>111</v>
       </c>
       <c r="V109" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W109" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X109" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y109" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="W109" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X109" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y109" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="Z109" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB109" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
@@ -7599,13 +7542,13 @@
         <v>5</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F110" s="4">
         <v>0</v>
@@ -7617,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4">
@@ -7645,22 +7588,22 @@
         <v>109</v>
       </c>
       <c r="V110" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W110" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X110" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y110" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="W110" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X110" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y110" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="Z110" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB110" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
@@ -7671,13 +7614,13 @@
         <v>5</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F111" s="4">
         <v>0</v>
@@ -7689,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4">
@@ -7717,22 +7660,22 @@
         <v>110</v>
       </c>
       <c r="V111" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="W111" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X111" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y111" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="W111" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X111" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y111" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="Z111" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB111" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
@@ -7760,7 +7703,7 @@
         <v>183</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -7772,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4">
@@ -7797,22 +7740,22 @@
         <v>637</v>
       </c>
       <c r="V113" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W113" s="4">
         <v>12.852</v>
       </c>
       <c r="X113" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y113" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z113" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB113" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC113" s="4">
         <v>1</v>
@@ -7832,7 +7775,7 @@
         <v>183</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F114" s="4">
         <v>1</v>
@@ -7844,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4">
@@ -7869,22 +7812,22 @@
         <v>637</v>
       </c>
       <c r="V114" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W114" s="4">
         <v>12.852</v>
       </c>
       <c r="X114" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y114" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z114" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB114" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC114" s="4">
         <v>1</v>
@@ -7904,7 +7847,7 @@
         <v>183</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
@@ -7916,7 +7859,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4">
@@ -7941,22 +7884,22 @@
         <v>637</v>
       </c>
       <c r="V115" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W115" s="4">
         <v>12.852</v>
       </c>
       <c r="X115" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y115" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z115" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB115" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.25">
@@ -7973,7 +7916,7 @@
         <v>183</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F116" s="4">
         <v>1</v>
@@ -7985,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4">
@@ -8010,22 +7953,22 @@
         <v>637</v>
       </c>
       <c r="V116" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W116" s="4">
         <v>12.852</v>
       </c>
       <c r="X116" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y116" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z116" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB116" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.25">
@@ -8042,7 +7985,7 @@
         <v>183</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F117" s="4">
         <v>0</v>
@@ -8054,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4">
@@ -8079,22 +8022,22 @@
         <v>112</v>
       </c>
       <c r="V117" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W117" s="4">
         <v>12.852</v>
       </c>
       <c r="X117" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y117" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z117" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB117" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
@@ -8118,12 +8061,12 @@
       <c r="C119" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F119" s="4">
         <v>1</v>
       </c>
@@ -8134,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4">
@@ -8159,19 +8102,19 @@
         <v>637</v>
       </c>
       <c r="V119" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W119" s="4">
         <v>12.852</v>
       </c>
       <c r="X119" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z119" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB119" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.25">
@@ -8184,12 +8127,12 @@
       <c r="C120" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F120" s="4">
         <v>1</v>
       </c>
@@ -8200,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4">
@@ -8225,19 +8168,19 @@
         <v>637</v>
       </c>
       <c r="V120" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W120" s="4">
         <v>12.852</v>
       </c>
       <c r="X120" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z120" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB120" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
@@ -8250,11 +8193,11 @@
       <c r="C121" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D121" s="18" t="s">
-        <v>184</v>
+      <c r="D121" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -8266,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="4">
@@ -8291,19 +8234,19 @@
         <v>637</v>
       </c>
       <c r="V121" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W121" s="4">
         <v>12.852</v>
       </c>
       <c r="X121" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z121" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB121" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
@@ -8316,11 +8259,11 @@
       <c r="C122" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D122" s="18" t="s">
-        <v>184</v>
+      <c r="D122" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F122" s="4">
         <v>1</v>
@@ -8332,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4">
@@ -8357,19 +8300,19 @@
         <v>637</v>
       </c>
       <c r="V122" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W122" s="4">
         <v>12.852</v>
       </c>
       <c r="X122" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z122" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB122" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
@@ -8382,11 +8325,11 @@
       <c r="C123" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D123" s="18" t="s">
-        <v>184</v>
+      <c r="D123" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F123" s="4">
         <v>0</v>
@@ -8398,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4">
@@ -8420,19 +8363,19 @@
         <v>637</v>
       </c>
       <c r="V123" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W123" s="4">
         <v>12.852</v>
       </c>
       <c r="X123" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z123" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB123" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
@@ -8460,7 +8403,7 @@
         <v>182</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -8472,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4">
@@ -8497,16 +8440,16 @@
         <v>637</v>
       </c>
       <c r="V125" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W125" s="4">
         <v>12.852</v>
       </c>
       <c r="X125" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z125" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
@@ -8523,7 +8466,7 @@
         <v>182</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F126" s="24">
         <v>0</v>
@@ -8535,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4">
@@ -8560,16 +8503,16 @@
         <v>637</v>
       </c>
       <c r="V126" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W126" s="4">
         <v>12.852</v>
       </c>
       <c r="X126" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z126" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
@@ -8586,7 +8529,7 @@
         <v>182</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -8598,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4">
@@ -8623,19 +8566,19 @@
         <v>637</v>
       </c>
       <c r="V127" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W127" s="4">
         <v>12.852</v>
       </c>
       <c r="X127" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z127" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB127" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
@@ -8652,7 +8595,7 @@
         <v>182</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F128" s="4">
         <v>1</v>
@@ -8664,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4">
@@ -8689,16 +8632,16 @@
         <v>637</v>
       </c>
       <c r="V128" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W128" s="4">
         <v>12.852</v>
       </c>
       <c r="X128" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z128" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
@@ -8715,7 +8658,7 @@
         <v>182</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F129" s="4">
         <v>0</v>
@@ -8727,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4">
@@ -8752,19 +8695,19 @@
         <v>116</v>
       </c>
       <c r="V129" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W129" s="4">
         <v>12.852</v>
       </c>
       <c r="X129" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z129" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB129" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
@@ -8792,7 +8735,7 @@
         <v>183</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
@@ -8804,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4">
@@ -8829,22 +8772,22 @@
         <v>637</v>
       </c>
       <c r="V131" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W131" s="4">
         <v>12.852</v>
       </c>
       <c r="X131" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y131" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z131" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB131" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC131" s="4">
         <v>1</v>
@@ -8864,7 +8807,7 @@
         <v>183</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F132" s="4">
         <v>1</v>
@@ -8876,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J132" s="4"/>
       <c r="K132" s="4">
@@ -8901,22 +8844,22 @@
         <v>637</v>
       </c>
       <c r="V132" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W132" s="4">
         <v>12.852</v>
       </c>
       <c r="X132" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y132" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z132" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB132" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC132" s="4">
         <v>1</v>
@@ -8936,7 +8879,7 @@
         <v>183</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F133" s="18">
         <v>1</v>
@@ -8948,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="4">
@@ -8973,22 +8916,22 @@
         <v>637</v>
       </c>
       <c r="V133" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W133" s="4">
         <v>12.852</v>
       </c>
       <c r="X133" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y133" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z133" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB133" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
@@ -9005,7 +8948,7 @@
         <v>183</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F134" s="24">
         <v>0</v>
@@ -9017,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4">
@@ -9042,22 +8985,22 @@
         <v>637</v>
       </c>
       <c r="V134" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W134" s="4">
         <v>12.852</v>
       </c>
       <c r="X134" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y134" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z134" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB134" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
@@ -9074,7 +9017,7 @@
         <v>183</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F135" s="4">
         <v>0</v>
@@ -9086,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4">
@@ -9108,22 +9051,22 @@
         <v>637</v>
       </c>
       <c r="V135" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W135" s="4">
         <v>12.852</v>
       </c>
       <c r="X135" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y135" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z135" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB135" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
@@ -9151,7 +9094,7 @@
         <v>181</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -9163,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4">
@@ -9188,22 +9131,22 @@
         <v>637</v>
       </c>
       <c r="V137" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W137" s="4">
         <v>12.852</v>
       </c>
       <c r="X137" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y137" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z137" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB137" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
@@ -9220,7 +9163,7 @@
         <v>181</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F138" s="4">
         <v>1</v>
@@ -9232,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J138" s="4"/>
       <c r="K138" s="4">
@@ -9257,19 +9200,19 @@
         <v>637</v>
       </c>
       <c r="V138" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W138" s="4">
         <v>12.852</v>
       </c>
       <c r="X138" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y138" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z138" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.25">
@@ -9286,7 +9229,7 @@
         <v>181</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F139" s="4">
         <v>1</v>
@@ -9298,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J139" s="4"/>
       <c r="K139" s="4">
@@ -9323,22 +9266,22 @@
         <v>637</v>
       </c>
       <c r="V139" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W139" s="4">
         <v>12.852</v>
       </c>
       <c r="X139" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y139" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z139" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB139" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
@@ -9355,7 +9298,7 @@
         <v>181</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F140" s="24">
         <v>0</v>
@@ -9367,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4">
@@ -9392,22 +9335,22 @@
         <v>637</v>
       </c>
       <c r="V140" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W140" s="4">
         <v>12.852</v>
       </c>
       <c r="X140" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y140" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z140" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB140" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
@@ -9424,7 +9367,7 @@
         <v>181</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F141" s="4">
         <v>0</v>
@@ -9436,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J141" s="4"/>
       <c r="K141" s="4">
@@ -9458,22 +9401,22 @@
         <v>637</v>
       </c>
       <c r="V141" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W141" s="4">
         <v>12.852</v>
       </c>
       <c r="X141" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y141" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z141" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB141" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
@@ -9501,7 +9444,7 @@
         <v>183</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
@@ -9513,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" s="4">
@@ -9538,22 +9481,22 @@
         <v>637</v>
       </c>
       <c r="V143" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W143" s="4">
         <v>12.852</v>
       </c>
       <c r="X143" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y143" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z143" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB143" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
@@ -9570,7 +9513,7 @@
         <v>183</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F144" s="4">
         <v>1</v>
@@ -9582,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J144" s="4"/>
       <c r="K144" s="4">
@@ -9607,22 +9550,22 @@
         <v>637</v>
       </c>
       <c r="V144" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W144" s="4">
         <v>12.852</v>
       </c>
       <c r="X144" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y144" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z144" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB144" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
@@ -9639,7 +9582,7 @@
         <v>183</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -9651,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J145" s="4"/>
       <c r="K145" s="4">
@@ -9676,22 +9619,22 @@
         <v>637</v>
       </c>
       <c r="V145" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W145" s="4">
         <v>12.852</v>
       </c>
       <c r="X145" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y145" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z145" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB145" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
@@ -9708,7 +9651,7 @@
         <v>183</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F146" s="4">
         <v>1</v>
@@ -9720,7 +9663,7 @@
         <v>1</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J146" s="4"/>
       <c r="K146" s="4">
@@ -9745,22 +9688,22 @@
         <v>637</v>
       </c>
       <c r="V146" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W146" s="4">
         <v>12.852</v>
       </c>
       <c r="X146" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y146" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z146" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB146" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
@@ -9777,7 +9720,7 @@
         <v>183</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F147" s="4">
         <v>0</v>
@@ -9789,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J147" s="4"/>
       <c r="K147" s="4">
@@ -9814,22 +9757,22 @@
         <v>155</v>
       </c>
       <c r="V147" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W147" s="4">
         <v>12.852</v>
       </c>
       <c r="X147" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y147" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z147" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB147" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
@@ -9857,7 +9800,7 @@
         <v>182</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -9869,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J149" s="4"/>
       <c r="K149" s="4">
@@ -9894,22 +9837,22 @@
         <v>637</v>
       </c>
       <c r="V149" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W149" s="4">
         <v>12.852</v>
       </c>
       <c r="X149" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y149" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z149" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="Z149" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="AB149" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
@@ -9926,7 +9869,7 @@
         <v>182</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F150" s="4">
         <v>1</v>
@@ -9938,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J150" s="4"/>
       <c r="K150" s="4">
@@ -9963,22 +9906,22 @@
         <v>637</v>
       </c>
       <c r="V150" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W150" s="4">
         <v>12.852</v>
       </c>
       <c r="X150" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y150" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z150" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="Z150" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="AB150" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
@@ -9995,7 +9938,7 @@
         <v>182</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F151" s="24">
         <v>0</v>
@@ -10007,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J151" s="4"/>
       <c r="K151" s="4">
@@ -10035,22 +9978,22 @@
         <v>137</v>
       </c>
       <c r="V151" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W151" s="4">
         <v>12.852</v>
       </c>
       <c r="X151" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y151" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z151" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="Z151" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="AB151" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
@@ -10067,7 +10010,7 @@
         <v>182</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F152" s="24">
         <v>0</v>
@@ -10079,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J152" s="4"/>
       <c r="K152" s="4">
@@ -10104,22 +10047,22 @@
         <v>637</v>
       </c>
       <c r="V152" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W152" s="4">
         <v>12.852</v>
       </c>
       <c r="X152" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y152" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z152" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="Z152" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="AB152" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
@@ -10136,7 +10079,7 @@
         <v>182</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F153" s="4">
         <v>0</v>
@@ -10148,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J153" s="4"/>
       <c r="K153" s="4">
@@ -10170,22 +10113,22 @@
         <v>637</v>
       </c>
       <c r="V153" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W153" s="4">
         <v>12.852</v>
       </c>
       <c r="X153" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y153" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z153" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="Z153" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="AB153" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
@@ -10209,12 +10152,12 @@
       <c r="C155" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F155" s="4">
         <v>1</v>
       </c>
@@ -10225,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J155" s="4"/>
       <c r="K155" s="4">
@@ -10250,22 +10193,22 @@
         <v>637</v>
       </c>
       <c r="V155" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W155" s="4">
         <v>12.852</v>
       </c>
       <c r="X155" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y155" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z155" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB155" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
@@ -10278,12 +10221,12 @@
       <c r="C156" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F156" s="4">
         <v>1</v>
       </c>
@@ -10294,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J156" s="4"/>
       <c r="K156" s="4">
@@ -10319,22 +10262,22 @@
         <v>637</v>
       </c>
       <c r="V156" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W156" s="4">
         <v>12.852</v>
       </c>
       <c r="X156" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y156" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z156" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB156" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
@@ -10347,11 +10290,11 @@
       <c r="C157" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D157" s="18" t="s">
-        <v>184</v>
+      <c r="D157" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -10363,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4">
@@ -10388,22 +10331,22 @@
         <v>637</v>
       </c>
       <c r="V157" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W157" s="4">
         <v>12.852</v>
       </c>
       <c r="X157" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y157" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z157" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB157" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
@@ -10416,11 +10359,11 @@
       <c r="C158" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D158" s="18" t="s">
-        <v>184</v>
+      <c r="D158" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F158" s="4">
         <v>1</v>
@@ -10432,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4">
@@ -10457,19 +10400,19 @@
         <v>637</v>
       </c>
       <c r="V158" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W158" s="4">
         <v>12.852</v>
       </c>
       <c r="X158" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y158" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z158" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
@@ -10482,11 +10425,11 @@
       <c r="C159" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>184</v>
+      <c r="D159" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F159" s="4">
         <v>0</v>
@@ -10498,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J159" s="4"/>
       <c r="K159" s="4">
@@ -10520,22 +10463,22 @@
         <v>637</v>
       </c>
       <c r="V159" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W159" s="4">
         <v>12.852</v>
       </c>
       <c r="X159" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y159" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z159" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB159" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
@@ -10557,13 +10500,13 @@
         <v>9</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F161" s="4">
         <v>0</v>
@@ -10575,7 +10518,7 @@
         <v>1</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J161" s="4"/>
       <c r="K161" s="4">
@@ -10600,7 +10543,7 @@
         <v>156</v>
       </c>
       <c r="AB161" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
@@ -10611,13 +10554,13 @@
         <v>9</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F162" s="4">
         <v>0</v>
@@ -10629,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J162" s="4"/>
       <c r="K162" s="4">
@@ -10654,7 +10597,7 @@
         <v>156</v>
       </c>
       <c r="AB162" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
@@ -10665,13 +10608,13 @@
         <v>9</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F163" s="4">
         <v>0</v>
@@ -10683,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J163" s="4"/>
       <c r="K163" s="4">
@@ -10705,7 +10648,7 @@
         <v>159</v>
       </c>
       <c r="AB163" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
@@ -10728,13 +10671,13 @@
         <v>9</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
@@ -10746,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4">
@@ -10771,22 +10714,22 @@
         <v>637</v>
       </c>
       <c r="V165" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W165" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X165" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y165" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="W165" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X165" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y165" s="4" t="s">
+      <c r="Z165" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="Z165" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="AB165" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
@@ -10797,13 +10740,13 @@
         <v>9</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D166" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F166" s="4">
         <v>1</v>
@@ -10815,7 +10758,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4">
@@ -10840,22 +10783,22 @@
         <v>637</v>
       </c>
       <c r="V166" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W166" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X166" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y166" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="W166" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X166" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y166" s="4" t="s">
+      <c r="Z166" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="Z166" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="AB166" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
@@ -10866,13 +10809,13 @@
         <v>9</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D167" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -10884,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4">
@@ -10909,22 +10852,22 @@
         <v>637</v>
       </c>
       <c r="V167" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W167" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X167" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y167" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="W167" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X167" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y167" s="4" t="s">
+      <c r="Z167" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="Z167" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="AB167" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
@@ -10935,13 +10878,13 @@
         <v>9</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D168" s="18" t="s">
         <v>181</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F168" s="4">
         <v>1</v>
@@ -10953,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4">
@@ -10978,22 +10921,22 @@
         <v>637</v>
       </c>
       <c r="V168" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W168" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X168" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y168" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="W168" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X168" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y168" s="4" t="s">
+      <c r="Z168" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="Z168" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="AB168" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
@@ -11010,7 +10953,7 @@
         <v>181</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F169" s="4">
         <v>0</v>
@@ -11022,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4">
@@ -11047,19 +10990,19 @@
         <v>158</v>
       </c>
       <c r="V169" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="W169" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X169" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y169" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="W169" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X169" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y169" s="4" t="s">
+      <c r="Z169" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="Z169" s="4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
@@ -11081,13 +11024,13 @@
         <v>9</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D171" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -11099,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4">
@@ -11124,22 +11067,22 @@
         <v>637</v>
       </c>
       <c r="V171" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W171" s="4">
         <v>12.852</v>
       </c>
       <c r="X171" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y171" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z171" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB171" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
@@ -11150,13 +11093,13 @@
         <v>9</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F172" s="4">
         <v>1</v>
@@ -11168,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4">
@@ -11193,22 +11136,22 @@
         <v>637</v>
       </c>
       <c r="V172" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W172" s="4">
         <v>12.852</v>
       </c>
       <c r="X172" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y172" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z172" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB172" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
@@ -11219,13 +11162,13 @@
         <v>9</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D173" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -11237,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4">
@@ -11262,25 +11205,25 @@
         <v>637</v>
       </c>
       <c r="V173" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W173" s="4">
         <v>12.852</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y173" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z173" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA173" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AB173" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
@@ -11291,13 +11234,13 @@
         <v>9</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D174" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F174" s="4">
         <v>1</v>
@@ -11309,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4">
@@ -11334,22 +11277,22 @@
         <v>637</v>
       </c>
       <c r="V174" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W174" s="4">
         <v>12.852</v>
       </c>
       <c r="X174" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y174" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z174" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB174" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
@@ -11360,13 +11303,13 @@
         <v>9</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D175" s="18" t="s">
         <v>183</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F175" s="4">
         <v>0</v>
@@ -11378,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4">
@@ -11400,22 +11343,22 @@
         <v>637</v>
       </c>
       <c r="V175" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W175" s="4">
         <v>12.852</v>
       </c>
       <c r="X175" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y175" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z175" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB175" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
@@ -11437,13 +11380,13 @@
         <v>9</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D177" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
@@ -11455,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4">
@@ -11480,22 +11423,22 @@
         <v>637</v>
       </c>
       <c r="V177" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W177" s="4">
         <v>12.852</v>
       </c>
       <c r="X177" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y177" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z177" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="Z177" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="AB177" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
@@ -11506,13 +11449,13 @@
         <v>9</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D178" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F178" s="4">
         <v>1</v>
@@ -11524,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4">
@@ -11549,22 +11492,22 @@
         <v>637</v>
       </c>
       <c r="V178" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W178" s="4">
         <v>12.852</v>
       </c>
       <c r="X178" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y178" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z178" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="Z178" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="AB178" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
@@ -11575,13 +11518,13 @@
         <v>9</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D179" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
@@ -11593,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4">
@@ -11618,22 +11561,22 @@
         <v>637</v>
       </c>
       <c r="V179" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W179" s="4">
         <v>12.852</v>
       </c>
       <c r="X179" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y179" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z179" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="Z179" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="AB179" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
@@ -11644,13 +11587,13 @@
         <v>9</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D180" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F180" s="4">
         <v>1</v>
@@ -11662,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4">
@@ -11687,22 +11630,22 @@
         <v>637</v>
       </c>
       <c r="V180" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W180" s="4">
         <v>12.852</v>
       </c>
       <c r="X180" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y180" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z180" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="Z180" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="AB180" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
@@ -11713,13 +11656,13 @@
         <v>9</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D181" s="18" t="s">
         <v>182</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F181" s="4">
         <v>0</v>
@@ -11731,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J181" s="4"/>
       <c r="K181" s="4">
@@ -11753,22 +11696,22 @@
         <v>637</v>
       </c>
       <c r="V181" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W181" s="4">
         <v>12.852</v>
       </c>
       <c r="X181" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y181" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z181" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="Z181" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="AB181" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
@@ -11790,14 +11733,14 @@
         <v>9</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D183" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F183" s="4">
         <v>1</v>
       </c>
@@ -11808,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J183" s="4"/>
       <c r="K183" s="4">
@@ -11833,22 +11776,22 @@
         <v>637</v>
       </c>
       <c r="V183" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W183" s="4">
         <v>12.852</v>
       </c>
       <c r="X183" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y183" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z183" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB183" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
@@ -11859,14 +11802,14 @@
         <v>9</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D184" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F184" s="4">
         <v>1</v>
       </c>
@@ -11877,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J184" s="4"/>
       <c r="K184" s="4">
@@ -11902,22 +11845,22 @@
         <v>637</v>
       </c>
       <c r="V184" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W184" s="4">
         <v>12.852</v>
       </c>
       <c r="X184" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y184" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z184" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB184" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
@@ -11928,13 +11871,13 @@
         <v>9</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>184</v>
+        <v>230</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F185" s="4">
         <v>1</v>
@@ -11946,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J185" s="4"/>
       <c r="K185" s="4">
@@ -11971,22 +11914,22 @@
         <v>637</v>
       </c>
       <c r="V185" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W185" s="4">
         <v>12.852</v>
       </c>
       <c r="X185" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y185" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z185" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB185" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
@@ -11997,13 +11940,13 @@
         <v>9</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>184</v>
+        <v>231</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F186" s="4">
         <v>1</v>
@@ -12015,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J186" s="4"/>
       <c r="K186" s="4">
@@ -12040,22 +11983,22 @@
         <v>637</v>
       </c>
       <c r="V186" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W186" s="4">
         <v>12.852</v>
       </c>
       <c r="X186" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y186" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z186" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB186" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
@@ -12066,13 +12009,13 @@
         <v>9</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D187" s="18" t="s">
-        <v>184</v>
+        <v>232</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F187" s="4">
         <v>0</v>
@@ -12084,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J187" s="4"/>
       <c r="K187" s="4">
@@ -12106,22 +12049,22 @@
         <v>637</v>
       </c>
       <c r="V187" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W187" s="4">
         <v>12.852</v>
       </c>
       <c r="X187" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y187" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z187" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB187" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
@@ -12149,7 +12092,7 @@
         <v>181</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F189" s="4">
         <v>1</v>
@@ -12161,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J189" s="4"/>
       <c r="K189" s="4">
@@ -12186,22 +12129,22 @@
         <v>637</v>
       </c>
       <c r="V189" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W189" s="4">
         <v>12.852</v>
       </c>
       <c r="X189" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y189" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z189" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB189" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
@@ -12218,7 +12161,7 @@
         <v>181</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F190" s="4">
         <v>1</v>
@@ -12230,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J190" s="4"/>
       <c r="K190" s="4">
@@ -12255,22 +12198,22 @@
         <v>637</v>
       </c>
       <c r="V190" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W190" s="4">
         <v>12.852</v>
       </c>
       <c r="X190" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y190" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z190" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB190" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
@@ -12287,7 +12230,7 @@
         <v>181</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F191" s="4">
         <v>1</v>
@@ -12299,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J191" s="4"/>
       <c r="K191" s="4">
@@ -12324,22 +12267,22 @@
         <v>637</v>
       </c>
       <c r="V191" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W191" s="4">
         <v>12.852</v>
       </c>
       <c r="X191" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y191" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z191" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB191" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
@@ -12356,7 +12299,7 @@
         <v>181</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F192" s="24">
         <v>0</v>
@@ -12368,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="4">
@@ -12393,22 +12336,22 @@
         <v>637</v>
       </c>
       <c r="V192" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W192" s="4">
         <v>12.852</v>
       </c>
       <c r="X192" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y192" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z192" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB192" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.25">
@@ -12425,7 +12368,7 @@
         <v>181</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F193" s="4">
         <v>0</v>
@@ -12437,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J193" s="4"/>
       <c r="K193" s="4">
@@ -12459,22 +12402,22 @@
         <v>637</v>
       </c>
       <c r="V193" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W193" s="4">
         <v>12.852</v>
       </c>
       <c r="X193" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y193" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z193" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB193" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.25">
@@ -12502,7 +12445,7 @@
         <v>182</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -12514,7 +12457,7 @@
         <v>1</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J195" s="4"/>
       <c r="K195" s="4">
@@ -12539,22 +12482,22 @@
         <v>637</v>
       </c>
       <c r="V195" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W195" s="4">
         <v>12.852</v>
       </c>
       <c r="X195" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y195" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z195" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB195" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.25">
@@ -12571,7 +12514,7 @@
         <v>182</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F196" s="4">
         <v>1</v>
@@ -12583,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J196" s="4"/>
       <c r="K196" s="4">
@@ -12608,22 +12551,22 @@
         <v>637</v>
       </c>
       <c r="V196" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W196" s="4">
         <v>12.852</v>
       </c>
       <c r="X196" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y196" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z196" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB196" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.25">
@@ -12640,7 +12583,7 @@
         <v>182</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -12652,7 +12595,7 @@
         <v>1</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J197" s="4"/>
       <c r="K197" s="4">
@@ -12677,22 +12620,22 @@
         <v>637</v>
       </c>
       <c r="V197" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W197" s="4">
         <v>12.852</v>
       </c>
       <c r="X197" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y197" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z197" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB197" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.25">
@@ -12709,7 +12652,7 @@
         <v>182</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F198" s="4">
         <v>1</v>
@@ -12721,7 +12664,7 @@
         <v>1</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J198" s="4"/>
       <c r="K198" s="4">
@@ -12746,22 +12689,22 @@
         <v>637</v>
       </c>
       <c r="V198" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W198" s="4">
         <v>12.852</v>
       </c>
       <c r="X198" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y198" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z198" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB198" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.25">
@@ -12778,7 +12721,7 @@
         <v>182</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F199" s="4">
         <v>0</v>
@@ -12790,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J199" s="4"/>
       <c r="K199" s="4">
@@ -12812,22 +12755,22 @@
         <v>637</v>
       </c>
       <c r="V199" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W199" s="4">
         <v>12.852</v>
       </c>
       <c r="X199" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y199" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Z199" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB199" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.25">
@@ -12855,7 +12798,7 @@
         <v>183</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -12867,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J201" s="4"/>
       <c r="K201" s="4">
@@ -12895,19 +12838,19 @@
         <v>19</v>
       </c>
       <c r="V201" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W201" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X201" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y201" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="W201" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X201" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y201" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="Z201" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.25">
@@ -12924,7 +12867,7 @@
         <v>183</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F202" s="4">
         <v>1</v>
@@ -12936,7 +12879,7 @@
         <v>1</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J202" s="4"/>
       <c r="K202" s="4">
@@ -12964,19 +12907,19 @@
         <v>19</v>
       </c>
       <c r="V202" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W202" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X202" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y202" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="W202" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X202" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y202" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="Z202" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.25">
@@ -12993,7 +12936,7 @@
         <v>183</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -13005,7 +12948,7 @@
         <v>1</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J203" s="4"/>
       <c r="K203" s="4">
@@ -13030,19 +12973,19 @@
         <v>637</v>
       </c>
       <c r="V203" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W203" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X203" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y203" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="W203" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X203" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y203" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="Z203" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.25">
@@ -13059,7 +13002,7 @@
         <v>183</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F204" s="4">
         <v>1</v>
@@ -13071,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J204" s="4"/>
       <c r="K204" s="4">
@@ -13096,19 +13039,19 @@
         <v>637</v>
       </c>
       <c r="V204" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W204" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X204" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y204" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="W204" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X204" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y204" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="Z204" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.25">
@@ -13125,7 +13068,7 @@
         <v>183</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F205" s="4">
         <v>0</v>
@@ -13137,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J205" s="4"/>
       <c r="K205" s="4">
@@ -13159,19 +13102,19 @@
         <v>637</v>
       </c>
       <c r="V205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="W205" s="4">
+        <v>12.852</v>
+      </c>
+      <c r="X205" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y205" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="W205" s="4">
-        <v>12.852</v>
-      </c>
-      <c r="X205" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y205" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="Z205" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206" spans="1:29" x14ac:dyDescent="0.25">
@@ -13195,12 +13138,12 @@
       <c r="C207" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="D207" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E207" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F207" s="4">
         <v>1</v>
       </c>
@@ -13211,7 +13154,7 @@
         <v>1</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J207" s="4"/>
       <c r="K207" s="4">
@@ -13236,22 +13179,22 @@
         <v>637</v>
       </c>
       <c r="V207" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W207" s="4">
         <v>12.852</v>
       </c>
       <c r="X207" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y207" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z207" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB207" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC207" s="4">
         <v>1</v>
@@ -13267,12 +13210,12 @@
       <c r="C208" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="D208" s="18" t="s">
+      <c r="D208" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E208" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="F208" s="4">
         <v>1</v>
       </c>
@@ -13283,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J208" s="4"/>
       <c r="K208" s="4">
@@ -13308,22 +13251,22 @@
         <v>637</v>
       </c>
       <c r="V208" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W208" s="4">
         <v>12.852</v>
       </c>
       <c r="X208" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y208" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z208" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB208" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC208" s="4">
         <v>1</v>
@@ -13339,11 +13282,11 @@
       <c r="C209" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D209" s="18" t="s">
-        <v>184</v>
+      <c r="D209" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F209" s="4">
         <v>1</v>
@@ -13355,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J209" s="4"/>
       <c r="K209" s="4">
@@ -13380,22 +13323,22 @@
         <v>637</v>
       </c>
       <c r="V209" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W209" s="4">
         <v>12.852</v>
       </c>
       <c r="X209" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y209" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z209" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB209" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.25">
@@ -13408,11 +13351,11 @@
       <c r="C210" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D210" s="18" t="s">
-        <v>184</v>
+      <c r="D210" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F210" s="4">
         <v>1</v>
@@ -13424,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J210" s="4"/>
       <c r="K210" s="4">
@@ -13449,22 +13392,22 @@
         <v>637</v>
       </c>
       <c r="V210" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W210" s="4">
         <v>12.852</v>
       </c>
       <c r="X210" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y210" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z210" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB210" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.25">
@@ -13477,11 +13420,11 @@
       <c r="C211" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D211" s="18" t="s">
-        <v>184</v>
+      <c r="D211" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F211" s="4">
         <v>0</v>
@@ -13493,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="J211" s="4"/>
       <c r="K211" s="4">
@@ -13515,22 +13458,22 @@
         <v>637</v>
       </c>
       <c r="V211" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W211" s="4">
         <v>12.852</v>
       </c>
       <c r="X211" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y211" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z211" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB211" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.25">
@@ -13538,583 +13481,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>212</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D213" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G213" s="18">
-        <v>5</v>
-      </c>
-      <c r="H213" s="18">
-        <v>2</v>
-      </c>
-      <c r="I213" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="K213" s="18">
-        <v>1</v>
-      </c>
-      <c r="L213" s="4">
-        <v>0</v>
-      </c>
-      <c r="M213" s="4">
-        <v>2</v>
-      </c>
-      <c r="N213" s="4">
-        <v>1</v>
-      </c>
-      <c r="P213" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="Q213" s="4">
-        <v>637</v>
-      </c>
-      <c r="R213" s="4">
-        <v>1</v>
-      </c>
-      <c r="S213" s="4">
-        <v>0</v>
-      </c>
-      <c r="U213" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>213</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D214" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G214" s="18">
-        <v>5</v>
-      </c>
-      <c r="H214" s="18">
-        <v>2</v>
-      </c>
-      <c r="I214" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="K214" s="18">
-        <v>1</v>
-      </c>
-      <c r="L214" s="4">
-        <v>0</v>
-      </c>
-      <c r="M214" s="4">
-        <v>2</v>
-      </c>
-      <c r="N214" s="4">
-        <v>2</v>
-      </c>
-      <c r="P214" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="Q214" s="4">
-        <v>637</v>
-      </c>
-      <c r="R214" s="4">
-        <v>1</v>
-      </c>
-      <c r="S214" s="4">
-        <v>0</v>
-      </c>
-      <c r="U214" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>215</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D216" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G216" s="4">
-        <v>5</v>
-      </c>
-      <c r="H216" s="4">
-        <v>1</v>
-      </c>
-      <c r="I216" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J216" s="4"/>
-      <c r="K216" s="18">
-        <v>1</v>
-      </c>
-      <c r="L216" s="4">
-        <v>1</v>
-      </c>
-      <c r="M216" s="4">
-        <v>1</v>
-      </c>
-      <c r="N216" s="4">
-        <v>1</v>
-      </c>
-      <c r="P216" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q216" s="4">
-        <v>637</v>
-      </c>
-      <c r="R216" s="4">
-        <v>1</v>
-      </c>
-      <c r="S216" s="4">
-        <v>0</v>
-      </c>
-      <c r="T216" s="4">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>216</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D217" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G217" s="4">
-        <v>3</v>
-      </c>
-      <c r="H217" s="4">
-        <v>2</v>
-      </c>
-      <c r="I217" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J217" s="4"/>
-      <c r="K217" s="18">
-        <v>1</v>
-      </c>
-      <c r="L217" s="4">
-        <v>1</v>
-      </c>
-      <c r="M217" s="4">
-        <v>1</v>
-      </c>
-      <c r="N217" s="4">
-        <v>2</v>
-      </c>
-      <c r="P217" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q217" s="4">
-        <v>637</v>
-      </c>
-      <c r="R217" s="4">
-        <v>1</v>
-      </c>
-      <c r="S217" s="4">
-        <v>0</v>
-      </c>
-      <c r="T217" s="4">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>217</v>
-      </c>
-      <c r="E218" s="4"/>
-      <c r="G218" s="4"/>
-      <c r="H218" s="4"/>
-      <c r="I218" s="4"/>
-      <c r="J218" s="4"/>
-    </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>218</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G219" s="4">
-        <v>5</v>
-      </c>
-      <c r="H219" s="4">
-        <v>1</v>
-      </c>
-      <c r="I219" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J219" s="4"/>
-      <c r="K219" s="18">
-        <v>1</v>
-      </c>
-      <c r="M219" s="4">
-        <v>4</v>
-      </c>
-      <c r="N219" s="4">
-        <v>1</v>
-      </c>
-      <c r="P219" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q219" s="4">
-        <v>511</v>
-      </c>
-      <c r="R219" s="4">
-        <v>1</v>
-      </c>
-      <c r="S219" s="4">
-        <v>1</v>
-      </c>
-      <c r="U219" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>219</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G220" s="4">
-        <v>5</v>
-      </c>
-      <c r="H220" s="4">
-        <v>1</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J220" s="4"/>
-      <c r="K220" s="18">
-        <v>1</v>
-      </c>
-      <c r="M220" s="4">
-        <v>4</v>
-      </c>
-      <c r="N220" s="4">
-        <v>2</v>
-      </c>
-      <c r="P220" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q220" s="4">
-        <v>511</v>
-      </c>
-      <c r="R220" s="4">
-        <v>1</v>
-      </c>
-      <c r="S220" s="4">
-        <v>1</v>
-      </c>
-      <c r="U220" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>220</v>
-      </c>
-      <c r="E221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-      <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
-    </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>221</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D222" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F222" s="4">
-        <v>1</v>
-      </c>
-      <c r="G222" s="4">
-        <v>5</v>
-      </c>
-      <c r="H222" s="4">
-        <v>1</v>
-      </c>
-      <c r="I222" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J222" s="4"/>
-      <c r="K222" s="18">
-        <v>1</v>
-      </c>
-      <c r="L222" s="4">
-        <v>1</v>
-      </c>
-      <c r="M222" s="4">
-        <v>16</v>
-      </c>
-      <c r="N222" s="4">
-        <v>1</v>
-      </c>
-      <c r="P222" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q222" s="4">
-        <v>637</v>
-      </c>
-      <c r="R222" s="4">
-        <v>1</v>
-      </c>
-      <c r="S222" s="4">
-        <v>0</v>
-      </c>
-      <c r="T222" s="4">
-        <v>683</v>
-      </c>
-      <c r="U222" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>222</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D223" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F223" s="4">
-        <v>1</v>
-      </c>
-      <c r="G223" s="4">
-        <v>5</v>
-      </c>
-      <c r="H223" s="4">
-        <v>1</v>
-      </c>
-      <c r="I223" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="J223" s="4"/>
-      <c r="K223" s="18">
-        <v>1</v>
-      </c>
-      <c r="L223" s="4">
-        <v>1</v>
-      </c>
-      <c r="M223" s="4">
-        <v>16</v>
-      </c>
-      <c r="N223" s="4">
-        <v>2</v>
-      </c>
-      <c r="P223" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q223" s="4">
-        <v>637</v>
-      </c>
-      <c r="R223" s="4">
-        <v>1</v>
-      </c>
-      <c r="S223" s="4">
-        <v>1</v>
-      </c>
-      <c r="T223" s="4">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>224</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D225" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F225" s="4">
-        <v>1</v>
-      </c>
-      <c r="G225" s="4">
-        <v>5</v>
-      </c>
-      <c r="H225" s="4">
-        <v>1</v>
-      </c>
-      <c r="I225" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="J225" s="4">
-        <v>1</v>
-      </c>
-      <c r="K225" s="18">
-        <v>2</v>
-      </c>
-      <c r="L225" s="4">
-        <v>1</v>
-      </c>
-      <c r="M225" s="4">
-        <v>18</v>
-      </c>
-      <c r="N225" s="4">
-        <v>3</v>
-      </c>
-      <c r="P225" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q225" s="4">
-        <v>511</v>
-      </c>
-      <c r="R225" s="4">
-        <v>1</v>
-      </c>
-      <c r="S225" s="4">
-        <v>1</v>
-      </c>
-      <c r="T225" s="4">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>225</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D226" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F226" s="4">
-        <v>1</v>
-      </c>
-      <c r="G226" s="4">
-        <v>5</v>
-      </c>
-      <c r="H226" s="4">
-        <v>1</v>
-      </c>
-      <c r="I226" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="J226" s="4">
-        <v>1</v>
-      </c>
-      <c r="K226" s="18">
-        <v>2</v>
-      </c>
-      <c r="L226" s="4">
-        <v>1</v>
-      </c>
-      <c r="M226" s="4">
-        <v>18</v>
-      </c>
-      <c r="N226" s="4">
-        <v>4</v>
-      </c>
-      <c r="P226" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q226" s="4">
-        <v>511</v>
-      </c>
-      <c r="R226" s="4">
-        <v>1</v>
-      </c>
-      <c r="S226" s="4">
-        <v>1</v>
-      </c>
-      <c r="T226" s="4">
-        <v>1397</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AE211"/>
+  <autoFilter ref="A1:AE212"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
